--- a/data/hotels_by_city/Dallas/Dallas_shard_667.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_667.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="655">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1857 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r552129826-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>109088</t>
+  </si>
+  <si>
+    <t>552129826</t>
+  </si>
+  <si>
+    <t>01/06/2018</t>
+  </si>
+  <si>
+    <t>Great place for extended stay</t>
+  </si>
+  <si>
+    <t>We stayed here for a few weeks during a remodel.  The staff is amazing everyone from the front desk to housekeeping.  We first were placed in a 1 bed with a sofa bed and kitchenette on the 1st floor in Bldg A.  It was super quiet at night.  Then we were upgraded to a super sized 2 bedroom, 2 bath, and full kitchen on the 2nd floor of Bldg B.  We were able to hear Interstate 35 traffic from this side of property.  It wasn't bad, but it did take a couple days to get used to the noise.  They did have a tennis/basketball court and an outdoor pool.  The kids enjoyed the tennis and basketball court before it got cold out.  The front desk provided the equipment to play.  The breakfast was good.  It included oatmeal with an array of toppings, make your own waffles, fruits, yogurts, pastries, and more.  In the evenings, Monday through Wednesday, they provided a complimentary, light dinner of sorts for the guests like make your own burgers, chicken chili, and sweets.  They would provide drinks too like beer, wine, and sodas.  There was always enough for everyone that arrived.  The employee working that was always nice.  You could also find the manager greeting the guests.  Parking was always available on the Bldg B side, and it was well lit.  The only con was that the laundry facilities didn't always work, but they would refund...We stayed here for a few weeks during a remodel.  The staff is amazing everyone from the front desk to housekeeping.  We first were placed in a 1 bed with a sofa bed and kitchenette on the 1st floor in Bldg A.  It was super quiet at night.  Then we were upgraded to a super sized 2 bedroom, 2 bath, and full kitchen on the 2nd floor of Bldg B.  We were able to hear Interstate 35 traffic from this side of property.  It wasn't bad, but it did take a couple days to get used to the noise.  They did have a tennis/basketball court and an outdoor pool.  The kids enjoyed the tennis and basketball court before it got cold out.  The front desk provided the equipment to play.  The breakfast was good.  It included oatmeal with an array of toppings, make your own waffles, fruits, yogurts, pastries, and more.  In the evenings, Monday through Wednesday, they provided a complimentary, light dinner of sorts for the guests like make your own burgers, chicken chili, and sweets.  They would provide drinks too like beer, wine, and sodas.  There was always enough for everyone that arrived.  The employee working that was always nice.  You could also find the manager greeting the guests.  Parking was always available on the Bldg B side, and it was well lit.  The only con was that the laundry facilities didn't always work, but they would refund your money each time.  The housekeeping staff was really great.  They always kept the property and our room super clean.  We especially appreciated the work that Ms. Elisa and Mr. Jose Luis done.  All the front desk staff was wonderful and nice to us our whole stay.  We got to know their work ethic pretty well because of our extended stay.  It's right off the freeway, close to restaurants, and shopping.  Overall this is a very clean, safe, and comfortable place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We stayed here for a few weeks during a remodel.  The staff is amazing everyone from the front desk to housekeeping.  We first were placed in a 1 bed with a sofa bed and kitchenette on the 1st floor in Bldg A.  It was super quiet at night.  Then we were upgraded to a super sized 2 bedroom, 2 bath, and full kitchen on the 2nd floor of Bldg B.  We were able to hear Interstate 35 traffic from this side of property.  It wasn't bad, but it did take a couple days to get used to the noise.  They did have a tennis/basketball court and an outdoor pool.  The kids enjoyed the tennis and basketball court before it got cold out.  The front desk provided the equipment to play.  The breakfast was good.  It included oatmeal with an array of toppings, make your own waffles, fruits, yogurts, pastries, and more.  In the evenings, Monday through Wednesday, they provided a complimentary, light dinner of sorts for the guests like make your own burgers, chicken chili, and sweets.  They would provide drinks too like beer, wine, and sodas.  There was always enough for everyone that arrived.  The employee working that was always nice.  You could also find the manager greeting the guests.  Parking was always available on the Bldg B side, and it was well lit.  The only con was that the laundry facilities didn't always work, but they would refund...We stayed here for a few weeks during a remodel.  The staff is amazing everyone from the front desk to housekeeping.  We first were placed in a 1 bed with a sofa bed and kitchenette on the 1st floor in Bldg A.  It was super quiet at night.  Then we were upgraded to a super sized 2 bedroom, 2 bath, and full kitchen on the 2nd floor of Bldg B.  We were able to hear Interstate 35 traffic from this side of property.  It wasn't bad, but it did take a couple days to get used to the noise.  They did have a tennis/basketball court and an outdoor pool.  The kids enjoyed the tennis and basketball court before it got cold out.  The front desk provided the equipment to play.  The breakfast was good.  It included oatmeal with an array of toppings, make your own waffles, fruits, yogurts, pastries, and more.  In the evenings, Monday through Wednesday, they provided a complimentary, light dinner of sorts for the guests like make your own burgers, chicken chili, and sweets.  They would provide drinks too like beer, wine, and sodas.  There was always enough for everyone that arrived.  The employee working that was always nice.  You could also find the manager greeting the guests.  Parking was always available on the Bldg B side, and it was well lit.  The only con was that the laundry facilities didn't always work, but they would refund your money each time.  The housekeeping staff was really great.  They always kept the property and our room super clean.  We especially appreciated the work that Ms. Elisa and Mr. Jose Luis done.  All the front desk staff was wonderful and nice to us our whole stay.  We got to know their work ethic pretty well because of our extended stay.  It's right off the freeway, close to restaurants, and shopping.  Overall this is a very clean, safe, and comfortable place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r549620101-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>549620101</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>NIce and inexpensive place to stay while visiting NRH.</t>
+  </si>
+  <si>
+    <t>Stayed here while visiting my father. Its a category 1 hotel, but its clean, conveniently located adjacent to I-820 and the best burger place in the US.....Whataburger. Located at exit 17. Be careful if exiting from the east. The right turn on red has a camera and a small sign that says "No Right on Red". You will get a ticket, I know. Staff is friendly and maid service is prompt. Also has good top end restaurants nearby (&lt;1.5 miles) too.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mary R, Front Office Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded December 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here while visiting my father. Its a category 1 hotel, but its clean, conveniently located adjacent to I-820 and the best burger place in the US.....Whataburger. Located at exit 17. Be careful if exiting from the east. The right turn on red has a camera and a small sign that says "No Right on Red". You will get a ticket, I know. Staff is friendly and maid service is prompt. Also has good top end restaurants nearby (&lt;1.5 miles) too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r529003292-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>529003292</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Great Location for those who want to avoid the highways</t>
+  </si>
+  <si>
+    <t>This hotel is just about like most of Marriott's Residence Inn properties.  I found the staff, front desk people, especially Rachel and Miquel (that is a "q") very helpful. The breakfast was v good but they had no apples!!! never!!! Why no apples?  An apple a day keep my friends at home!! ha!Parking is good with easy access to the street. One big problem is the signage   If you are looking for a sign, give up now. You will never find it. The codes people has them make sign so gd dm small that it's worthless.  You will NEVER FIND THIS PLACE AT NIGHT!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is just about like most of Marriott's Residence Inn properties.  I found the staff, front desk people, especially Rachel and Miquel (that is a "q") very helpful. The breakfast was v good but they had no apples!!! never!!! Why no apples?  An apple a day keep my friends at home!! ha!Parking is good with easy access to the street. One big problem is the signage   If you are looking for a sign, give up now. You will never find it. The codes people has them make sign so gd dm small that it's worthless.  You will NEVER FIND THIS PLACE AT NIGHT!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r514356179-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>514356179</t>
+  </si>
+  <si>
+    <t>08/17/2017</t>
+  </si>
+  <si>
+    <t>Very enjoyable long weekend</t>
+  </si>
+  <si>
+    <t>Pros:  All Marriott hotels are non-smoking. Hotel staff go above and beyond to make stay best.      Of course, the pool was fun, gas BBQ grills, Free breakfast with fresh scrambled eggs, oatmeal, waffles, fruits and beverages. Something for everyone. Not luxury, but good enough.Clean rooms.  Cons: Only one, unavoidable if you do not have pets, is pet odor. . There was NO pet odor in the corridor, fabulous.  Our first room had a strong odor, so we were moved. The second room had an odor, but not sure if it was pet or the chemical to remove pet odor. I have serious allergies so it had to be pretty decent if my allergies did not kick in immediately. No one else in the family had any problem, so A+ there., This hotel is well kept and staff is top notch.    This hotel is tucked away easily accessible from the hwy, not downtown, not overly crowded, safe and not remote. We have visited several times in the last 4 years and it seems to still be nice. Some in other areas have dropped off my list of favorites.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Pros:  All Marriott hotels are non-smoking. Hotel staff go above and beyond to make stay best.      Of course, the pool was fun, gas BBQ grills, Free breakfast with fresh scrambled eggs, oatmeal, waffles, fruits and beverages. Something for everyone. Not luxury, but good enough.Clean rooms.  Cons: Only one, unavoidable if you do not have pets, is pet odor. . There was NO pet odor in the corridor, fabulous.  Our first room had a strong odor, so we were moved. The second room had an odor, but not sure if it was pet or the chemical to remove pet odor. I have serious allergies so it had to be pretty decent if my allergies did not kick in immediately. No one else in the family had any problem, so A+ there., This hotel is well kept and staff is top notch.    This hotel is tucked away easily accessible from the hwy, not downtown, not overly crowded, safe and not remote. We have visited several times in the last 4 years and it seems to still be nice. Some in other areas have dropped off my list of favorites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r504789575-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>504789575</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Customer Service</t>
+  </si>
+  <si>
+    <t>It is rare to find good customer service. This staff, especially Ronna, was truly amazing, so friendly and truly wanted our stay to be unique.  The hotel was great. We would visit again. We felt very much at home.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>It is rare to find good customer service. This staff, especially Ronna, was truly amazing, so friendly and truly wanted our stay to be unique.  The hotel was great. We would visit again. We felt very much at home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r504132598-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>504132598</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>EXCELLENT STAY - ONE OF THE BEST  RESIDENCE INNS</t>
+  </si>
+  <si>
+    <t>The staff at this Residence Inn in Fossil Creek is the most accommodating staff I have had the pleasure of interacting with.  As a Marriott Gold member, I travel extensively and this is one of the best Residence Inns I have stayed at - if not the best.  The breakfast is exceptional (they provide the cold cereals, etc by 0500 for those on an early schedule) and the evening socials are excellent.  The rooms are well maintained and the housekeeping staff does an exceptional job.   They have a keen sense of "customer service" that many in the industry don't seem to understand.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>The staff at this Residence Inn in Fossil Creek is the most accommodating staff I have had the pleasure of interacting with.  As a Marriott Gold member, I travel extensively and this is one of the best Residence Inns I have stayed at - if not the best.  The breakfast is exceptional (they provide the cold cereals, etc by 0500 for those on an early schedule) and the evening socials are excellent.  The rooms are well maintained and the housekeeping staff does an exceptional job.   They have a keen sense of "customer service" that many in the industry don't seem to understand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r497237396-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>497237396</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Stay towards the western side of the property</t>
+  </si>
+  <si>
+    <t>Helpful and kind staff, good location to restaurants and shopping.  Rooms are well appointed, nice shelving in closet, but bathroom area was in need of paint / newer carpet.  TIP:  ask for a room more in the back of the property and not adjacent to Sandshell Drive - it looks there is a Coca-Cola distribution center in the area and lots of truck traffic next to the eastern side of the property.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Helpful and kind staff, good location to restaurants and shopping.  Rooms are well appointed, nice shelving in closet, but bathroom area was in need of paint / newer carpet.  TIP:  ask for a room more in the back of the property and not adjacent to Sandshell Drive - it looks there is a Coca-Cola distribution center in the area and lots of truck traffic next to the eastern side of the property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r495853327-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>495853327</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>Awesome Experience</t>
+  </si>
+  <si>
+    <t>Just finishing a stay here. This is by far the cleanest hotel I have ever stayed. Great location, very restful, good food and superior customer focused staff. Just want to recognize Sandra ( manager of housekeeping) Miquel ( who handled a situation at the front desk with a customer that was particularly off base ) and Ronna who was the ultimate hostess and worked very hard to help with laundry matters. This hotel simply has the best staff I ever experienced. The hotel is just down the road ( you have to drive) from some very nice restaurants. And the weekday get togethers are awesomeMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Just finishing a stay here. This is by far the cleanest hotel I have ever stayed. Great location, very restful, good food and superior customer focused staff. Just want to recognize Sandra ( manager of housekeeping) Miquel ( who handled a situation at the front desk with a customer that was particularly off base ) and Ronna who was the ultimate hostess and worked very hard to help with laundry matters. This hotel simply has the best staff I ever experienced. The hotel is just down the road ( you have to drive) from some very nice restaurants. And the weekday get togethers are awesomeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r489116526-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>489116526</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A respite from home repairs </t>
+  </si>
+  <si>
+    <t>My kids and I checked in after the paint fumes became unbearable while I had my house repainted. Ronna was working the front desk and she immediately made me feel at ease with her smile and understanding as well as her ability to find me a room at the last minute on a holiday weekend.  During my stay,  Ronna helped us numerous times; even finding me some milk for a late afternoon coffee, and always with a smile.  She was kind to my children and helped them as well.  The cleaning staff is friendly and will work to accommodate your schedule. The kids had fun in the pool which was meticulously maintained.  Breakfast is nicely done with a large variety to choose from.  You can choose to eat outside near the pool which is very pleasant. This was our second stay here and it again exceeded our expectations.  Thank you Ronna and staff! MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>My kids and I checked in after the paint fumes became unbearable while I had my house repainted. Ronna was working the front desk and she immediately made me feel at ease with her smile and understanding as well as her ability to find me a room at the last minute on a holiday weekend.  During my stay,  Ronna helped us numerous times; even finding me some milk for a late afternoon coffee, and always with a smile.  She was kind to my children and helped them as well.  The cleaning staff is friendly and will work to accommodate your schedule. The kids had fun in the pool which was meticulously maintained.  Breakfast is nicely done with a large variety to choose from.  You can choose to eat outside near the pool which is very pleasant. This was our second stay here and it again exceeded our expectations.  Thank you Ronna and staff! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r484744757-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>484744757</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Great for families</t>
+  </si>
+  <si>
+    <t>This hotel was great for our extended family to meet at for a weekend away. We enjoyed the breakfast provided, great outdoor area for grilling/dining, and of course the kids loved the pool! Rooms were clean and spacious, and hotel staff was friendly and helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r482675419-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>482675419</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>I am a platinum elite member and I made my reservations in advance.  I called several days in advance to upgrade one room and put my parents name on the other reservation.  When the reservation was originally made I asked that the rooms be close together and even after the upgrade the made it possible for my parents room to be right next door.  I then called the morning of the reservation and asked if we could check in early.  They accommodated everything I needed.  The sent reminder emails asking if there was anything they could do and sent a follow up email after my stay.  The property is a little older however it was a very nice stay.  I think the only thing i would change would have been the breakfast on Saturday morning.  It was not one of the best of have ever had but not the worst either.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am a platinum elite member and I made my reservations in advance.  I called several days in advance to upgrade one room and put my parents name on the other reservation.  When the reservation was originally made I asked that the rooms be close together and even after the upgrade the made it possible for my parents room to be right next door.  I then called the morning of the reservation and asked if we could check in early.  They accommodated everything I needed.  The sent reminder emails asking if there was anything they could do and sent a follow up email after my stay.  The property is a little older however it was a very nice stay.  I think the only thing i would change would have been the breakfast on Saturday morning.  It was not one of the best of have ever had but not the worst either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r473011583-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>473011583</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>Large apartment style rooms</t>
+  </si>
+  <si>
+    <t>The rooms had a nice sized bedroom, living room and kitchen/dining area with a full size refrigerator, microwave, and two burner hot plate, dishwasher, two TVs.  The room was furnished with some dishes, flatware, etc.  The area was nice with nearby restaurants, grocery store, Starbucks, etc.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r461596717-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>461596717</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Welcoming place away from home</t>
+  </si>
+  <si>
+    <t>I just spent a good part of the winter there, and the Residence Inn exceeded my expectations in many ways.  The morning breakfast seemed better than at similar hotels, with my favorites greek yogurt, fresh fruit, and various pastries (eggs &amp; other hot food are there as well).  The evening reception changes nightly and was usually enough for dinner.  The hamburgers grilled outside were quite tasty!  As an extra touch, Valentine's Day included cupcakes and chocolate strawberries, showing that management cares about the guests.  As usual for Residence Inns, the rooms are quite large and with nice desks.  The hotel is adjacent to a nice community with a new sidewalk that seemed safe for walking or running, so you're not stranded at the hotel.  Overall, a bunch of us stayed there a lot and we were glad we did.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>I just spent a good part of the winter there, and the Residence Inn exceeded my expectations in many ways.  The morning breakfast seemed better than at similar hotels, with my favorites greek yogurt, fresh fruit, and various pastries (eggs &amp; other hot food are there as well).  The evening reception changes nightly and was usually enough for dinner.  The hamburgers grilled outside were quite tasty!  As an extra touch, Valentine's Day included cupcakes and chocolate strawberries, showing that management cares about the guests.  As usual for Residence Inns, the rooms are quite large and with nice desks.  The hotel is adjacent to a nice community with a new sidewalk that seemed safe for walking or running, so you're not stranded at the hotel.  Overall, a bunch of us stayed there a lot and we were glad we did.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r459846920-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>459846920</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Mr &amp; Mrs DPW</t>
+  </si>
+  <si>
+    <t>Awesome property ,super friendly staff. Colleen Radke is a really nice person &amp; wonderful general manager. Rachel Ickes is the best event specialist. The guests are treated like family. Thank you for your generosity!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2017</t>
+  </si>
+  <si>
+    <t>Awesome property ,super friendly staff. Colleen Radke is a really nice person &amp; wonderful general manager. Rachel Ickes is the best event specialist. The guests are treated like family. Thank you for your generosity!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r458406580-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>458406580</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t>Victor at the front desk was GREAT!!!</t>
+  </si>
+  <si>
+    <t>I was traveling for a busy business convention in Fort Worth and arrived at a different hotel (Hilton) that I had been booked at that was completely under construction. I wouldn't stay there so I quickly called the Marriott Residences at Fossil Creek where I was kindly treated quickly and attentively by the front desk associate "Victor". He was able to make a last minute reservation for me and was very professional and accommodating both on the phone and 3 minutes later when I showed up in desperate need of a MARRIOTT Residence! Not only was my room clean and comfortable, the manager came up personally to help me ( a completely computer illiterate person) get my computer and my "office" up and running so I could get right to work! My stay was wonderful and I got a ton of work completed since the hotel was quiet (no construction). There was PLENTY of parking and I was always able to park near the entrance for easy in and easy out convenience! Victor and the MOD were friendly and warm and inviting and I am happy to recommend this location at Fossil Creek and would definitely stay again! Thank you for making my business trip a complete success!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was traveling for a busy business convention in Fort Worth and arrived at a different hotel (Hilton) that I had been booked at that was completely under construction. I wouldn't stay there so I quickly called the Marriott Residences at Fossil Creek where I was kindly treated quickly and attentively by the front desk associate "Victor". He was able to make a last minute reservation for me and was very professional and accommodating both on the phone and 3 minutes later when I showed up in desperate need of a MARRIOTT Residence! Not only was my room clean and comfortable, the manager came up personally to help me ( a completely computer illiterate person) get my computer and my "office" up and running so I could get right to work! My stay was wonderful and I got a ton of work completed since the hotel was quiet (no construction). There was PLENTY of parking and I was always able to park near the entrance for easy in and easy out convenience! Victor and the MOD were friendly and warm and inviting and I am happy to recommend this location at Fossil Creek and would definitely stay again! Thank you for making my business trip a complete success!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r451567062-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>451567062</t>
+  </si>
+  <si>
+    <t>01/12/2017</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>I stayed here for one night when visiting the Fort Worth area.Due to the construction along the freeway it adds a little bit of challenge getting to it since there is so much.Check in was very efficient especially by doing the mobile check in ahead of time.The rooms are well maintained but needs a refresh to meet the standards I saw at another Residence inn I stayed in earlier.The gym has a good selection of free weights and two treadmills and an elliptical.  Small but functional.The hosted evening consisted of beer, wine, soft drinks and BBQ pork.  The breakfast was also good with Chobani yogurt, special k berry cereal, eggs, bacon, fresh fruit and grits.There is a small market area across from the front desk for small snacks and food items so you don't have to run out.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for one night when visiting the Fort Worth area.Due to the construction along the freeway it adds a little bit of challenge getting to it since there is so much.Check in was very efficient especially by doing the mobile check in ahead of time.The rooms are well maintained but needs a refresh to meet the standards I saw at another Residence inn I stayed in earlier.The gym has a good selection of free weights and two treadmills and an elliptical.  Small but functional.The hosted evening consisted of beer, wine, soft drinks and BBQ pork.  The breakfast was also good with Chobani yogurt, special k berry cereal, eggs, bacon, fresh fruit and grits.There is a small market area across from the front desk for small snacks and food items so you don't have to run out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r433523755-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>433523755</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Comfortable and relaxing stay</t>
+  </si>
+  <si>
+    <t>A very comfortable and relaxing place to stay. It has all the facilities you expect in the hotel and everything else such as restaurants and shops a few minutes drive. Also you can walk to resturant or pub.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r429255849-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>429255849</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>High School Reunion</t>
+  </si>
+  <si>
+    <t>I selected this Marriott location because it was the closest to the venue where my high school reunion was being held. In addition it had the best weekend rates of the several other Marriotts in the area. Upon arrival, I understood the reason for the lower rate. It is very near the intersection of I-820 &amp; I-35W, both of which are under construction. So it's pretty difficult to get to this property, but once you get there it's worth it!The rooms are large &amp; clean. The beds are comfortable &amp; the complimentary weekend breakfast is excellent, especially on Sunday!The staff was very helpful, when I had questions &amp; the building &amp; grounds were well maintained. As a bonus, there's a Whataburger just a couple of blocks away, along with other local &amp; national restaurant chains. So finding a place to eat is no problem. In addition it's not far from the old Fort Worth Stockyards, with all the shops, museums, &amp; Billy Bobs!While construction is ongoing, believe your GPS to find this Marriott, but I give it high marks &amp; highly recommend it to travelers to the North Fort Worth area. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I selected this Marriott location because it was the closest to the venue where my high school reunion was being held. In addition it had the best weekend rates of the several other Marriotts in the area. Upon arrival, I understood the reason for the lower rate. It is very near the intersection of I-820 &amp; I-35W, both of which are under construction. So it's pretty difficult to get to this property, but once you get there it's worth it!The rooms are large &amp; clean. The beds are comfortable &amp; the complimentary weekend breakfast is excellent, especially on Sunday!The staff was very helpful, when I had questions &amp; the building &amp; grounds were well maintained. As a bonus, there's a Whataburger just a couple of blocks away, along with other local &amp; national restaurant chains. So finding a place to eat is no problem. In addition it's not far from the old Fort Worth Stockyards, with all the shops, museums, &amp; Billy Bobs!While construction is ongoing, believe your GPS to find this Marriott, but I give it high marks &amp; highly recommend it to travelers to the North Fort Worth area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r421021679-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>421021679</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Clean, comfortable room, good breakfast</t>
+  </si>
+  <si>
+    <t>This RI is a bit old, but the staff made it a pleasant experience. From the time I checked in to the time I left, I got the feeling that they did everything to make me feel relaxed and enjoy the short time I was there. Important for a biz traveler is a comfortable bed, a quiet room with a quiet A/C, and a reliable Wifi. All 3 checked! Unlike other RI's I've stayed at, the breakfast here was above average. Hot, frequently replenished scrambled eggs, very fresh fruits, and a nice touch of cheeses (felt like a typical hotel in Europe, at times.) Then there were evening receptions. Well, the wines and the beers could be better. That is why I am not giving them 5 stars.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>This RI is a bit old, but the staff made it a pleasant experience. From the time I checked in to the time I left, I got the feeling that they did everything to make me feel relaxed and enjoy the short time I was there. Important for a biz traveler is a comfortable bed, a quiet room with a quiet A/C, and a reliable Wifi. All 3 checked! Unlike other RI's I've stayed at, the breakfast here was above average. Hot, frequently replenished scrambled eggs, very fresh fruits, and a nice touch of cheeses (felt like a typical hotel in Europe, at times.) Then there were evening receptions. Well, the wines and the beers could be better. That is why I am not giving them 5 stars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r403665373-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>403665373</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Alternative option if not staying in downtown Fort Worth</t>
+  </si>
+  <si>
+    <t>In Dallas/Forth Worth you are always with a car, so this hotel although does not have anything nearby, it is by car 15 minutes to downtown Forth Worth and even an easy access to DFW. Rooms are nice and quiet, good breakfast</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r401517256-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>401517256</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>Staycation</t>
+  </si>
+  <si>
+    <t>We chose Residence Inn for a mandatory Staycation in order for a repairs to be made on our home. We had our poodle and Bichon Frise with us. The staff bent over backwards to meet any need we had. The breakfast even offered Udi's gluten free bagels which was right up my alley since I have celiac. We will definitely use this hotel in the near future and recommend it to our friends!</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r350684967-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>350684967</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>Crisis averted</t>
+  </si>
+  <si>
+    <t>The room was clean, the staff was pleasant, but the real bonus came when I had checked out and found later that day that I did not have my wallet. When I called in a panic, they asked for my room number and name, then confirmed they had it and held it until I could get a friend to pick it up.Their intgrity and efficiency was much appreciated.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r350061217-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>350061217</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had a quick overnight stop and found this wonderful hotel. The desk staff at checkin was friendly and helpful in providing information on the area. It is in a strange location but convenient to a variety of places. It was only a few minutes from the Stockyards which was convenient for us. The room was very spacious and well stocked. I would definitely stay here again </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r332788859-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>332788859</t>
+  </si>
+  <si>
+    <t>12/14/2015</t>
+  </si>
+  <si>
+    <t>45 comfortable days in Fort-worth, Texas</t>
+  </si>
+  <si>
+    <t>Was on business in Fort Worth and skeptically booked this place online. Turned out to be a very good hotel at that price point. Good customer service, decent breakfast spread, large clean rooms with kitchenettes, nice little pool and located near quite a few restaurants in Fossil Creek. stayed there for the entire Sept month. No complaints.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r306377209-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>306377209</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>Cold Welcoming, Room quiet and clean</t>
+  </si>
+  <si>
+    <t>Arrival- this hotel seems to be placed in an odd location, there is a large empty lot adjacent to hotel and has a layout almost like an old apartment community.  My welcoming at the front desk was not warm or inviting, the female at the desk seems irritated so I smiled bigger and exaggerated my thank you and still no improvement.Lobby-small but has a small pantry/food closet with breakfast area.Room- Quiet and very clean rooms, no issues, great sleepLocation- You must know not much close, you can walk across field/empty lot to a salt grass steakhouse but if you have a car there are many restaurant options within a mile radius.MoreShow less</t>
+  </si>
+  <si>
+    <t>Colleen R, General Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded September 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2015</t>
+  </si>
+  <si>
+    <t>Arrival- this hotel seems to be placed in an odd location, there is a large empty lot adjacent to hotel and has a layout almost like an old apartment community.  My welcoming at the front desk was not warm or inviting, the female at the desk seems irritated so I smiled bigger and exaggerated my thank you and still no improvement.Lobby-small but has a small pantry/food closet with breakfast area.Room- Quiet and very clean rooms, no issues, great sleepLocation- You must know not much close, you can walk across field/empty lot to a salt grass steakhouse but if you have a car there are many restaurant options within a mile radius.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r295463409-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>295463409</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>Cannot wait to stay here again!</t>
+  </si>
+  <si>
+    <t>My husband has to work in Fort Worth often so the kids &amp; I came down with him to enjoy Texas for a couple weeks &amp; LOVED our stay here.  I'm hoping we can do this again soon!  We stayed in a 2 bedroom suite which worked wonderful for us.  The couch was perfect for our smallest to sleep on while the older one got his own bedroom &amp; so did we.  The kitchen is perfect for an extended stay, complete with standard fridge (not one of those small hotel fridges), dishwasher, sink &amp; stove.  They do have it stocked with the basics of 4 plates, 4 bowls, some silverware, coffee pot &amp; toaster.  They come in &amp; clean daily emptying your garbage, giving you clean towels.  They even have kitchen towels &amp; give you dishwasher soap packets.  Our room overlooked the pool which was great so we could look out &amp; see if it was real busy or not.  Our kids loved the pool.  It was always kept clean &amp; they even had pool noodles &amp; beach balls for them to play with.  We all were happy with the breakfast.  My husband has gluten issues so sometimes if hotels only do waffles &amp; cereals he is out of luck but they always had some style of egg &amp; sausage or bacon.  My son's favorite was when they did breakfast burritos.  And then Monday through Wednesday evenings they do a...My husband has to work in Fort Worth often so the kids &amp; I came down with him to enjoy Texas for a couple weeks &amp; LOVED our stay here.  I'm hoping we can do this again soon!  We stayed in a 2 bedroom suite which worked wonderful for us.  The couch was perfect for our smallest to sleep on while the older one got his own bedroom &amp; so did we.  The kitchen is perfect for an extended stay, complete with standard fridge (not one of those small hotel fridges), dishwasher, sink &amp; stove.  They do have it stocked with the basics of 4 plates, 4 bowls, some silverware, coffee pot &amp; toaster.  They come in &amp; clean daily emptying your garbage, giving you clean towels.  They even have kitchen towels &amp; give you dishwasher soap packets.  Our room overlooked the pool which was great so we could look out &amp; see if it was real busy or not.  Our kids loved the pool.  It was always kept clean &amp; they even had pool noodles &amp; beach balls for them to play with.  We all were happy with the breakfast.  My husband has gluten issues so sometimes if hotels only do waffles &amp; cereals he is out of luck but they always had some style of egg &amp; sausage or bacon.  My son's favorite was when they did breakfast burritos.  And then Monday through Wednesday evenings they do a cocktail hour in the evenings.  All the staff was super helpful &amp; friendly.  Their cleaning staff especially was always keeping everything very nice &amp; maintained.We didn't bring our dog with us but it was nice to see that they allow dogs.  We saw many of them &amp; its good to see hotels that still allow themMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>My husband has to work in Fort Worth often so the kids &amp; I came down with him to enjoy Texas for a couple weeks &amp; LOVED our stay here.  I'm hoping we can do this again soon!  We stayed in a 2 bedroom suite which worked wonderful for us.  The couch was perfect for our smallest to sleep on while the older one got his own bedroom &amp; so did we.  The kitchen is perfect for an extended stay, complete with standard fridge (not one of those small hotel fridges), dishwasher, sink &amp; stove.  They do have it stocked with the basics of 4 plates, 4 bowls, some silverware, coffee pot &amp; toaster.  They come in &amp; clean daily emptying your garbage, giving you clean towels.  They even have kitchen towels &amp; give you dishwasher soap packets.  Our room overlooked the pool which was great so we could look out &amp; see if it was real busy or not.  Our kids loved the pool.  It was always kept clean &amp; they even had pool noodles &amp; beach balls for them to play with.  We all were happy with the breakfast.  My husband has gluten issues so sometimes if hotels only do waffles &amp; cereals he is out of luck but they always had some style of egg &amp; sausage or bacon.  My son's favorite was when they did breakfast burritos.  And then Monday through Wednesday evenings they do a...My husband has to work in Fort Worth often so the kids &amp; I came down with him to enjoy Texas for a couple weeks &amp; LOVED our stay here.  I'm hoping we can do this again soon!  We stayed in a 2 bedroom suite which worked wonderful for us.  The couch was perfect for our smallest to sleep on while the older one got his own bedroom &amp; so did we.  The kitchen is perfect for an extended stay, complete with standard fridge (not one of those small hotel fridges), dishwasher, sink &amp; stove.  They do have it stocked with the basics of 4 plates, 4 bowls, some silverware, coffee pot &amp; toaster.  They come in &amp; clean daily emptying your garbage, giving you clean towels.  They even have kitchen towels &amp; give you dishwasher soap packets.  Our room overlooked the pool which was great so we could look out &amp; see if it was real busy or not.  Our kids loved the pool.  It was always kept clean &amp; they even had pool noodles &amp; beach balls for them to play with.  We all were happy with the breakfast.  My husband has gluten issues so sometimes if hotels only do waffles &amp; cereals he is out of luck but they always had some style of egg &amp; sausage or bacon.  My son's favorite was when they did breakfast burritos.  And then Monday through Wednesday evenings they do a cocktail hour in the evenings.  All the staff was super helpful &amp; friendly.  Their cleaning staff especially was always keeping everything very nice &amp; maintained.We didn't bring our dog with us but it was nice to see that they allow dogs.  We saw many of them &amp; its good to see hotels that still allow themMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r286749136-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>286749136</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Working at it</t>
+  </si>
+  <si>
+    <t>My husband works in Ft. Worth and this is his "home away from home". I occasionally take a few days and go stay with him.  I came to really enjoy Ronna who worked the front desk but has taken another job.  They have had a few staff come and go but on my recent visit they were very friendly. They also have made changes to the nightly food and drinks that I think are very good. The pool is always nice and they do a great job keeping the room clean and stocked.  The grounds are well kept also.  For my husband, being close to the office and area restaurants and golf course, it works very well.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>My husband works in Ft. Worth and this is his "home away from home". I occasionally take a few days and go stay with him.  I came to really enjoy Ronna who worked the front desk but has taken another job.  They have had a few staff come and go but on my recent visit they were very friendly. They also have made changes to the nightly food and drinks that I think are very good. The pool is always nice and they do a great job keeping the room clean and stocked.  The grounds are well kept also.  For my husband, being close to the office and area restaurants and golf course, it works very well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r274877082-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>274877082</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Nice property</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at this hotel.  It was very clean and the housekeeping staff was very polite.  The courtyard, containing the pool, included a very attractive garden area and tables and chairs to enjoy this outside area.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r274108240-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>274108240</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have traveled to Ft Worth around six times in the last year and stay usually two weeks each time. The Residence Inn Fossil Creek is my hotel of choice. Ronna at the front desk always greets me with a smile whenever she sees me. She goes out of her way to make sure your stay is pleasant and enjoyable. there is major construction on the highways all around the hotel but the proximity to great restaurants help because you don't even have to get on the highway to go eat. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r270811291-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>270811291</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>The good, the bad, and the ugly</t>
+  </si>
+  <si>
+    <t>Generally Residence Inn is our hotel of choice, as we appreciate the space, storage, breakfast, and kitchen.  This one has all that, but the management and housekeeping  is a real disappointment.  We are in the one bedroom suite, which is spacious and comfortable.  We are here for 4 days, and have very much enjoyed the breakfasts, which are fresh and have lots of choices.  The breakfast staff is friendly and helpful and keep everything replenished.  The housekeeping has been random and ineffective.  They have removed such things as shampoo and soap, and haven't replaced.  The trash wasn't emptied or the coffee replaced. Yesterday I got ready to shave my legs and found my razor was missing.  When I asked at the desk for a replacement, I was told that if they had any, I could buy one from the wall of travel supplies!  My husband went to the desk this morning to complain about coming home from a day's work and finding the room hasn't been serviced.  It is now 4:15, and nobody's been here.  Yesterday someone finally came and did a partial service sometime after 6, when we went to buy a new razor and go to dinner.  Definitely this one is not up to the usual Residence Inn standard.Very disappointed!MoreShow less</t>
+  </si>
+  <si>
+    <t>Kara G, Front Office Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded May 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2015</t>
+  </si>
+  <si>
+    <t>Generally Residence Inn is our hotel of choice, as we appreciate the space, storage, breakfast, and kitchen.  This one has all that, but the management and housekeeping  is a real disappointment.  We are in the one bedroom suite, which is spacious and comfortable.  We are here for 4 days, and have very much enjoyed the breakfasts, which are fresh and have lots of choices.  The breakfast staff is friendly and helpful and keep everything replenished.  The housekeeping has been random and ineffective.  They have removed such things as shampoo and soap, and haven't replaced.  The trash wasn't emptied or the coffee replaced. Yesterday I got ready to shave my legs and found my razor was missing.  When I asked at the desk for a replacement, I was told that if they had any, I could buy one from the wall of travel supplies!  My husband went to the desk this morning to complain about coming home from a day's work and finding the room hasn't been serviced.  It is now 4:15, and nobody's been here.  Yesterday someone finally came and did a partial service sometime after 6, when we went to buy a new razor and go to dinner.  Definitely this one is not up to the usual Residence Inn standard.Very disappointed!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r246371241-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>246371241</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t>A great staff but the property needs to be remodeled</t>
+  </si>
+  <si>
+    <t>As I said the staff is wonderful but the condition of the rooms are poor. Upon check in the room was a bit dirty and the bathroom sink did not drain. It was fixed but there was more. Drawers did not work, the bath was chipped and just old. This is a great location for me but I can not stay here again unless it is updated.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Kara G, Front Office Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded January 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 1, 2015</t>
+  </si>
+  <si>
+    <t>As I said the staff is wonderful but the condition of the rooms are poor. Upon check in the room was a bit dirty and the bathroom sink did not drain. It was fixed but there was more. Drawers did not work, the bath was chipped and just old. This is a great location for me but I can not stay here again unless it is updated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r245995191-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>245995191</t>
+  </si>
+  <si>
+    <t>12/26/2014</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>Not my first time to stay here. This area has been in a construction area - it seems like forever. Great service when we checked in and rooms pretty standard and clean. Unfortunately it went downhill from there. We had a 2 bedroom suite and my granddaughters were supposed to stay on the sofa bed. To get it cool enough in the bedrooms, it was very cold in the living room with the sofa bed. looked for extra blanket - there was none (no pillows either). Tried to call down to get another blanket and there were no lines to the telephones in either room! Seriously - phones sitting there but not connected to anything! Went down to front desk and you would have thought we had asked for the moon - was told they had no more blankets. No semblance of customer service - no apology. Finally he said he would have to have security go into a room and get a blanket. You would have thought their inventory problem was my fault!  Two star rating is primarily for the night service. Lousy!  With the construction you really have to try to get here - you would think they would bend over backwards for great service.  So low rating for location as well due to the perpetual construction zone. Security did bring blanket (pretty old and worn) - but what a hassle!  Could never get temperature regulated either.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kara G, Front Office Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded December 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2014</t>
+  </si>
+  <si>
+    <t>Not my first time to stay here. This area has been in a construction area - it seems like forever. Great service when we checked in and rooms pretty standard and clean. Unfortunately it went downhill from there. We had a 2 bedroom suite and my granddaughters were supposed to stay on the sofa bed. To get it cool enough in the bedrooms, it was very cold in the living room with the sofa bed. looked for extra blanket - there was none (no pillows either). Tried to call down to get another blanket and there were no lines to the telephones in either room! Seriously - phones sitting there but not connected to anything! Went down to front desk and you would have thought we had asked for the moon - was told they had no more blankets. No semblance of customer service - no apology. Finally he said he would have to have security go into a room and get a blanket. You would have thought their inventory problem was my fault!  Two star rating is primarily for the night service. Lousy!  With the construction you really have to try to get here - you would think they would bend over backwards for great service.  So low rating for location as well due to the perpetual construction zone. Security did bring blanket (pretty old and worn) - but what a hassle!  Could never get temperature regulated either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r245429208-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>245429208</t>
+  </si>
+  <si>
+    <t>12/21/2014</t>
+  </si>
+  <si>
+    <t>Mixed Review</t>
+  </si>
+  <si>
+    <t>First up, the service here is great. Everyone from the front desk to the morning breakfast staff was extremely nice and hospitable. That said, we stayed here because we wanted two bedrooms and a pullout couch as a family of five. The room was spacious and was clean to the eye.
+That said, this hotel allows pets, and you WILL notice that, especially if you don't have pets yourself. The dogs barking and the slight pee smell on the sides of the hotel I could tolerate. But the living room of the two bedroom suite we were assigned to reeked of (cat or dog) pee. Like, bad. I don't know if the cleaning staff didn't report it when they were cleaning the room or if management simply didn't do anything about it, but it was disgusting. Upon reporting it, we were immediately moved to the only other two bedroom suite room available, but, I'm not sure what they would have done if they hadn't had another one free. So, they get an A for customer service, but a D on allowing anyone to occupy that room in its condition. After that, I couldn't bring myself to allow my kids to walk around even the new room without socks on. 
+This hotel has an odd setup. The main front desk (and breakfast area) is in a separate building, so you have to go outside the building to get from your room...First up, the service here is great. Everyone from the front desk to the morning breakfast staff was extremely nice and hospitable. That said, we stayed here because we wanted two bedrooms and a pullout couch as a family of five. The room was spacious and was clean to the eye.That said, this hotel allows pets, and you WILL notice that, especially if you don't have pets yourself. The dogs barking and the slight pee smell on the sides of the hotel I could tolerate. But the living room of the two bedroom suite we were assigned to reeked of (cat or dog) pee. Like, bad. I don't know if the cleaning staff didn't report it when they were cleaning the room or if management simply didn't do anything about it, but it was disgusting. Upon reporting it, we were immediately moved to the only other two bedroom suite room available, but, I'm not sure what they would have done if they hadn't had another one free. So, they get an A for customer service, but a D on allowing anyone to occupy that room in its condition. After that, I couldn't bring myself to allow my kids to walk around even the new room without socks on. This hotel has an odd setup. The main front desk (and breakfast area) is in a separate building, so you have to go outside the building to get from your room to the breakfast area. The free WiFi was ok. Laundry machines worked. Maid service was good. The free breakfast look microwaved - I don't recommend the hot food. The cereals, bagels, waffle maker, etc. were all great. The coffee was fresh, which I greatly appreciated. The breakfast staff was nice.That said, no matter how nice the staff is, I can't recommend this hotel. Being placed in a room that reeked of animal pee made me question the cleanliness of everything else in the rooms. I was completely uncomfortable having my kids - especially my toddler - there after that.MoreShow less</t>
+  </si>
+  <si>
+    <t>Colleen R, General Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded December 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2014</t>
+  </si>
+  <si>
+    <t>First up, the service here is great. Everyone from the front desk to the morning breakfast staff was extremely nice and hospitable. That said, we stayed here because we wanted two bedrooms and a pullout couch as a family of five. The room was spacious and was clean to the eye.
+That said, this hotel allows pets, and you WILL notice that, especially if you don't have pets yourself. The dogs barking and the slight pee smell on the sides of the hotel I could tolerate. But the living room of the two bedroom suite we were assigned to reeked of (cat or dog) pee. Like, bad. I don't know if the cleaning staff didn't report it when they were cleaning the room or if management simply didn't do anything about it, but it was disgusting. Upon reporting it, we were immediately moved to the only other two bedroom suite room available, but, I'm not sure what they would have done if they hadn't had another one free. So, they get an A for customer service, but a D on allowing anyone to occupy that room in its condition. After that, I couldn't bring myself to allow my kids to walk around even the new room without socks on. 
+This hotel has an odd setup. The main front desk (and breakfast area) is in a separate building, so you have to go outside the building to get from your room...First up, the service here is great. Everyone from the front desk to the morning breakfast staff was extremely nice and hospitable. That said, we stayed here because we wanted two bedrooms and a pullout couch as a family of five. The room was spacious and was clean to the eye.That said, this hotel allows pets, and you WILL notice that, especially if you don't have pets yourself. The dogs barking and the slight pee smell on the sides of the hotel I could tolerate. But the living room of the two bedroom suite we were assigned to reeked of (cat or dog) pee. Like, bad. I don't know if the cleaning staff didn't report it when they were cleaning the room or if management simply didn't do anything about it, but it was disgusting. Upon reporting it, we were immediately moved to the only other two bedroom suite room available, but, I'm not sure what they would have done if they hadn't had another one free. So, they get an A for customer service, but a D on allowing anyone to occupy that room in its condition. After that, I couldn't bring myself to allow my kids to walk around even the new room without socks on. This hotel has an odd setup. The main front desk (and breakfast area) is in a separate building, so you have to go outside the building to get from your room to the breakfast area. The free WiFi was ok. Laundry machines worked. Maid service was good. The free breakfast look microwaved - I don't recommend the hot food. The cereals, bagels, waffle maker, etc. were all great. The coffee was fresh, which I greatly appreciated. The breakfast staff was nice.That said, no matter how nice the staff is, I can't recommend this hotel. Being placed in a room that reeked of animal pee made me question the cleanliness of everything else in the rooms. I was completely uncomfortable having my kids - especially my toddler - there after that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r228686604-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>228686604</t>
+  </si>
+  <si>
+    <t>09/13/2014</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 45 days due to a flood in our home. Our stay was very comfortable, and the front desk, specifically Rona and Heather, could not have been more helpful. Maria in housekeeping was also pleasant and reliable. Marriott could stand to give this property some attention, however. The hallways and elevators are pretty tired. Our room was comfortable, and when there was an issue, it was taken care of promptly. If you spend 45 days at any hotel, chances are you'll hit some bumps, and we did, but the excellent staff took care of us.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Colleen R, General Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded January 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 45 days due to a flood in our home. Our stay was very comfortable, and the front desk, specifically Rona and Heather, could not have been more helpful. Maria in housekeeping was also pleasant and reliable. Marriott could stand to give this property some attention, however. The hallways and elevators are pretty tired. Our room was comfortable, and when there was an issue, it was taken care of promptly. If you spend 45 days at any hotel, chances are you'll hit some bumps, and we did, but the excellent staff took care of us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r210758958-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>210758958</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>Great Place!!! Great Customer Service!!</t>
+  </si>
+  <si>
+    <t>Stayed one night and it was wonderful.  Room was spacious and clean.  Great Customer Service!!  Great breakfast.  On the morning after our arrival, my husband went out to the car and discovered we had a flat tire.  We went to the front desk for help.  The clerk immediately got to work and located a near by auto store where we could get  "Fix a Flat" to get the tire in shape to get it to Discount Tire (Another Great Business in Ft. Worth)  The auto store was to far to go by foot, so the clerk got in her car and went and got us the Fix a Flat!!! She was happy to help us out and didn't think twice about going to the store.  We truly appreciated her kindness!!! The Residence Inn Fort Worth Fossil Creek will be our home away from home when we visit Ft. Worth!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Stayed one night and it was wonderful.  Room was spacious and clean.  Great Customer Service!!  Great breakfast.  On the morning after our arrival, my husband went out to the car and discovered we had a flat tire.  We went to the front desk for help.  The clerk immediately got to work and located a near by auto store where we could get  "Fix a Flat" to get the tire in shape to get it to Discount Tire (Another Great Business in Ft. Worth)  The auto store was to far to go by foot, so the clerk got in her car and went and got us the Fix a Flat!!! She was happy to help us out and didn't think twice about going to the store.  We truly appreciated her kindness!!! The Residence Inn Fort Worth Fossil Creek will be our home away from home when we visit Ft. Worth!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r205713571-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>205713571</t>
+  </si>
+  <si>
+    <t>05/15/2014</t>
+  </si>
+  <si>
+    <t>Plenty of Room</t>
+  </si>
+  <si>
+    <t>Stayed two days for business.  Always enjoy my stays at Residence Inns.  As others have stated, rooms big, nice breakfast, easy access to hwy and restaurants.  Two things to consider when staying here - 1. Noise from highway.  I had room 213 and lots of passing trucks from hwy.  And, 2. the buildings are not connected to main building.  Short walk but when its raining, not pleasant getting wet on way to breakfast or happy hour.  Little things but it won't keep me from coming back, as I'll ask for a room on the other side.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r195488356-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>195488356</t>
+  </si>
+  <si>
+    <t>02/26/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel - clean and friendly</t>
+  </si>
+  <si>
+    <t>Recently stayed here during the week for business and very happy with the Residence Inn.  It is close to interstate access and plenty of restaurants to choose from.  Hotel is a little older but very clean and roomy.  Will definitely choose the Residence Inn again when back in Fort Worth.  There is some road construction in the area but did not affect getting in and out of the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>trob087, General Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded April 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2014</t>
+  </si>
+  <si>
+    <t>Recently stayed here during the week for business and very happy with the Residence Inn.  It is close to interstate access and plenty of restaurants to choose from.  Hotel is a little older but very clean and roomy.  Will definitely choose the Residence Inn again when back in Fort Worth.  There is some road construction in the area but did not affect getting in and out of the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r190553513-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>190553513</t>
+  </si>
+  <si>
+    <t>01/11/2014</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>I have stayed at this Residence Inn probably 30 times in the last 18 months. The rooms are large and always clean and the beds are comfy. A big shout out to the ladies of the Residence - Beryl and Rhonda. Superstars.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>trob087, General Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded January 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at this Residence Inn probably 30 times in the last 18 months. The rooms are large and always clean and the beds are comfy. A big shout out to the ladies of the Residence - Beryl and Rhonda. Superstars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r188790719-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>188790719</t>
+  </si>
+  <si>
+    <t>12/28/2013</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Checked in here late for an overnight stay as we left for a North Texas to Southern California trip. We made our reservations online and choose a one bedroom which was more than what we really needed.  The place was clean and spacious- located right off the freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>trob087, General Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded January 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2014</t>
+  </si>
+  <si>
+    <t>Checked in here late for an overnight stay as we left for a North Texas to Southern California trip. We made our reservations online and choose a one bedroom which was more than what we really needed.  The place was clean and spacious- located right off the freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r187386995-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>187386995</t>
+  </si>
+  <si>
+    <t>12/11/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic long term stay hotel but convenient location </t>
+  </si>
+  <si>
+    <t>Stayed here one night because it's close to office. It's a big property right off two hwy turn pike. It's about 30 min to DFW, 20 min to dtwn Fort Worth. The rooms aren't too big, but comes with living room and bedroom, has a kitchen and will do groceries. Breakfast is included, small gym, and laundry room on each floor. It's pretty basic, but clean. If you stay here, make sure to request a room not facing the hwy. there are many restaurants near by, pretty convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>trob087, General Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded December 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here one night because it's close to office. It's a big property right off two hwy turn pike. It's about 30 min to DFW, 20 min to dtwn Fort Worth. The rooms aren't too big, but comes with living room and bedroom, has a kitchen and will do groceries. Breakfast is included, small gym, and laundry room on each floor. It's pretty basic, but clean. If you stay here, make sure to request a room not facing the hwy. there are many restaurants near by, pretty convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r186630352-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>186630352</t>
+  </si>
+  <si>
+    <t>12/03/2013</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>Traveled here for business, and was very happy with this hotel. Great breakfast and dinner options provided at the hotel. Awesome location, and the staff was always so helpful with anything you need. I would stay here again, without a doubt.MoreShow less</t>
+  </si>
+  <si>
+    <t>trob087, General Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded December 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2013</t>
+  </si>
+  <si>
+    <t>Traveled here for business, and was very happy with this hotel. Great breakfast and dinner options provided at the hotel. Awesome location, and the staff was always so helpful with anything you need. I would stay here again, without a doubt.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r185634416-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>185634416</t>
+  </si>
+  <si>
+    <t>11/23/2013</t>
+  </si>
+  <si>
+    <t>Quick Trip to Visit Children</t>
+  </si>
+  <si>
+    <t>They booked our room accurately at the last minute.  The hotel and the room were very clean and well maintained.  Front desk staff were very professional and friendly.  Room was exactly as requested in my profile...high floor and away from elevator.  Perfect!At check out, I needed to leave some childrens clothes for a friend to pick up after we left.  Beryl  was extremely helpful and even provided a bag to keep them together until my friend picked them up.My wife and I will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>They booked our room accurately at the last minute.  The hotel and the room were very clean and well maintained.  Front desk staff were very professional and friendly.  Room was exactly as requested in my profile...high floor and away from elevator.  Perfect!At check out, I needed to leave some childrens clothes for a friend to pick up after we left.  Beryl  was extremely helpful and even provided a bag to keep them together until my friend picked them up.My wife and I will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r183784266-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>183784266</t>
+  </si>
+  <si>
+    <t>11/06/2013</t>
+  </si>
+  <si>
+    <t>We stayed 4 nights here during October and would definitely return if in the area again.  There were five in my party and we stayed in one of the two bedroom, two bathroom suites.  I made reservations online and had no trouble checking in or checking out.  The rooms and bathroom were clean upon arrival and had no issues arise during our stay.  The beds are comfortable but pretty firm.  The sofa bed in the living room was okay.  We did not use the kitchen during our stay, but everything looked clean.  We did eat breakfast every morning at the hotel before leaving for the day.  The variety was great....hot and cold cereal, waffles, pastries, bagels, toast, eggs, potatoes and either bacon or sausage.  The breakfast area was large and clean with very helpful attendants.  At this time, the road construction in the area makes it a little inconvenient to get around, but don't let it deter you from staying here.  Wonderful stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>trob087, General Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded November 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2013</t>
+  </si>
+  <si>
+    <t>We stayed 4 nights here during October and would definitely return if in the area again.  There were five in my party and we stayed in one of the two bedroom, two bathroom suites.  I made reservations online and had no trouble checking in or checking out.  The rooms and bathroom were clean upon arrival and had no issues arise during our stay.  The beds are comfortable but pretty firm.  The sofa bed in the living room was okay.  We did not use the kitchen during our stay, but everything looked clean.  We did eat breakfast every morning at the hotel before leaving for the day.  The variety was great....hot and cold cereal, waffles, pastries, bagels, toast, eggs, potatoes and either bacon or sausage.  The breakfast area was large and clean with very helpful attendants.  At this time, the road construction in the area makes it a little inconvenient to get around, but don't let it deter you from staying here.  Wonderful stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r183634153-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>183634153</t>
+  </si>
+  <si>
+    <t>11/05/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>My husband, son and father and I stayed here for 10 days while we were being located to the area.  The hotel is extremely clean and the staff there was VERY helpful and friendly!!  Everyone from Beryl the manager down to the ladies and gentlemen who stocked the breakfast to the ladies who cleaned the rooms were very friendly and helpful. The hot breakfast in the mornings was always hot and tasty.  I would recommend this hotel to anyone.  It is a great hotel!!MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband, son and father and I stayed here for 10 days while we were being located to the area.  The hotel is extremely clean and the staff there was VERY helpful and friendly!!  Everyone from Beryl the manager down to the ladies and gentlemen who stocked the breakfast to the ladies who cleaned the rooms were very friendly and helpful. The hot breakfast in the mornings was always hot and tasty.  I would recommend this hotel to anyone.  It is a great hotel!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r183545845-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>183545845</t>
+  </si>
+  <si>
+    <t>11/04/2013</t>
+  </si>
+  <si>
+    <t>Customer Service is NOT dead</t>
+  </si>
+  <si>
+    <t>In moving my family to the Fort Worth area we found ourselves in the unfortunate situation of being homeless for about two weeks.  Nothing has been more stressful in my life than finding myself and family (10 month old &amp; 2 year old) without a home and having to stay in a hotel for an extended period of time.  We were fortunate enough in finding the Residence Inn at Fort Worth Fossil Creek.  Not only have the rooms been the closest home away from home with the ammenities, but the staff is like an extended family.  They have been so accomadating and truly understand the meaning of customer service.  Beryl and Ana treated me like a VIP and have made a life long customer out of my family for the Residence Inn Fort Worth Fossil Creek and Marriott as a whole.  If you are looking to stay anywhere near the Fort Worth area I highly recommend this location.  I promise you will not be dissatisfied.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>In moving my family to the Fort Worth area we found ourselves in the unfortunate situation of being homeless for about two weeks.  Nothing has been more stressful in my life than finding myself and family (10 month old &amp; 2 year old) without a home and having to stay in a hotel for an extended period of time.  We were fortunate enough in finding the Residence Inn at Fort Worth Fossil Creek.  Not only have the rooms been the closest home away from home with the ammenities, but the staff is like an extended family.  They have been so accomadating and truly understand the meaning of customer service.  Beryl and Ana treated me like a VIP and have made a life long customer out of my family for the Residence Inn Fort Worth Fossil Creek and Marriott as a whole.  If you are looking to stay anywhere near the Fort Worth area I highly recommend this location.  I promise you will not be dissatisfied.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r183091674-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>183091674</t>
+  </si>
+  <si>
+    <t>10/31/2013</t>
+  </si>
+  <si>
+    <t>Outstanding Stay at Residence Inn Fossil Creek</t>
+  </si>
+  <si>
+    <t>We have stayed at the Marriott Residence Inn Fossil Creek Fort Worth TX twice. Both times we have had an excellent experience!  The staff is friendly, helpful, and there to serve YOU.  It feels like coming home as soon as you enter the property.  When we checked in, Anna was so helpful in getting our accommodations changed so that we had exactly what we needed.  The free breakfast each morning was a welcome bonus.  The kitchen staff made sure that the buffet was well stocked and the food was hot.  Thanks Sandra and staff!  Would we stay here again?  Most definitely!MoreShow less</t>
+  </si>
+  <si>
+    <t>trob087, General Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded November 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2013</t>
+  </si>
+  <si>
+    <t>We have stayed at the Marriott Residence Inn Fossil Creek Fort Worth TX twice. Both times we have had an excellent experience!  The staff is friendly, helpful, and there to serve YOU.  It feels like coming home as soon as you enter the property.  When we checked in, Anna was so helpful in getting our accommodations changed so that we had exactly what we needed.  The free breakfast each morning was a welcome bonus.  The kitchen staff made sure that the buffet was well stocked and the food was hot.  Thanks Sandra and staff!  Would we stay here again?  Most definitely!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r182863545-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>182863545</t>
+  </si>
+  <si>
+    <t>10/29/2013</t>
+  </si>
+  <si>
+    <t>Great so far!</t>
+  </si>
+  <si>
+    <t>Good location to work.  Not more than 10 minutes to Meachum Airport in the morning.  Traffic can be slower in the evening due to construction. Several restaurants in the area, several within walking distance. The gym consists only of two treadmills and an elliptical, along with a complete set of dumbbells; not extravagent, but suffice. The room is good.  Very quiet and always clean. The hotel has breakfast every morning at 6:30 and for the early birds, bagels, cereal, muffins, etc are always out around 5.  The staff at the hotel are amazing and very accomodating. The hotel offers excellent amenities, including free grocery service daily; just write down what you'd like, and its in your fridge in the afternoon.   Haven't used the pool or hottub, but they look nice and clean. Laundry service is available, but I have used the washer amand dryers available on site ($1.00 per cycle) which are extremely efficient. Overall an excellent hotel that I would recommened to those working in the area for extended periods.MoreShow less</t>
+  </si>
+  <si>
+    <t>Good location to work.  Not more than 10 minutes to Meachum Airport in the morning.  Traffic can be slower in the evening due to construction. Several restaurants in the area, several within walking distance. The gym consists only of two treadmills and an elliptical, along with a complete set of dumbbells; not extravagent, but suffice. The room is good.  Very quiet and always clean. The hotel has breakfast every morning at 6:30 and for the early birds, bagels, cereal, muffins, etc are always out around 5.  The staff at the hotel are amazing and very accomodating. The hotel offers excellent amenities, including free grocery service daily; just write down what you'd like, and its in your fridge in the afternoon.   Haven't used the pool or hottub, but they look nice and clean. Laundry service is available, but I have used the washer amand dryers available on site ($1.00 per cycle) which are extremely efficient. Overall an excellent hotel that I would recommened to those working in the area for extended periods.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r182635036-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>182635036</t>
+  </si>
+  <si>
+    <t>10/27/2013</t>
+  </si>
+  <si>
+    <t>Will be my choice in this area...</t>
+  </si>
+  <si>
+    <t>I have stayed in every hotel in this area and it is one of the best, but just can't give 5 stars.  It is and older building and can have a bit of an odor, but is it well maintained.  If you like chain restaurants and highway access, the location is good.  Staff is outstanding. If you get the right rate ($67 with my company), the value can't be beat with free breakfast and dinner a few nights a week.  Washer and Dryer are only $1 per load and work well.  Fitness center is small but adequate.  People that stay seem to be regulars and are nice.  If you have a little extra cash and want to stay closer to downtown, stay at another Marriott property, Townplace Suites - I love it.  Same concept, but brand new and better location.MoreShow less</t>
+  </si>
+  <si>
+    <t>trob087, General Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded October 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2013</t>
+  </si>
+  <si>
+    <t>I have stayed in every hotel in this area and it is one of the best, but just can't give 5 stars.  It is and older building and can have a bit of an odor, but is it well maintained.  If you like chain restaurants and highway access, the location is good.  Staff is outstanding. If you get the right rate ($67 with my company), the value can't be beat with free breakfast and dinner a few nights a week.  Washer and Dryer are only $1 per load and work well.  Fitness center is small but adequate.  People that stay seem to be regulars and are nice.  If you have a little extra cash and want to stay closer to downtown, stay at another Marriott property, Townplace Suites - I love it.  Same concept, but brand new and better location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r180451957-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>180451957</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>Top notched accommodation.</t>
+  </si>
+  <si>
+    <t>Stayed at the residence inn for a month and it was a great value. Friendly service (especially Beryl, the Property Coordinator) and pretty much hassle-free. Located in a quiet neighborhood, it was great for a good sleep after a hard day's work. Definitely recommend it. MoreShow less</t>
+  </si>
+  <si>
+    <t>trob087, General Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded October 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2013</t>
+  </si>
+  <si>
+    <t>Stayed at the residence inn for a month and it was a great value. Friendly service (especially Beryl, the Property Coordinator) and pretty much hassle-free. Located in a quiet neighborhood, it was great for a good sleep after a hard day's work. Definitely recommend it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r180396355-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>180396355</t>
+  </si>
+  <si>
+    <t>10/09/2013</t>
+  </si>
+  <si>
+    <t>Fun work stay</t>
+  </si>
+  <si>
+    <t>I travel for my job, this hotel was a very friendly and fun place to stay for the three week work had me in the area. If my job has me back in the area, I would not even think twice about staying at this hotel again. Thanks Residence inn Fossil creek!!! :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel for my job, this hotel was a very friendly and fun place to stay for the three week work had me in the area. If my job has me back in the area, I would not even think twice about staying at this hotel again. Thanks Residence inn Fossil creek!!! :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r179091690-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>179091690</t>
+  </si>
+  <si>
+    <t>09/29/2013</t>
+  </si>
+  <si>
+    <t>Convenient, Quiet, and Well Maintained</t>
+  </si>
+  <si>
+    <t>Great location within a few minutes of stores, groceries, movie theatre and restaurants. Staff were incredibly friendly and helpful. Room and furnishings were in very good condition.The hotel is on a side street just off of a major hwy. Far enough that the noise is not an issue, but close enough to get anywhere you need to be quickly (provided Fort Worth traffic cooperates).MoreShow less</t>
+  </si>
+  <si>
+    <t>trob087, General Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded October 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2013</t>
+  </si>
+  <si>
+    <t>Great location within a few minutes of stores, groceries, movie theatre and restaurants. Staff were incredibly friendly and helpful. Room and furnishings were in very good condition.The hotel is on a side street just off of a major hwy. Far enough that the noise is not an issue, but close enough to get anywhere you need to be quickly (provided Fort Worth traffic cooperates).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r177733856-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>177733856</t>
+  </si>
+  <si>
+    <t>09/18/2013</t>
+  </si>
+  <si>
+    <t>This hotel has the most friendliest staff and makes you feel at home.</t>
+  </si>
+  <si>
+    <t>I can't say enough good things about this hotel. The rooms makes you feel like you are at home. This hotel feels like a small resort. They have a swimming pool, basketball and volleyball courts, courtyard, fantastic breakfast buffet, BBQ grills poolside for the guest to BBQ their meals while enjoying the pool, exercise room, computer area, family night every Thursday night with fun events like bingo, customer appreciation nights with a small buffet served for the first several times a week....list is endless. Staff is welcoming and always happy to help you. Newly renovated rooms and lobby makes this hotel a definite keeper. MoreShow less</t>
+  </si>
+  <si>
+    <t>trob087, General Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded September 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2013</t>
+  </si>
+  <si>
+    <t>I can't say enough good things about this hotel. The rooms makes you feel like you are at home. This hotel feels like a small resort. They have a swimming pool, basketball and volleyball courts, courtyard, fantastic breakfast buffet, BBQ grills poolside for the guest to BBQ their meals while enjoying the pool, exercise room, computer area, family night every Thursday night with fun events like bingo, customer appreciation nights with a small buffet served for the first several times a week....list is endless. Staff is welcoming and always happy to help you. Newly renovated rooms and lobby makes this hotel a definite keeper. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r177642555-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>177642555</t>
+  </si>
+  <si>
+    <t>Exceeded my expectations</t>
+  </si>
+  <si>
+    <t>My wife and I were in the DFW area for a house hunting trip.  The hotel staff were very friendly, knowledgeable about the area, and gave us great tips on places to visit.  The food was excellent and included a nice variety of items to choose from each day.  The RI Fossil Creek includes free breakfast daily as well as free dinners Monday through Thursday.  The room was very clean and the maid service did a great job cleaning the room each day.  The hotel is in a very central location.  The hotel grounds are well kept and offer a nice pool and jacuzzi.  The exercise room is small- but has multiple exercise bikes and some free weights.  I highly recommend this property to business travelers and/or families looking for a great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I were in the DFW area for a house hunting trip.  The hotel staff were very friendly, knowledgeable about the area, and gave us great tips on places to visit.  The food was excellent and included a nice variety of items to choose from each day.  The RI Fossil Creek includes free breakfast daily as well as free dinners Monday through Thursday.  The room was very clean and the maid service did a great job cleaning the room each day.  The hotel is in a very central location.  The hotel grounds are well kept and offer a nice pool and jacuzzi.  The exercise room is small- but has multiple exercise bikes and some free weights.  I highly recommend this property to business travelers and/or families looking for a great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r177126407-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>177126407</t>
+  </si>
+  <si>
+    <t>09/14/2013</t>
+  </si>
+  <si>
+    <t>Relaxing and Clean</t>
+  </si>
+  <si>
+    <t>My husband and I were in town for a friend's wedding.  The RI Fort Worth (Fossil Creek) was great, spacious and most of all clean.  Front Desk staff was very friendly throughout the stay.  Beryl, the sales coordinated was very informative and friendly.  She represented the location well.  The weekday breakfast staff was very accomodating, however the Saturday morning person, not so much.I would definitely stay again!CLM from VAMoreShow less</t>
+  </si>
+  <si>
+    <t>trob087, General Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded September 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2013</t>
+  </si>
+  <si>
+    <t>My husband and I were in town for a friend's wedding.  The RI Fort Worth (Fossil Creek) was great, spacious and most of all clean.  Front Desk staff was very friendly throughout the stay.  Beryl, the sales coordinated was very informative and friendly.  She represented the location well.  The weekday breakfast staff was very accomodating, however the Saturday morning person, not so much.I would definitely stay again!CLM from VAMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r176781872-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>176781872</t>
+  </si>
+  <si>
+    <t>09/11/2013</t>
+  </si>
+  <si>
+    <t>Thank you Ms. Alexander</t>
+  </si>
+  <si>
+    <t>My stay here was great! I enjoyed the free breakfast. The different selections are delightful. Staff was great! Everyone at the front desk is knowledgeable and extremely gratuitous. Everyone was amazingly helpful! The swimming pool is well kept and pleasantly warm! Rooms are kept clean by the attendants. It was very much appreciated! Will definitely be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>My stay here was great! I enjoyed the free breakfast. The different selections are delightful. Staff was great! Everyone at the front desk is knowledgeable and extremely gratuitous. Everyone was amazingly helpful! The swimming pool is well kept and pleasantly warm! Rooms are kept clean by the attendants. It was very much appreciated! Will definitely be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r176542996-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>176542996</t>
+  </si>
+  <si>
+    <t>09/09/2013</t>
+  </si>
+  <si>
+    <t>A true home away from home</t>
+  </si>
+  <si>
+    <t>Beryl and the staff at the Residence Inn Fort Worth are truly special.  They made my family and I feel so welcome during our one month plus stay at the property.  The food, the bingo nights on Thursday nights and the overall family atmosphere was great.  In addition, the hotel is walking distance to multiple great restaurants and a movie theatre.  I would highly recommend the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Beryl and the staff at the Residence Inn Fort Worth are truly special.  They made my family and I feel so welcome during our one month plus stay at the property.  The food, the bingo nights on Thursday nights and the overall family atmosphere was great.  In addition, the hotel is walking distance to multiple great restaurants and a movie theatre.  I would highly recommend the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r174761121-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>174761121</t>
+  </si>
+  <si>
+    <t>08/29/2013</t>
+  </si>
+  <si>
+    <t>I have to say that I have stayed at nicer Residence Inns (more updated rooms/layout), but what made this place was the staff. We had two different rooms with our stay and the staff were ALL helpful during the transition to the second room (we needed a 2-bedroom and one wasn't available at time of booking). The breakfast and dinners were great, just make sure you get your dinner well before finishing time (7:30). Some of the food was gone by 7:10-715pm.  Not being from the area, the construction traffic took a little getting used to.  My navigation did not do well with all the exit changes. You may want to call ahead for directions if you are not familiar with the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>I have to say that I have stayed at nicer Residence Inns (more updated rooms/layout), but what made this place was the staff. We had two different rooms with our stay and the staff were ALL helpful during the transition to the second room (we needed a 2-bedroom and one wasn't available at time of booking). The breakfast and dinners were great, just make sure you get your dinner well before finishing time (7:30). Some of the food was gone by 7:10-715pm.  Not being from the area, the construction traffic took a little getting used to.  My navigation did not do well with all the exit changes. You may want to call ahead for directions if you are not familiar with the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r173251853-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>173251853</t>
+  </si>
+  <si>
+    <t>08/20/2013</t>
+  </si>
+  <si>
+    <t>Work Related</t>
+  </si>
+  <si>
+    <t>We stay at Marriott hotels most of the time.  We have stayed hundreds of nights.  On this business trip, we had the pleasure of having Beryl Alexander host a fun night on Thursday evening.  We have always known that the Residence Inn has a light meal but never had anyone have fun and games.  Beryl had a bingo game going for the kids and adults.  She was absolutely wonderful and we completely enjoyed her.  She was full of energy, loads of fun and a definite asset to the Residence Inn in Fort Worth.  I have never had that much fun on a business trip before.MoreShow less</t>
+  </si>
+  <si>
+    <t>trob087, General Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded August 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2013</t>
+  </si>
+  <si>
+    <t>We stay at Marriott hotels most of the time.  We have stayed hundreds of nights.  On this business trip, we had the pleasure of having Beryl Alexander host a fun night on Thursday evening.  We have always known that the Residence Inn has a light meal but never had anyone have fun and games.  Beryl had a bingo game going for the kids and adults.  She was absolutely wonderful and we completely enjoyed her.  She was full of energy, loads of fun and a definite asset to the Residence Inn in Fort Worth.  I have never had that much fun on a business trip before.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r169237423-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>169237423</t>
+  </si>
+  <si>
+    <t>07/26/2013</t>
+  </si>
+  <si>
+    <t>Temporary Housing Transfer... waiting for closing of new home</t>
+  </si>
+  <si>
+    <t>Every things' been wonderful.  Family of four pleasantly awaiting our new home.  EVERYONE Here is absolutely wonderful.  This is heaven for my 9 and 12 year old girls.  The amenities are kept up very well, the food is great.  We absolutely love the Bingo night with all of the family (and my personal family  :o) )MoreShow less</t>
+  </si>
+  <si>
+    <t>trob087, General Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded August 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2013</t>
+  </si>
+  <si>
+    <t>Every things' been wonderful.  Family of four pleasantly awaiting our new home.  EVERYONE Here is absolutely wonderful.  This is heaven for my 9 and 12 year old girls.  The amenities are kept up very well, the food is great.  We absolutely love the Bingo night with all of the family (and my personal family  :o) )More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r168768284-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>168768284</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>Hospitality</t>
+  </si>
+  <si>
+    <t>To whom it may concern:I am a DOD contractor and I travel quite extensively through out the country. Upon my arrival here in Fort Worth Texas , The Fossil Creek location, the service has been outstanding. From the the front desk personell to the the cleaning crew , this group of employees has implemented the meaning of Hospitality to its Highest level! I would like to give a special thanks to Beryl Alexander, Sales cordinator, for making my entire crew and my self feel most welcome and having a sense of Home here at your facility. Keep up  the good work and best regards to all of you!Sincerely, Don VeredrySRA InternationalMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>To whom it may concern:I am a DOD contractor and I travel quite extensively through out the country. Upon my arrival here in Fort Worth Texas , The Fossil Creek location, the service has been outstanding. From the the front desk personell to the the cleaning crew , this group of employees has implemented the meaning of Hospitality to its Highest level! I would like to give a special thanks to Beryl Alexander, Sales cordinator, for making my entire crew and my self feel most welcome and having a sense of Home here at your facility. Keep up  the good work and best regards to all of you!Sincerely, Don VeredrySRA InternationalMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r167232139-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>167232139</t>
+  </si>
+  <si>
+    <t>07/11/2013</t>
+  </si>
+  <si>
+    <t>Mostly great stay</t>
+  </si>
+  <si>
+    <t>Activities, room, food, and service was really good. Enjoyed the "dinner events" (small dinner bar) and bingo night. Beryl Alexander is a lot of fun and plans some unique activities. One downside is that my room needed to be sprayed for bugs. Several unpleasant encounters with tiny "residents"MoreShow less</t>
+  </si>
+  <si>
+    <t>trob087, General Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded July 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2013</t>
+  </si>
+  <si>
+    <t>Activities, room, food, and service was really good. Enjoyed the "dinner events" (small dinner bar) and bingo night. Beryl Alexander is a lot of fun and plans some unique activities. One downside is that my room needed to be sprayed for bugs. Several unpleasant encounters with tiny "residents"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r167050292-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>167050292</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>Three Month-Stay during Relocation Couldn't Have Gone Better</t>
+  </si>
+  <si>
+    <t>The caring, compassionate, and professional staff of this Residence Inn in Fossil Creek made a difficult and sometimes chaotic relocation of my family much simpler than it would have otherwise been.  Cara, Beryl, Heather, Ana, Bob, and Rona were continually available to assist us - be it advice on a terrific restaurant or areas of town to look for a new home, or what documentation we needed to get a TX drivers license tp which museums we should visit near Sundance Square.  
+It is common for RI/Fossil Creek residents to start their mornings with breakfast in their main lounge area.  Friendly conversation with each other and staff (usually Beryl Alexander) over breakfast as we shared relo information with each other. Beryl was instrumental in developing a sense of community here with her  warm, caring personality that naturally brings residents together and has been a catalyst to meeting new people and making new friendships. We regularly relax around the pool on weekend evenings talking to new and old friends, shoot hoops on the basketball court,start the morning in the workout room on the elliptical and  walk the dog on miles of sidewalks that immediately surround the hotel, . 
+The friendly maintenance and housekeeping staff have quick to respond to our needs in the room, to work with our schedule and pet situation when the room needed attention, and regularly demonstrated a cooperative spirit with our many requests.  
+Thank you Res Inn/Fossil...The caring, compassionate, and professional staff of this Residence Inn in Fossil Creek made a difficult and sometimes chaotic relocation of my family much simpler than it would have otherwise been.  Cara, Beryl, Heather, Ana, Bob, and Rona were continually available to assist us - be it advice on a terrific restaurant or areas of town to look for a new home, or what documentation we needed to get a TX drivers license tp which museums we should visit near Sundance Square.  It is common for RI/Fossil Creek residents to start their mornings with breakfast in their main lounge area.  Friendly conversation with each other and staff (usually Beryl Alexander) over breakfast as we shared relo information with each other. Beryl was instrumental in developing a sense of community here with her  warm, caring personality that naturally brings residents together and has been a catalyst to meeting new people and making new friendships. We regularly relax around the pool on weekend evenings talking to new and old friends, shoot hoops on the basketball court,start the morning in the workout room on the elliptical and  walk the dog on miles of sidewalks that immediately surround the hotel, . The friendly maintenance and housekeeping staff have quick to respond to our needs in the room, to work with our schedule and pet situation when the room needed attention, and regularly demonstrated a cooperative spirit with our many requests.  Thank you Res Inn/Fossil Creek for making our relocation much less stressful and even enjoyable as you welcomed us to Ft. Worth!!!  The Cox FamilyMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>The caring, compassionate, and professional staff of this Residence Inn in Fossil Creek made a difficult and sometimes chaotic relocation of my family much simpler than it would have otherwise been.  Cara, Beryl, Heather, Ana, Bob, and Rona were continually available to assist us - be it advice on a terrific restaurant or areas of town to look for a new home, or what documentation we needed to get a TX drivers license tp which museums we should visit near Sundance Square.  
+It is common for RI/Fossil Creek residents to start their mornings with breakfast in their main lounge area.  Friendly conversation with each other and staff (usually Beryl Alexander) over breakfast as we shared relo information with each other. Beryl was instrumental in developing a sense of community here with her  warm, caring personality that naturally brings residents together and has been a catalyst to meeting new people and making new friendships. We regularly relax around the pool on weekend evenings talking to new and old friends, shoot hoops on the basketball court,start the morning in the workout room on the elliptical and  walk the dog on miles of sidewalks that immediately surround the hotel, . 
+The friendly maintenance and housekeeping staff have quick to respond to our needs in the room, to work with our schedule and pet situation when the room needed attention, and regularly demonstrated a cooperative spirit with our many requests.  
+Thank you Res Inn/Fossil...The caring, compassionate, and professional staff of this Residence Inn in Fossil Creek made a difficult and sometimes chaotic relocation of my family much simpler than it would have otherwise been.  Cara, Beryl, Heather, Ana, Bob, and Rona were continually available to assist us - be it advice on a terrific restaurant or areas of town to look for a new home, or what documentation we needed to get a TX drivers license tp which museums we should visit near Sundance Square.  It is common for RI/Fossil Creek residents to start their mornings with breakfast in their main lounge area.  Friendly conversation with each other and staff (usually Beryl Alexander) over breakfast as we shared relo information with each other. Beryl was instrumental in developing a sense of community here with her  warm, caring personality that naturally brings residents together and has been a catalyst to meeting new people and making new friendships. We regularly relax around the pool on weekend evenings talking to new and old friends, shoot hoops on the basketball court,start the morning in the workout room on the elliptical and  walk the dog on miles of sidewalks that immediately surround the hotel, . The friendly maintenance and housekeeping staff have quick to respond to our needs in the room, to work with our schedule and pet situation when the room needed attention, and regularly demonstrated a cooperative spirit with our many requests.  Thank you Res Inn/Fossil Creek for making our relocation much less stressful and even enjoyable as you welcomed us to Ft. Worth!!!  The Cox FamilyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r166270081-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>166270081</t>
+  </si>
+  <si>
+    <t>07/04/2013</t>
+  </si>
+  <si>
+    <t>Excellent Long Term Stay</t>
+  </si>
+  <si>
+    <t>The Fossil Creek Residence Inn is located in a convenient location with many amenities nearby.  The staff is friendly and really looks after the guests - especially us long term stay folks.  I even started enjoying the once a week Bingo at supper with the resident Bingo Master - Beryl Alexander.  It's the kind of thing that makes a long term stay a little more pleasant - and I think that's what the staff here really strives for.  And I don't think you could ask for more.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>The Fossil Creek Residence Inn is located in a convenient location with many amenities nearby.  The staff is friendly and really looks after the guests - especially us long term stay folks.  I even started enjoying the once a week Bingo at supper with the resident Bingo Master - Beryl Alexander.  It's the kind of thing that makes a long term stay a little more pleasant - and I think that's what the staff here really strives for.  And I don't think you could ask for more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r165556287-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>165556287</t>
+  </si>
+  <si>
+    <t>06/28/2013</t>
+  </si>
+  <si>
+    <t>Excellent staff, particularly Beryl Alexander and Heather Williams.Clean rooms and pool area, breakfast and happy hour lots of fun.Everyone goes out of their way to ensure a comfortable and enjoyable stay.Kudos as well to Ronna Stephens, a great Marriott employee and good friend.MoreShow less</t>
+  </si>
+  <si>
+    <t>trob087, General Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded July 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2013</t>
+  </si>
+  <si>
+    <t>Excellent staff, particularly Beryl Alexander and Heather Williams.Clean rooms and pool area, breakfast and happy hour lots of fun.Everyone goes out of their way to ensure a comfortable and enjoyable stay.Kudos as well to Ronna Stephens, a great Marriott employee and good friend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r165541659-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>165541659</t>
+  </si>
+  <si>
+    <t>Loved the breakfasts, bingo, and evening socials!  Wonderful staff!!</t>
+  </si>
+  <si>
+    <t>We stayed in Residence Inn Fort Worth Fossil Creek for over 2 months while relocating to Fort Worth with the aerospace industry.  The kitchenette has granite countertops and stainless steel appliances, and is equipped with everything you'd need to make a meal (minus an oven).  The evening socials (M-Th) served dinner, wine, and beer, so we didn't even need to cook much during the week.  The best night of the week was BINGO night, on Thursdays... the lobby would be packed with guests, all trying to win various prizes including Marriott rewards points, kids gifts, fresh baked cookies, and seasonal/themed gifts.  The staff was absolutely wonderful and made it feel more like a community than a hotel.  I recommend this hotel to anyone, whether it's a short stay or a few months... this has been one of the best hotel experiences in my whole life.  Thanks to Beryl and the rest of the staff... job well done!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed in Residence Inn Fort Worth Fossil Creek for over 2 months while relocating to Fort Worth with the aerospace industry.  The kitchenette has granite countertops and stainless steel appliances, and is equipped with everything you'd need to make a meal (minus an oven).  The evening socials (M-Th) served dinner, wine, and beer, so we didn't even need to cook much during the week.  The best night of the week was BINGO night, on Thursdays... the lobby would be packed with guests, all trying to win various prizes including Marriott rewards points, kids gifts, fresh baked cookies, and seasonal/themed gifts.  The staff was absolutely wonderful and made it feel more like a community than a hotel.  I recommend this hotel to anyone, whether it's a short stay or a few months... this has been one of the best hotel experiences in my whole life.  Thanks to Beryl and the rest of the staff... job well done!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r165497250-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>165497250</t>
+  </si>
+  <si>
+    <t>06/27/2013</t>
+  </si>
+  <si>
+    <t>Best Hotel  in Fort Worth</t>
+  </si>
+  <si>
+    <t>Have stayed here since being relocated in April.The staff is very excellent and helpful. I enjoy Bingo night, breakfast, and happy hour.  The housekeeping staff is wonderful and can clean a room like you would not believe.  Kudos to the Fossil Creek staff.  The sales representative Beryl is awesome!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Have stayed here since being relocated in April.The staff is very excellent and helpful. I enjoy Bingo night, breakfast, and happy hour.  The housekeeping staff is wonderful and can clean a room like you would not believe.  Kudos to the Fossil Creek staff.  The sales representative Beryl is awesome!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r157850112-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>157850112</t>
+  </si>
+  <si>
+    <t>04/15/2013</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>Stayed here last week while in town for the NRA 500. Hotel was nice, centrally located. The rooms were clean and comfortable. The only problem was hotel was noisy. If you go don't get room on I35 side traffic noise load all night long. Breakfast was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>trob087, General Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded April 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here last week while in town for the NRA 500. Hotel was nice, centrally located. The rooms were clean and comfortable. The only problem was hotel was noisy. If you go don't get room on I35 side traffic noise load all night long. Breakfast was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r156703605-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>156703605</t>
+  </si>
+  <si>
+    <t>04/05/2013</t>
+  </si>
+  <si>
+    <t>Definitely home away from home.</t>
+  </si>
+  <si>
+    <t>Our stay was not expected. We were displaced from our home due to a kitchen fire. Spending 23 nights away from home could have certainly been miserable for our family of 10!! It was definitely not that. The staff was incredible, the accommodations were extraordinary, the complimentary meals were a definite blessing, and the BINGO games gave my kids something to look forward to. I would definitely recommend The Residence Inn Fossil Creek to any one in my situation or vacationing! I am not sure there is anything better out there! Seriously!-Marie Jackson MoreShow less</t>
+  </si>
+  <si>
+    <t>Our stay was not expected. We were displaced from our home due to a kitchen fire. Spending 23 nights away from home could have certainly been miserable for our family of 10!! It was definitely not that. The staff was incredible, the accommodations were extraordinary, the complimentary meals were a definite blessing, and the BINGO games gave my kids something to look forward to. I would definitely recommend The Residence Inn Fossil Creek to any one in my situation or vacationing! I am not sure there is anything better out there! Seriously!-Marie Jackson More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r155983337-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>155983337</t>
+  </si>
+  <si>
+    <t>03/29/2013</t>
+  </si>
+  <si>
+    <t>Great stay for the price!</t>
+  </si>
+  <si>
+    <t>My family and I recently had the opportunity to stay at this property for Spring Break. I loved the area, but most of all I loved the staff and the property itself. The staff were very friendly and accomodating and really showed that they care about each of their guest. There was plenty for the kids to do from swimming, work out, playing basketball and volleyball on the sports court at the property. The rooms were spacious and clean!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>trob087, General Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded March 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2013</t>
+  </si>
+  <si>
+    <t>My family and I recently had the opportunity to stay at this property for Spring Break. I loved the area, but most of all I loved the staff and the property itself. The staff were very friendly and accomodating and really showed that they care about each of their guest. There was plenty for the kids to do from swimming, work out, playing basketball and volleyball on the sports court at the property. The rooms were spacious and clean!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r147965425-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>147965425</t>
+  </si>
+  <si>
+    <t>12/23/2012</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>Very nice clean room; a suite with a good kitchen and separate bedroom. Very reasonable priced.  The hotel was very close to many good restuarants.  The manager helped me with some issues. I can not complain.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Very nice clean room; a suite with a good kitchen and separate bedroom. Very reasonable priced.  The hotel was very close to many good restuarants.  The manager helped me with some issues. I can not complain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r146338284-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>146338284</t>
+  </si>
+  <si>
+    <t>11/27/2012</t>
+  </si>
+  <si>
+    <t>Stay here if you don't mind having your car broken into.</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several days every week for the last 7 weeks.  The rooms are nice and are cleaned well but beware.  This hotel has a huge problem with auto break ins.  They claim to have part time night security but it is not effective.  They are not uniformed and do not use spotlights or marked vehicles and do not appear to spend much time on this location.  I personally know of 2 vehicles broken into within the last 6 days.  Typically the side glass is broken out.MoreShow less</t>
+  </si>
+  <si>
+    <t>trob087, General Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded December 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several days every week for the last 7 weeks.  The rooms are nice and are cleaned well but beware.  This hotel has a huge problem with auto break ins.  They claim to have part time night security but it is not effective.  They are not uniformed and do not use spotlights or marked vehicles and do not appear to spend much time on this location.  I personally know of 2 vehicles broken into within the last 6 days.  Typically the side glass is broken out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r139031695-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>139031695</t>
+  </si>
+  <si>
+    <t>08/31/2012</t>
+  </si>
+  <si>
+    <t>Be Very Careful</t>
+  </si>
+  <si>
+    <t>My truck and another guests truck was broken into and we both lost a lot of stuff. The management said sorry and have not heard a word back from them and the break in was two days ago. After talking to the staff members We found out that this happens a lot. We also found out that people break into the washers and driers to steal the change. Better yet they have local police come in an sit in the breakfast area to insure people from the apartments in the area do not come in and get free breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>trob087, General Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded December 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2012</t>
+  </si>
+  <si>
+    <t>My truck and another guests truck was broken into and we both lost a lot of stuff. The management said sorry and have not heard a word back from them and the break in was two days ago. After talking to the staff members We found out that this happens a lot. We also found out that people break into the washers and driers to steal the change. Better yet they have local police come in an sit in the breakfast area to insure people from the apartments in the area do not come in and get free breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r132334949-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>132334949</t>
+  </si>
+  <si>
+    <t>06/19/2012</t>
+  </si>
+  <si>
+    <t>I've stayed at plenty hotels throughout the last few years and I just want to say that this was one of the best experiences I've had.  Ronna and Yolanda made my check in very enjoyable.  I recently had a bad stay at another property but the staff here helped me to regain all the confidence I previously lost.  Whenever i'm back in Ft Worth, this is the only place I will stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2012</t>
+  </si>
+  <si>
+    <t>I've stayed at plenty hotels throughout the last few years and I just want to say that this was one of the best experiences I've had.  Ronna and Yolanda made my check in very enjoyable.  I recently had a bad stay at another property but the staff here helped me to regain all the confidence I previously lost.  Whenever i'm back in Ft Worth, this is the only place I will stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r131976722-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>131976722</t>
+  </si>
+  <si>
+    <t>06/14/2012</t>
+  </si>
+  <si>
+    <t>My compliments to Residence Inn</t>
+  </si>
+  <si>
+    <t>I was in Fort Worth on business for a week that extended into two. While I was there I stayed in 3 different hotels and the Residence Inn was the best by a longshot. First I was at the Comfort Suites, then the Radisson. The Comfort Suites wasn’t very comfortable and the Radisson made me very uneasy but chose them because they offered on-site laundry facilities. However, when I checked with the front desk their dryer was broken – and that’s when I moved to your hotel.I totally enjoyed my stay and felt quite at home. Your hotel is well maintained and every night my room was in ship shape allowing me to unwind from long days. Everyone from the front desk to the maids were very welcoming and excel at customer service. I have found my home away from home and when I travel to Texas I know exactly where I’ll stay!Kudos to you and your staff for making your guests feel comfortable when away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in Fort Worth on business for a week that extended into two. While I was there I stayed in 3 different hotels and the Residence Inn was the best by a longshot. First I was at the Comfort Suites, then the Radisson. The Comfort Suites wasn’t very comfortable and the Radisson made me very uneasy but chose them because they offered on-site laundry facilities. However, when I checked with the front desk their dryer was broken – and that’s when I moved to your hotel.I totally enjoyed my stay and felt quite at home. Your hotel is well maintained and every night my room was in ship shape allowing me to unwind from long days. Everyone from the front desk to the maids were very welcoming and excel at customer service. I have found my home away from home and when I travel to Texas I know exactly where I’ll stay!Kudos to you and your staff for making your guests feel comfortable when away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r131048943-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>131048943</t>
+  </si>
+  <si>
+    <t>05/31/2012</t>
+  </si>
+  <si>
+    <t>summer vacation</t>
+  </si>
+  <si>
+    <t>hello i stayed at this hotel for 4 nights and it was very nice the rooms are updated .We Were able to use the bbq grill and just enjoy the evening i felt like it was home away from home..and not to mention the staff there were amazing especially Ana,and Richard i will definetly stay here again thank you for taking care of us soooo good!!!!Thanks vanessa,MoreShow less</t>
+  </si>
+  <si>
+    <t>trob087, General Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded June 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2012</t>
+  </si>
+  <si>
+    <t>hello i stayed at this hotel for 4 nights and it was very nice the rooms are updated .We Were able to use the bbq grill and just enjoy the evening i felt like it was home away from home..and not to mention the staff there were amazing especially Ana,and Richard i will definetly stay here again thank you for taking care of us soooo good!!!!Thanks vanessa,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r128021344-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>128021344</t>
+  </si>
+  <si>
+    <t>04/16/2012</t>
+  </si>
+  <si>
+    <t>Perfect for Business</t>
+  </si>
+  <si>
+    <t>Great hotel in a good location.  15-20 minutes North of Fort Worth, depending on traffic and construction.  Near many businesses like Lockheed-Martin and FAA.  Many good restaurants within a few miles.  Breakfast is pretty nice compared to other hotels in the area.  Nice pool, and sports courts.  Very spacious, well equipped rooms for the extended stay business person.  Great hotel over all.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>trob087, General Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded April 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2012</t>
+  </si>
+  <si>
+    <t>Great hotel in a good location.  15-20 minutes North of Fort Worth, depending on traffic and construction.  Near many businesses like Lockheed-Martin and FAA.  Many good restaurants within a few miles.  Breakfast is pretty nice compared to other hotels in the area.  Nice pool, and sports courts.  Very spacious, well equipped rooms for the extended stay business person.  Great hotel over all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r127532287-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>127532287</t>
+  </si>
+  <si>
+    <t>04/09/2012</t>
+  </si>
+  <si>
+    <t>You might want to stay away until after May</t>
+  </si>
+  <si>
+    <t>This hotel is currently under renovation. According to the t-shirts that their front desk staff were wearing, the renovation will be lasting until May. Their front desk is actually now in their breakfast area and is reduced to a counter instead of the usual spread. I would like to think that the upheaval from the renovation is what caused the front desk staff to be unsure about what's going on in their hotel. When I asked if the pool was open the young lady at the desk at first said "yes" and when I mentioned that the note in our room said something about the pool being seasonal, she then said something like, "maybe it's not". Since I needed something for the kids to do after a long drive, we just went ahead and checked for ourselves. Good thing they had the maintenance man cleaning and testing the pool water and we found out from him that yes, the pool was indeed open. The room where we stayed was one of the newly renovated ones, I think. The carpets and furnishings were new. They were pleasing enough to the eyes. The carpets were so brand new though that the "newly-installed-carpet-smell" was evident in the hallways and in the room. In the bedroom it got too strong for me it woke me up at night; I had to switch sides the next night so I could be on the side that...This hotel is currently under renovation. According to the t-shirts that their front desk staff were wearing, the renovation will be lasting until May. Their front desk is actually now in their breakfast area and is reduced to a counter instead of the usual spread. I would like to think that the upheaval from the renovation is what caused the front desk staff to be unsure about what's going on in their hotel. When I asked if the pool was open the young lady at the desk at first said "yes" and when I mentioned that the note in our room said something about the pool being seasonal, she then said something like, "maybe it's not". Since I needed something for the kids to do after a long drive, we just went ahead and checked for ourselves. Good thing they had the maintenance man cleaning and testing the pool water and we found out from him that yes, the pool was indeed open. The room where we stayed was one of the newly renovated ones, I think. The carpets and furnishings were new. They were pleasing enough to the eyes. The carpets were so brand new though that the "newly-installed-carpet-smell" was evident in the hallways and in the room. In the bedroom it got too strong for me it woke me up at night; I had to switch sides the next night so I could be on the side that had more open space between the bed and the wall. But the kids didn't seem to mind so maybe others won't mind as well. Their regular exercise room was closed but I did see that a row of treadmills were positioned in a room facing the pool. I don't know if those were working or plugged in. The main reasons why we chose Residence Inn - the availability of a regular sized fridge, the accessibility of a stove, and the hot breakfast buffet were all thankfully up to our expectations so for that I am giving 3 stars. I am hoping that after the renovations, their front desk staff will be back to full-working-knowledge order and their rooms will smell less-brand-new. They do need to improve their signage on the frontage road. We missed the entrance a couple of times when we used the frontage road from 820 East heading toward 35 West, so if you take that to get to the hotel, you need to slow down a little; best to take the entrance at Sandshell. They were very close to several restaurants and a movie house and if you explored just a little bit more they were within short driving distance to a couple of grocery stores and many other retail establishments.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is currently under renovation. According to the t-shirts that their front desk staff were wearing, the renovation will be lasting until May. Their front desk is actually now in their breakfast area and is reduced to a counter instead of the usual spread. I would like to think that the upheaval from the renovation is what caused the front desk staff to be unsure about what's going on in their hotel. When I asked if the pool was open the young lady at the desk at first said "yes" and when I mentioned that the note in our room said something about the pool being seasonal, she then said something like, "maybe it's not". Since I needed something for the kids to do after a long drive, we just went ahead and checked for ourselves. Good thing they had the maintenance man cleaning and testing the pool water and we found out from him that yes, the pool was indeed open. The room where we stayed was one of the newly renovated ones, I think. The carpets and furnishings were new. They were pleasing enough to the eyes. The carpets were so brand new though that the "newly-installed-carpet-smell" was evident in the hallways and in the room. In the bedroom it got too strong for me it woke me up at night; I had to switch sides the next night so I could be on the side that...This hotel is currently under renovation. According to the t-shirts that their front desk staff were wearing, the renovation will be lasting until May. Their front desk is actually now in their breakfast area and is reduced to a counter instead of the usual spread. I would like to think that the upheaval from the renovation is what caused the front desk staff to be unsure about what's going on in their hotel. When I asked if the pool was open the young lady at the desk at first said "yes" and when I mentioned that the note in our room said something about the pool being seasonal, she then said something like, "maybe it's not". Since I needed something for the kids to do after a long drive, we just went ahead and checked for ourselves. Good thing they had the maintenance man cleaning and testing the pool water and we found out from him that yes, the pool was indeed open. The room where we stayed was one of the newly renovated ones, I think. The carpets and furnishings were new. They were pleasing enough to the eyes. The carpets were so brand new though that the "newly-installed-carpet-smell" was evident in the hallways and in the room. In the bedroom it got too strong for me it woke me up at night; I had to switch sides the next night so I could be on the side that had more open space between the bed and the wall. But the kids didn't seem to mind so maybe others won't mind as well. Their regular exercise room was closed but I did see that a row of treadmills were positioned in a room facing the pool. I don't know if those were working or plugged in. The main reasons why we chose Residence Inn - the availability of a regular sized fridge, the accessibility of a stove, and the hot breakfast buffet were all thankfully up to our expectations so for that I am giving 3 stars. I am hoping that after the renovations, their front desk staff will be back to full-working-knowledge order and their rooms will smell less-brand-new. They do need to improve their signage on the frontage road. We missed the entrance a couple of times when we used the frontage road from 820 East heading toward 35 West, so if you take that to get to the hotel, you need to slow down a little; best to take the entrance at Sandshell. They were very close to several restaurants and a movie house and if you explored just a little bit more they were within short driving distance to a couple of grocery stores and many other retail establishments.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r126750366-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>126750366</t>
+  </si>
+  <si>
+    <t>03/27/2012</t>
+  </si>
+  <si>
+    <t>Excellent service Great staff</t>
+  </si>
+  <si>
+    <t>The hotel staff are excellent. The breakfast buffet is well suited for all types of travelers, business to lesiure. The rooms are clean and contain a fridg. The location near to restaurants and the DFW airport was very good as well as being close to major highways.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>The hotel staff are excellent. The breakfast buffet is well suited for all types of travelers, business to lesiure. The rooms are clean and contain a fridg. The location near to restaurants and the DFW airport was very good as well as being close to major highways.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r115775019-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>115775019</t>
+  </si>
+  <si>
+    <t>07/25/2011</t>
+  </si>
+  <si>
+    <t>Please stay somewhere else!</t>
+  </si>
+  <si>
+    <t>This was probably the worst stay ever...the cleaning staff was pitiful. The first week, my room was only cleaned twice. And when it was cleaned, it was after 5:00 pm. The front desk staff lady would only comment that they were understaffed (they didn't refund me partially due to lack of service). The carpet looked as if it had never been vacuumed. I had to request it. Ants were everywhere. The cleanup staff hangs out in the front office, when they should be cleaning rooms. The outside trashcans are never emptied and the stench carries on into the building. The barbecue pits need a good cleaning. I was very, very disapppointed. Please stay somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>This was probably the worst stay ever...the cleaning staff was pitiful. The first week, my room was only cleaned twice. And when it was cleaned, it was after 5:00 pm. The front desk staff lady would only comment that they were understaffed (they didn't refund me partially due to lack of service). The carpet looked as if it had never been vacuumed. I had to request it. Ants were everywhere. The cleanup staff hangs out in the front office, when they should be cleaning rooms. The outside trashcans are never emptied and the stench carries on into the building. The barbecue pits need a good cleaning. I was very, very disapppointed. Please stay somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r58935718-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>58935718</t>
+  </si>
+  <si>
+    <t>03/18/2010</t>
+  </si>
+  <si>
+    <t>Decent Hotel for Business Stay</t>
+  </si>
+  <si>
+    <t>I must admit that I was not impressed with this Residence Inn.  While the room was clean the furniture was both worn and dated.  Overall it was just not a very welcoming space to stay in.  It is, however, in a good location for many restaurants and there is also a movie theater nearby.  For a 2 night stay I found this hotel sufficient but do not plan to return the next time I am in town.  There are many other hotels in this same location to choose from.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>I must admit that I was not impressed with this Residence Inn.  While the room was clean the furniture was both worn and dated.  Overall it was just not a very welcoming space to stay in.  It is, however, in a good location for many restaurants and there is also a movie theater nearby.  For a 2 night stay I found this hotel sufficient but do not plan to return the next time I am in town.  There are many other hotels in this same location to choose from.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r50228366-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>50228366</t>
+  </si>
+  <si>
+    <t>11/28/2009</t>
+  </si>
+  <si>
+    <t>Enjoyable Residence Inn Stay</t>
+  </si>
+  <si>
+    <t>Was a bit concerned after reading reviews of this property, but I found it to be a wonderful place to stay, very convenient to multiple restaurants and to my business trip which was at Meacham Field.  When I checked in to the property they had be draw a fortune cookie from a jar.   My " fortune was a gift certificate for $10 off dinner at TGIFridays and 200 bonus Marriott reward points.  Front Desk staff was helpful and breakfast was complete and delicious.  Even though this was a cool November evening, the Hot Tub and Outdoor Pool were open and the Hot Tub was great.  Had to move pretty quickly to get back to my room before the ice formed though.....MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>Was a bit concerned after reading reviews of this property, but I found it to be a wonderful place to stay, very convenient to multiple restaurants and to my business trip which was at Meacham Field.  When I checked in to the property they had be draw a fortune cookie from a jar.   My " fortune was a gift certificate for $10 off dinner at TGIFridays and 200 bonus Marriott reward points.  Front Desk staff was helpful and breakfast was complete and delicious.  Even though this was a cool November evening, the Hot Tub and Outdoor Pool were open and the Hot Tub was great.  Had to move pretty quickly to get back to my room before the ice formed though.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r15942279-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>15942279</t>
+  </si>
+  <si>
+    <t>05/11/2008</t>
+  </si>
+  <si>
+    <t>Sub Par Residence Inn</t>
+  </si>
+  <si>
+    <t>I have stayed in dozens of Residence Inns and this is perhaps the worst one that I've seen. Most Residence Inn are very nice but this property needs some work. 
+My first room had a very bad ant problem along with other maintenance issues. The second room I had also had issues but at least no ants. The carpets appear to be new and the bedding is nice. The cable channel selection is really subpar compared to any other hotel. Compared to most hotels though this hotel is not so bad...just don't expect it to be as nice as other Marriots. 
+The staff here are marginally helpfull. I did not appreciate a call at 11:00 one night to see if I had checked out.  Not only didn't I check out but I still had 10 days on my reservation. No one at the front desk calls when they receive Fed Ex packages. Some of them were sitting down at the desk for days before I knew I had a package. 
+In the mornings the breakfast area is frequently out of food. Most days there are many items that are gone. The garbage in the dining area usually needs to be over flowing before the staff will empty it.
+Warning: The Fort Worth police every weekday have a speed trap on the access road in front of the hotel. The speed limit is set low and most days there are at...I have stayed in dozens of Residence Inns and this is perhaps the worst one that I've seen. Most Residence Inn are very nice but this property needs some work. My first room had a very bad ant problem along with other maintenance issues. The second room I had also had issues but at least no ants. The carpets appear to be new and the bedding is nice. The cable channel selection is really subpar compared to any other hotel. Compared to most hotels though this hotel is not so bad...just don't expect it to be as nice as other Marriots. The staff here are marginally helpfull. I did not appreciate a call at 11:00 one night to see if I had checked out.  Not only didn't I check out but I still had 10 days on my reservation. No one at the front desk calls when they receive Fed Ex packages. Some of them were sitting down at the desk for days before I knew I had a package. In the mornings the breakfast area is frequently out of food. Most days there are many items that are gone. The garbage in the dining area usually needs to be over flowing before the staff will empty it.Warning: The Fort Worth police every weekday have a speed trap on the access road in front of the hotel. The speed limit is set low and most days there are at least two-three cars getting tickets when I drive by. This speed trap was also here last year when I stayed at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed in dozens of Residence Inns and this is perhaps the worst one that I've seen. Most Residence Inn are very nice but this property needs some work. 
+My first room had a very bad ant problem along with other maintenance issues. The second room I had also had issues but at least no ants. The carpets appear to be new and the bedding is nice. The cable channel selection is really subpar compared to any other hotel. Compared to most hotels though this hotel is not so bad...just don't expect it to be as nice as other Marriots. 
+The staff here are marginally helpfull. I did not appreciate a call at 11:00 one night to see if I had checked out.  Not only didn't I check out but I still had 10 days on my reservation. No one at the front desk calls when they receive Fed Ex packages. Some of them were sitting down at the desk for days before I knew I had a package. 
+In the mornings the breakfast area is frequently out of food. Most days there are many items that are gone. The garbage in the dining area usually needs to be over flowing before the staff will empty it.
+Warning: The Fort Worth police every weekday have a speed trap on the access road in front of the hotel. The speed limit is set low and most days there are at...I have stayed in dozens of Residence Inns and this is perhaps the worst one that I've seen. Most Residence Inn are very nice but this property needs some work. My first room had a very bad ant problem along with other maintenance issues. The second room I had also had issues but at least no ants. The carpets appear to be new and the bedding is nice. The cable channel selection is really subpar compared to any other hotel. Compared to most hotels though this hotel is not so bad...just don't expect it to be as nice as other Marriots. The staff here are marginally helpfull. I did not appreciate a call at 11:00 one night to see if I had checked out.  Not only didn't I check out but I still had 10 days on my reservation. No one at the front desk calls when they receive Fed Ex packages. Some of them were sitting down at the desk for days before I knew I had a package. In the mornings the breakfast area is frequently out of food. Most days there are many items that are gone. The garbage in the dining area usually needs to be over flowing before the staff will empty it.Warning: The Fort Worth police every weekday have a speed trap on the access road in front of the hotel. The speed limit is set low and most days there are at least two-three cars getting tickets when I drive by. This speed trap was also here last year when I stayed at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r12099299-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>12099299</t>
+  </si>
+  <si>
+    <t>12/30/2007</t>
+  </si>
+  <si>
+    <t>Ditto to previous reviewer - not a 3 star hotel</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this hotel over Christmas, 2007 (1 year after the previous reviewer). Same experience/problems as her. Our toilet got stopped up the first day. The staff did clear it up the same day, but we were obviously hesitant to use it again. The second night we were awakened by a mechanical sounding rat-a-tat-a-tat in the middle of the night. It only lasted for 6 minutes, but of course I had no idea how long it would last while it was going on. I reported it to the desk the next morning, but got no answer as to what caused it. Then that evening when we got back to our room we heard the noise again (around 10:00 pm). I snooped around and found that there was an air compressor machine in a closet that was RIGHT NEXT TO the wall where our bed was located (room 110 - avoid this room if you don't want to be awakened in the middle of the night). I immediately went to the front desk and complained. The clerk was very accommodating and offered to move us, which I accepted. The third thing I noticed was similar to what the previous reviewer reported. At breakfast one morning two of the housekeeping staff had a lengthly and loud personal conversation in the breakfast room that lasted at least 15 minutes. I was he only guest there at that time, but...My wife and I stayed at this hotel over Christmas, 2007 (1 year after the previous reviewer). Same experience/problems as her. Our toilet got stopped up the first day. The staff did clear it up the same day, but we were obviously hesitant to use it again. The second night we were awakened by a mechanical sounding rat-a-tat-a-tat in the middle of the night. It only lasted for 6 minutes, but of course I had no idea how long it would last while it was going on. I reported it to the desk the next morning, but got no answer as to what caused it. Then that evening when we got back to our room we heard the noise again (around 10:00 pm). I snooped around and found that there was an air compressor machine in a closet that was RIGHT NEXT TO the wall where our bed was located (room 110 - avoid this room if you don't want to be awakened in the middle of the night). I immediately went to the front desk and complained. The clerk was very accommodating and offered to move us, which I accepted. The third thing I noticed was similar to what the previous reviewer reported. At breakfast one morning two of the housekeeping staff had a lengthly and loud personal conversation in the breakfast room that lasted at least 15 minutes. I was he only guest there at that time, but I thought it was very unprofessional for them to be so engaged in front of a guest. I will never stay at that hotel again, needless to say.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>trob087, Manager at Residence Inn by Marriott Fort Worth Fossil Creek, responded to this reviewResponded April 26, 2012</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this hotel over Christmas, 2007 (1 year after the previous reviewer). Same experience/problems as her. Our toilet got stopped up the first day. The staff did clear it up the same day, but we were obviously hesitant to use it again. The second night we were awakened by a mechanical sounding rat-a-tat-a-tat in the middle of the night. It only lasted for 6 minutes, but of course I had no idea how long it would last while it was going on. I reported it to the desk the next morning, but got no answer as to what caused it. Then that evening when we got back to our room we heard the noise again (around 10:00 pm). I snooped around and found that there was an air compressor machine in a closet that was RIGHT NEXT TO the wall where our bed was located (room 110 - avoid this room if you don't want to be awakened in the middle of the night). I immediately went to the front desk and complained. The clerk was very accommodating and offered to move us, which I accepted. The third thing I noticed was similar to what the previous reviewer reported. At breakfast one morning two of the housekeeping staff had a lengthly and loud personal conversation in the breakfast room that lasted at least 15 minutes. I was he only guest there at that time, but...My wife and I stayed at this hotel over Christmas, 2007 (1 year after the previous reviewer). Same experience/problems as her. Our toilet got stopped up the first day. The staff did clear it up the same day, but we were obviously hesitant to use it again. The second night we were awakened by a mechanical sounding rat-a-tat-a-tat in the middle of the night. It only lasted for 6 minutes, but of course I had no idea how long it would last while it was going on. I reported it to the desk the next morning, but got no answer as to what caused it. Then that evening when we got back to our room we heard the noise again (around 10:00 pm). I snooped around and found that there was an air compressor machine in a closet that was RIGHT NEXT TO the wall where our bed was located (room 110 - avoid this room if you don't want to be awakened in the middle of the night). I immediately went to the front desk and complained. The clerk was very accommodating and offered to move us, which I accepted. The third thing I noticed was similar to what the previous reviewer reported. At breakfast one morning two of the housekeeping staff had a lengthly and loud personal conversation in the breakfast room that lasted at least 15 minutes. I was he only guest there at that time, but I thought it was very unprofessional for them to be so engaged in front of a guest. I will never stay at that hotel again, needless to say.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r4356673-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>4356673</t>
+  </si>
+  <si>
+    <t>01/15/2006</t>
+  </si>
+  <si>
+    <t>NOT A 3 STAR</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed at the Residence Inn before, several years ago and we couldn't have been more satisfied.  This past Christmas we spent a week there and was very disappointed.  We were there three days and on Sat.(Christmas Eve day) the plumbing inthe bathroom was completely plugged.  I went to the frontdesk and was told that it would be two hours beforeanyone could check it.  They offered another room across the hall or in another building. At 6:30AM we were moving our things to another building. A staffmember told us that it wasn't the first time they have had problems.  Also on Christmas Day we were given a sack on the door with extra coffee, a set of towels and soap since the manager give the staff the day off.  We missed the notice due to the move. I alsonoticed a desk clerk sleeping at 7AM and a staff member was feeding his family at the evening reception.  I notified Marriott and the hotel manager e-mailed to say she was sorry for our displeasure in our stay.  I told her we would not be staying there again.  The place needs to definately improve in upkeep and maintenance.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed at the Residence Inn before, several years ago and we couldn't have been more satisfied.  This past Christmas we spent a week there and was very disappointed.  We were there three days and on Sat.(Christmas Eve day) the plumbing inthe bathroom was completely plugged.  I went to the frontdesk and was told that it would be two hours beforeanyone could check it.  They offered another room across the hall or in another building. At 6:30AM we were moving our things to another building. A staffmember told us that it wasn't the first time they have had problems.  Also on Christmas Day we were given a sack on the door with extra coffee, a set of towels and soap since the manager give the staff the day off.  We missed the notice due to the move. I alsonoticed a desk clerk sleeping at 7AM and a staff member was feeding his family at the evening reception.  I notified Marriott and the hotel manager e-mailed to say she was sorry for our displeasure in our stay.  I told her we would not be staying there again.  The place needs to definately improve in upkeep and maintenance.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2499,5610 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>85</v>
+      </c>
+      <c r="X6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>110</v>
+      </c>
+      <c r="X9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" t="s">
+        <v>137</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" t="s">
+        <v>149</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>150</v>
+      </c>
+      <c r="X15" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>150</v>
+      </c>
+      <c r="X16" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>160</v>
+      </c>
+      <c r="J17" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>164</v>
+      </c>
+      <c r="O17" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>165</v>
+      </c>
+      <c r="X17" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>173</v>
+      </c>
+      <c r="O18" t="s">
+        <v>93</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" t="s">
+        <v>178</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>173</v>
+      </c>
+      <c r="O19" t="s">
+        <v>179</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" t="s">
+        <v>185</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>186</v>
+      </c>
+      <c r="O20" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" t="s">
+        <v>190</v>
+      </c>
+      <c r="K21" t="s">
+        <v>191</v>
+      </c>
+      <c r="L21" t="s">
+        <v>192</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>193</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" t="s">
+        <v>197</v>
+      </c>
+      <c r="L22" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>199</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J23" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" t="s">
+        <v>204</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>205</v>
+      </c>
+      <c r="O23" t="s">
+        <v>93</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" t="s">
+        <v>208</v>
+      </c>
+      <c r="K24" t="s">
+        <v>209</v>
+      </c>
+      <c r="L24" t="s">
+        <v>210</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>205</v>
+      </c>
+      <c r="O24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>212</v>
+      </c>
+      <c r="J25" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" t="s">
+        <v>214</v>
+      </c>
+      <c r="L25" t="s">
+        <v>215</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>216</v>
+      </c>
+      <c r="O25" t="s">
+        <v>93</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>218</v>
+      </c>
+      <c r="J26" t="s">
+        <v>219</v>
+      </c>
+      <c r="K26" t="s">
+        <v>220</v>
+      </c>
+      <c r="L26" t="s">
+        <v>221</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>216</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>222</v>
+      </c>
+      <c r="X26" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>225</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>226</v>
+      </c>
+      <c r="J27" t="s">
+        <v>227</v>
+      </c>
+      <c r="K27" t="s">
+        <v>228</v>
+      </c>
+      <c r="L27" t="s">
+        <v>229</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>230</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>233</v>
+      </c>
+      <c r="J28" t="s">
+        <v>234</v>
+      </c>
+      <c r="K28" t="s">
+        <v>235</v>
+      </c>
+      <c r="L28" t="s">
+        <v>236</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>237</v>
+      </c>
+      <c r="O28" t="s">
+        <v>93</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>239</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>240</v>
+      </c>
+      <c r="J29" t="s">
+        <v>241</v>
+      </c>
+      <c r="K29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L29" t="s">
+        <v>243</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>244</v>
+      </c>
+      <c r="O29" t="s">
+        <v>137</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>246</v>
+      </c>
+      <c r="J30" t="s">
+        <v>247</v>
+      </c>
+      <c r="K30" t="s">
+        <v>248</v>
+      </c>
+      <c r="L30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>244</v>
+      </c>
+      <c r="O30" t="s">
+        <v>93</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>250</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>251</v>
+      </c>
+      <c r="J31" t="s">
+        <v>252</v>
+      </c>
+      <c r="K31" t="s">
+        <v>253</v>
+      </c>
+      <c r="L31" t="s">
+        <v>254</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>244</v>
+      </c>
+      <c r="O31" t="s">
+        <v>137</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>255</v>
+      </c>
+      <c r="X31" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>258</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>259</v>
+      </c>
+      <c r="J32" t="s">
+        <v>260</v>
+      </c>
+      <c r="K32" t="s">
+        <v>261</v>
+      </c>
+      <c r="L32" t="s">
+        <v>262</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>263</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>264</v>
+      </c>
+      <c r="X32" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>267</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>268</v>
+      </c>
+      <c r="J33" t="s">
+        <v>269</v>
+      </c>
+      <c r="K33" t="s">
+        <v>270</v>
+      </c>
+      <c r="L33" t="s">
+        <v>271</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>263</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>272</v>
+      </c>
+      <c r="X33" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>275</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>276</v>
+      </c>
+      <c r="J34" t="s">
+        <v>277</v>
+      </c>
+      <c r="K34" t="s">
+        <v>278</v>
+      </c>
+      <c r="L34" t="s">
+        <v>279</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>263</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>280</v>
+      </c>
+      <c r="X34" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>283</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>284</v>
+      </c>
+      <c r="J35" t="s">
+        <v>285</v>
+      </c>
+      <c r="K35" t="s">
+        <v>286</v>
+      </c>
+      <c r="L35" t="s">
+        <v>287</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>288</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>289</v>
+      </c>
+      <c r="X35" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>292</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>293</v>
+      </c>
+      <c r="J36" t="s">
+        <v>294</v>
+      </c>
+      <c r="K36" t="s">
+        <v>295</v>
+      </c>
+      <c r="L36" t="s">
+        <v>296</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>297</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>299</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>300</v>
+      </c>
+      <c r="J37" t="s">
+        <v>301</v>
+      </c>
+      <c r="K37" t="s">
+        <v>302</v>
+      </c>
+      <c r="L37" t="s">
+        <v>303</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>304</v>
+      </c>
+      <c r="O37" t="s">
+        <v>93</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>305</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>306</v>
+      </c>
+      <c r="J38" t="s">
+        <v>307</v>
+      </c>
+      <c r="K38" t="s">
+        <v>308</v>
+      </c>
+      <c r="L38" t="s">
+        <v>309</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>310</v>
+      </c>
+      <c r="O38" t="s">
+        <v>93</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>311</v>
+      </c>
+      <c r="X38" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>314</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>315</v>
+      </c>
+      <c r="J39" t="s">
+        <v>316</v>
+      </c>
+      <c r="K39" t="s">
+        <v>317</v>
+      </c>
+      <c r="L39" t="s">
+        <v>318</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>319</v>
+      </c>
+      <c r="O39" t="s">
+        <v>93</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>320</v>
+      </c>
+      <c r="X39" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>323</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>324</v>
+      </c>
+      <c r="J40" t="s">
+        <v>325</v>
+      </c>
+      <c r="K40" t="s">
+        <v>326</v>
+      </c>
+      <c r="L40" t="s">
+        <v>327</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>328</v>
+      </c>
+      <c r="O40" t="s">
+        <v>93</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>329</v>
+      </c>
+      <c r="X40" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>332</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>333</v>
+      </c>
+      <c r="J41" t="s">
+        <v>334</v>
+      </c>
+      <c r="K41" t="s">
+        <v>335</v>
+      </c>
+      <c r="L41" t="s">
+        <v>336</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>328</v>
+      </c>
+      <c r="O41" t="s">
+        <v>93</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>337</v>
+      </c>
+      <c r="X41" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>340</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>341</v>
+      </c>
+      <c r="J42" t="s">
+        <v>342</v>
+      </c>
+      <c r="K42" t="s">
+        <v>343</v>
+      </c>
+      <c r="L42" t="s">
+        <v>344</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>328</v>
+      </c>
+      <c r="O42" t="s">
+        <v>93</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>345</v>
+      </c>
+      <c r="X42" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>348</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>349</v>
+      </c>
+      <c r="J43" t="s">
+        <v>350</v>
+      </c>
+      <c r="K43" t="s">
+        <v>351</v>
+      </c>
+      <c r="L43" t="s">
+        <v>352</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>353</v>
+      </c>
+      <c r="O43" t="s">
+        <v>137</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>345</v>
+      </c>
+      <c r="X43" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>355</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>356</v>
+      </c>
+      <c r="J44" t="s">
+        <v>357</v>
+      </c>
+      <c r="K44" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44" t="s">
+        <v>358</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>359</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>360</v>
+      </c>
+      <c r="X44" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>363</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>364</v>
+      </c>
+      <c r="J45" t="s">
+        <v>365</v>
+      </c>
+      <c r="K45" t="s">
+        <v>366</v>
+      </c>
+      <c r="L45" t="s">
+        <v>367</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>359</v>
+      </c>
+      <c r="O45" t="s">
+        <v>93</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>360</v>
+      </c>
+      <c r="X45" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>369</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>370</v>
+      </c>
+      <c r="J46" t="s">
+        <v>371</v>
+      </c>
+      <c r="K46" t="s">
+        <v>372</v>
+      </c>
+      <c r="L46" t="s">
+        <v>373</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>374</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>360</v>
+      </c>
+      <c r="X46" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>376</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>377</v>
+      </c>
+      <c r="J47" t="s">
+        <v>378</v>
+      </c>
+      <c r="K47" t="s">
+        <v>379</v>
+      </c>
+      <c r="L47" t="s">
+        <v>380</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>359</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>381</v>
+      </c>
+      <c r="X47" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>384</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>385</v>
+      </c>
+      <c r="J48" t="s">
+        <v>386</v>
+      </c>
+      <c r="K48" t="s">
+        <v>387</v>
+      </c>
+      <c r="L48" t="s">
+        <v>388</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>359</v>
+      </c>
+      <c r="O48" t="s">
+        <v>93</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>381</v>
+      </c>
+      <c r="X48" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>390</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>391</v>
+      </c>
+      <c r="J49" t="s">
+        <v>392</v>
+      </c>
+      <c r="K49" t="s">
+        <v>393</v>
+      </c>
+      <c r="L49" t="s">
+        <v>394</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>359</v>
+      </c>
+      <c r="O49" t="s">
+        <v>93</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>395</v>
+      </c>
+      <c r="X49" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>398</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>399</v>
+      </c>
+      <c r="J50" t="s">
+        <v>400</v>
+      </c>
+      <c r="K50" t="s">
+        <v>401</v>
+      </c>
+      <c r="L50" t="s">
+        <v>402</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>403</v>
+      </c>
+      <c r="X50" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>406</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>407</v>
+      </c>
+      <c r="J51" t="s">
+        <v>408</v>
+      </c>
+      <c r="K51" t="s">
+        <v>409</v>
+      </c>
+      <c r="L51" t="s">
+        <v>410</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>359</v>
+      </c>
+      <c r="O51" t="s">
+        <v>93</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>403</v>
+      </c>
+      <c r="X51" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>412</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>413</v>
+      </c>
+      <c r="J52" t="s">
+        <v>414</v>
+      </c>
+      <c r="K52" t="s">
+        <v>415</v>
+      </c>
+      <c r="L52" t="s">
+        <v>416</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>374</v>
+      </c>
+      <c r="O52" t="s">
+        <v>179</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>417</v>
+      </c>
+      <c r="X52" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>420</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>421</v>
+      </c>
+      <c r="J53" t="s">
+        <v>422</v>
+      </c>
+      <c r="K53" t="s">
+        <v>423</v>
+      </c>
+      <c r="L53" t="s">
+        <v>424</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>425</v>
+      </c>
+      <c r="X53" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>428</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>429</v>
+      </c>
+      <c r="J54" t="s">
+        <v>422</v>
+      </c>
+      <c r="K54" t="s">
+        <v>430</v>
+      </c>
+      <c r="L54" t="s">
+        <v>431</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>374</v>
+      </c>
+      <c r="O54" t="s">
+        <v>93</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>425</v>
+      </c>
+      <c r="X54" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>433</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>434</v>
+      </c>
+      <c r="J55" t="s">
+        <v>435</v>
+      </c>
+      <c r="K55" t="s">
+        <v>436</v>
+      </c>
+      <c r="L55" t="s">
+        <v>437</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>374</v>
+      </c>
+      <c r="O55" t="s">
+        <v>109</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>438</v>
+      </c>
+      <c r="X55" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>441</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>442</v>
+      </c>
+      <c r="J56" t="s">
+        <v>443</v>
+      </c>
+      <c r="K56" t="s">
+        <v>444</v>
+      </c>
+      <c r="L56" t="s">
+        <v>445</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>374</v>
+      </c>
+      <c r="O56" t="s">
+        <v>93</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>425</v>
+      </c>
+      <c r="X56" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>447</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>448</v>
+      </c>
+      <c r="J57" t="s">
+        <v>449</v>
+      </c>
+      <c r="K57" t="s">
+        <v>450</v>
+      </c>
+      <c r="L57" t="s">
+        <v>451</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>452</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>438</v>
+      </c>
+      <c r="X57" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>454</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>455</v>
+      </c>
+      <c r="J58" t="s">
+        <v>456</v>
+      </c>
+      <c r="K58" t="s">
+        <v>286</v>
+      </c>
+      <c r="L58" t="s">
+        <v>457</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>458</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>425</v>
+      </c>
+      <c r="X58" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>460</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>461</v>
+      </c>
+      <c r="J59" t="s">
+        <v>462</v>
+      </c>
+      <c r="K59" t="s">
+        <v>463</v>
+      </c>
+      <c r="L59" t="s">
+        <v>464</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>458</v>
+      </c>
+      <c r="O59" t="s">
+        <v>93</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>465</v>
+      </c>
+      <c r="X59" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>468</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>469</v>
+      </c>
+      <c r="J60" t="s">
+        <v>470</v>
+      </c>
+      <c r="K60" t="s">
+        <v>471</v>
+      </c>
+      <c r="L60" t="s">
+        <v>472</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>452</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>473</v>
+      </c>
+      <c r="X60" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>476</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>477</v>
+      </c>
+      <c r="J61" t="s">
+        <v>478</v>
+      </c>
+      <c r="K61" t="s">
+        <v>479</v>
+      </c>
+      <c r="L61" t="s">
+        <v>480</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>481</v>
+      </c>
+      <c r="O61" t="s">
+        <v>93</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>473</v>
+      </c>
+      <c r="X61" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>483</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>484</v>
+      </c>
+      <c r="J62" t="s">
+        <v>485</v>
+      </c>
+      <c r="K62" t="s">
+        <v>486</v>
+      </c>
+      <c r="L62" t="s">
+        <v>487</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>452</v>
+      </c>
+      <c r="O62" t="s">
+        <v>93</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>488</v>
+      </c>
+      <c r="X62" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>491</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>492</v>
+      </c>
+      <c r="J63" t="s">
+        <v>493</v>
+      </c>
+      <c r="K63" t="s">
+        <v>494</v>
+      </c>
+      <c r="L63" t="s">
+        <v>495</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>496</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>488</v>
+      </c>
+      <c r="X63" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>498</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>499</v>
+      </c>
+      <c r="J64" t="s">
+        <v>500</v>
+      </c>
+      <c r="K64" t="s">
+        <v>501</v>
+      </c>
+      <c r="L64" t="s">
+        <v>502</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>503</v>
+      </c>
+      <c r="O64" t="s">
+        <v>93</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>488</v>
+      </c>
+      <c r="X64" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>505</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>506</v>
+      </c>
+      <c r="J65" t="s">
+        <v>507</v>
+      </c>
+      <c r="K65" t="s">
+        <v>10</v>
+      </c>
+      <c r="L65" t="s">
+        <v>508</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>481</v>
+      </c>
+      <c r="O65" t="s">
+        <v>93</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>509</v>
+      </c>
+      <c r="X65" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>512</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>513</v>
+      </c>
+      <c r="J66" t="s">
+        <v>507</v>
+      </c>
+      <c r="K66" t="s">
+        <v>514</v>
+      </c>
+      <c r="L66" t="s">
+        <v>515</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>481</v>
+      </c>
+      <c r="O66" t="s">
+        <v>137</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>488</v>
+      </c>
+      <c r="X66" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>517</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>518</v>
+      </c>
+      <c r="J67" t="s">
+        <v>519</v>
+      </c>
+      <c r="K67" t="s">
+        <v>520</v>
+      </c>
+      <c r="L67" t="s">
+        <v>521</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>496</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>509</v>
+      </c>
+      <c r="X67" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>523</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>524</v>
+      </c>
+      <c r="J68" t="s">
+        <v>525</v>
+      </c>
+      <c r="K68" t="s">
+        <v>526</v>
+      </c>
+      <c r="L68" t="s">
+        <v>527</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>496</v>
+      </c>
+      <c r="O68" t="s">
+        <v>109</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>528</v>
+      </c>
+      <c r="X68" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>531</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>532</v>
+      </c>
+      <c r="J69" t="s">
+        <v>533</v>
+      </c>
+      <c r="K69" t="s">
+        <v>534</v>
+      </c>
+      <c r="L69" t="s">
+        <v>535</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>528</v>
+      </c>
+      <c r="X69" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>537</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>538</v>
+      </c>
+      <c r="J70" t="s">
+        <v>539</v>
+      </c>
+      <c r="K70" t="s">
+        <v>540</v>
+      </c>
+      <c r="L70" t="s">
+        <v>541</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>542</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>543</v>
+      </c>
+      <c r="X70" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>546</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>547</v>
+      </c>
+      <c r="J71" t="s">
+        <v>548</v>
+      </c>
+      <c r="K71" t="s">
+        <v>549</v>
+      </c>
+      <c r="L71" t="s">
+        <v>550</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>551</v>
+      </c>
+      <c r="O71" t="s">
+        <v>179</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>528</v>
+      </c>
+      <c r="X71" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>553</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>554</v>
+      </c>
+      <c r="J72" t="s">
+        <v>555</v>
+      </c>
+      <c r="K72" t="s">
+        <v>556</v>
+      </c>
+      <c r="L72" t="s">
+        <v>557</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>551</v>
+      </c>
+      <c r="O72" t="s">
+        <v>93</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>558</v>
+      </c>
+      <c r="X72" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>561</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>562</v>
+      </c>
+      <c r="J73" t="s">
+        <v>563</v>
+      </c>
+      <c r="K73" t="s">
+        <v>564</v>
+      </c>
+      <c r="L73" t="s">
+        <v>565</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>566</v>
+      </c>
+      <c r="O73" t="s">
+        <v>93</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>567</v>
+      </c>
+      <c r="X73" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>570</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>571</v>
+      </c>
+      <c r="J74" t="s">
+        <v>572</v>
+      </c>
+      <c r="K74" t="s">
+        <v>82</v>
+      </c>
+      <c r="L74" t="s">
+        <v>573</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>574</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>575</v>
+      </c>
+      <c r="X74" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>578</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>579</v>
+      </c>
+      <c r="J75" t="s">
+        <v>580</v>
+      </c>
+      <c r="K75" t="s">
+        <v>581</v>
+      </c>
+      <c r="L75" t="s">
+        <v>582</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>574</v>
+      </c>
+      <c r="O75" t="s">
+        <v>93</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>575</v>
+      </c>
+      <c r="X75" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>584</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>585</v>
+      </c>
+      <c r="J76" t="s">
+        <v>586</v>
+      </c>
+      <c r="K76" t="s">
+        <v>587</v>
+      </c>
+      <c r="L76" t="s">
+        <v>588</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>574</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>589</v>
+      </c>
+      <c r="X76" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>592</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>593</v>
+      </c>
+      <c r="J77" t="s">
+        <v>594</v>
+      </c>
+      <c r="K77" t="s">
+        <v>595</v>
+      </c>
+      <c r="L77" t="s">
+        <v>596</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>597</v>
+      </c>
+      <c r="O77" t="s">
+        <v>93</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>598</v>
+      </c>
+      <c r="X77" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>601</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>602</v>
+      </c>
+      <c r="J78" t="s">
+        <v>603</v>
+      </c>
+      <c r="K78" t="s">
+        <v>604</v>
+      </c>
+      <c r="L78" t="s">
+        <v>605</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>597</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>598</v>
+      </c>
+      <c r="X78" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>607</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>608</v>
+      </c>
+      <c r="J79" t="s">
+        <v>609</v>
+      </c>
+      <c r="K79" t="s">
+        <v>610</v>
+      </c>
+      <c r="L79" t="s">
+        <v>611</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>612</v>
+      </c>
+      <c r="O79" t="s">
+        <v>93</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>598</v>
+      </c>
+      <c r="X79" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>614</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>615</v>
+      </c>
+      <c r="J80" t="s">
+        <v>616</v>
+      </c>
+      <c r="K80" t="s">
+        <v>617</v>
+      </c>
+      <c r="L80" t="s">
+        <v>618</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>619</v>
+      </c>
+      <c r="O80" t="s">
+        <v>93</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>598</v>
+      </c>
+      <c r="X80" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>621</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>622</v>
+      </c>
+      <c r="J81" t="s">
+        <v>623</v>
+      </c>
+      <c r="K81" t="s">
+        <v>624</v>
+      </c>
+      <c r="L81" t="s">
+        <v>625</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>626</v>
+      </c>
+      <c r="O81" t="s">
+        <v>93</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>598</v>
+      </c>
+      <c r="X81" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>628</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>629</v>
+      </c>
+      <c r="J82" t="s">
+        <v>630</v>
+      </c>
+      <c r="K82" t="s">
+        <v>631</v>
+      </c>
+      <c r="L82" t="s">
+        <v>632</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>633</v>
+      </c>
+      <c r="O82" t="s">
+        <v>93</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>598</v>
+      </c>
+      <c r="X82" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>635</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>636</v>
+      </c>
+      <c r="J83" t="s">
+        <v>637</v>
+      </c>
+      <c r="K83" t="s">
+        <v>638</v>
+      </c>
+      <c r="L83" t="s">
+        <v>639</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>598</v>
+      </c>
+      <c r="X83" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>641</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>642</v>
+      </c>
+      <c r="J84" t="s">
+        <v>643</v>
+      </c>
+      <c r="K84" t="s">
+        <v>644</v>
+      </c>
+      <c r="L84" t="s">
+        <v>645</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>646</v>
+      </c>
+      <c r="O84" t="s">
+        <v>137</v>
+      </c>
+      <c r="P84" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>647</v>
+      </c>
+      <c r="X84" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>34551</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>649</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>650</v>
+      </c>
+      <c r="J85" t="s">
+        <v>651</v>
+      </c>
+      <c r="K85" t="s">
+        <v>652</v>
+      </c>
+      <c r="L85" t="s">
+        <v>653</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>598</v>
+      </c>
+      <c r="X85" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>654</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_667.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_667.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="739">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>marcarelisa</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>We stayed here for a few weeks during a remodel.  The staff is amazing everyone from the front desk to housekeeping.  We first were placed in a 1 bed with a sofa bed and kitchenette on the 1st floor in Bldg A.  It was super quiet at night.  Then we were upgraded to a super sized 2 bedroom, 2 bath, and full kitchen on the 2nd floor of Bldg B.  We were able to hear Interstate 35 traffic from this side of property.  It wasn't bad, but it did take a couple days to get used to the noise.  They did have a tennis/basketball court and an outdoor pool.  The kids enjoyed the tennis and basketball court before it got cold out.  The front desk provided the equipment to play.  The breakfast was good.  It included oatmeal with an array of toppings, make your own waffles, fruits, yogurts, pastries, and more.  In the evenings, Monday through Wednesday, they provided a complimentary, light dinner of sorts for the guests like make your own burgers, chicken chili, and sweets.  They would provide drinks too like beer, wine, and sodas.  There was always enough for everyone that arrived.  The employee working that was always nice.  You could also find the manager greeting the guests.  Parking was always available on the Bldg B side, and it was well lit.  The only con was that the laundry facilities didn't always work, but they would refund...We stayed here for a few weeks during a remodel.  The staff is amazing everyone from the front desk to housekeeping.  We first were placed in a 1 bed with a sofa bed and kitchenette on the 1st floor in Bldg A.  It was super quiet at night.  Then we were upgraded to a super sized 2 bedroom, 2 bath, and full kitchen on the 2nd floor of Bldg B.  We were able to hear Interstate 35 traffic from this side of property.  It wasn't bad, but it did take a couple days to get used to the noise.  They did have a tennis/basketball court and an outdoor pool.  The kids enjoyed the tennis and basketball court before it got cold out.  The front desk provided the equipment to play.  The breakfast was good.  It included oatmeal with an array of toppings, make your own waffles, fruits, yogurts, pastries, and more.  In the evenings, Monday through Wednesday, they provided a complimentary, light dinner of sorts for the guests like make your own burgers, chicken chili, and sweets.  They would provide drinks too like beer, wine, and sodas.  There was always enough for everyone that arrived.  The employee working that was always nice.  You could also find the manager greeting the guests.  Parking was always available on the Bldg B side, and it was well lit.  The only con was that the laundry facilities didn't always work, but they would refund your money each time.  The housekeeping staff was really great.  They always kept the property and our room super clean.  We especially appreciated the work that Ms. Elisa and Mr. Jose Luis done.  All the front desk staff was wonderful and nice to us our whole stay.  We got to know their work ethic pretty well because of our extended stay.  It's right off the freeway, close to restaurants, and shopping.  Overall this is a very clean, safe, and comfortable place to stay.More</t>
   </si>
   <si>
+    <t>Troy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r549620101-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>Stayed here while visiting my father. Its a category 1 hotel, but its clean, conveniently located adjacent to I-820 and the best burger place in the US.....Whataburger. Located at exit 17. Be careful if exiting from the east. The right turn on red has a camera and a small sign that says "No Right on Red". You will get a ticket, I know. Staff is friendly and maid service is prompt. Also has good top end restaurants nearby (&lt;1.5 miles) too.More</t>
   </si>
   <si>
+    <t>Sgtfletcher</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r529003292-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>This hotel is just about like most of Marriott's Residence Inn properties.  I found the staff, front desk people, especially Rachel and Miquel (that is a "q") very helpful. The breakfast was v good but they had no apples!!! never!!! Why no apples?  An apple a day keep my friends at home!! ha!Parking is good with easy access to the street. One big problem is the signage   If you are looking for a sign, give up now. You will never find it. The codes people has them make sign so gd dm small that it's worthless.  You will NEVER FIND THIS PLACE AT NIGHT!!!!!More</t>
   </si>
   <si>
+    <t>empy2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r514356179-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -255,6 +267,9 @@
     <t>Pros:  All Marriott hotels are non-smoking. Hotel staff go above and beyond to make stay best.      Of course, the pool was fun, gas BBQ grills, Free breakfast with fresh scrambled eggs, oatmeal, waffles, fruits and beverages. Something for everyone. Not luxury, but good enough.Clean rooms.  Cons: Only one, unavoidable if you do not have pets, is pet odor. . There was NO pet odor in the corridor, fabulous.  Our first room had a strong odor, so we were moved. The second room had an odor, but not sure if it was pet or the chemical to remove pet odor. I have serious allergies so it had to be pretty decent if my allergies did not kick in immediately. No one else in the family had any problem, so A+ there., This hotel is well kept and staff is top notch.    This hotel is tucked away easily accessible from the hwy, not downtown, not overly crowded, safe and not remote. We have visited several times in the last 4 years and it seems to still be nice. Some in other areas have dropped off my list of favorites.More</t>
   </si>
   <si>
+    <t>Dean C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r504789575-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -282,6 +297,9 @@
     <t>It is rare to find good customer service. This staff, especially Ronna, was truly amazing, so friendly and truly wanted our stay to be unique.  The hotel was great. We would visit again. We felt very much at home.More</t>
   </si>
   <si>
+    <t>jamescN4638TL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r504132598-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -303,6 +321,9 @@
     <t>The staff at this Residence Inn in Fossil Creek is the most accommodating staff I have had the pleasure of interacting with.  As a Marriott Gold member, I travel extensively and this is one of the best Residence Inns I have stayed at - if not the best.  The breakfast is exceptional (they provide the cold cereals, etc by 0500 for those on an early schedule) and the evening socials are excellent.  The rooms are well maintained and the housekeeping staff does an exceptional job.   They have a keen sense of "customer service" that many in the industry don't seem to understand.More</t>
   </si>
   <si>
+    <t>sallen512</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r497237396-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -330,6 +351,9 @@
     <t>Helpful and kind staff, good location to restaurants and shopping.  Rooms are well appointed, nice shelving in closet, but bathroom area was in need of paint / newer carpet.  TIP:  ask for a room more in the back of the property and not adjacent to Sandshell Drive - it looks there is a Coca-Cola distribution center in the area and lots of truck traffic next to the eastern side of the property.More</t>
   </si>
   <si>
+    <t>Maggie5698</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r495853327-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -357,6 +381,9 @@
     <t>Just finishing a stay here. This is by far the cleanest hotel I have ever stayed. Great location, very restful, good food and superior customer focused staff. Just want to recognize Sandra ( manager of housekeeping) Miquel ( who handled a situation at the front desk with a customer that was particularly off base ) and Ronna who was the ultimate hostess and worked very hard to help with laundry matters. This hotel simply has the best staff I ever experienced. The hotel is just down the road ( you have to drive) from some very nice restaurants. And the weekday get togethers are awesomeMore</t>
   </si>
   <si>
+    <t>jenniferhwalsh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r489116526-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -378,6 +405,9 @@
     <t>My kids and I checked in after the paint fumes became unbearable while I had my house repainted. Ronna was working the front desk and she immediately made me feel at ease with her smile and understanding as well as her ability to find me a room at the last minute on a holiday weekend.  During my stay,  Ronna helped us numerous times; even finding me some milk for a late afternoon coffee, and always with a smile.  She was kind to my children and helped them as well.  The cleaning staff is friendly and will work to accommodate your schedule. The kids had fun in the pool which was meticulously maintained.  Breakfast is nicely done with a large variety to choose from.  You can choose to eat outside near the pool which is very pleasant. This was our second stay here and it again exceeded our expectations.  Thank you Ronna and staff! More</t>
   </si>
   <si>
+    <t>LindsayMast</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r484744757-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -393,6 +423,9 @@
     <t>This hotel was great for our extended family to meet at for a weekend away. We enjoyed the breakfast provided, great outdoor area for grilling/dining, and of course the kids loved the pool! Rooms were clean and spacious, and hotel staff was friendly and helpful.</t>
   </si>
   <si>
+    <t>Dana F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r482675419-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -411,6 +444,9 @@
     <t>I am a platinum elite member and I made my reservations in advance.  I called several days in advance to upgrade one room and put my parents name on the other reservation.  When the reservation was originally made I asked that the rooms be close together and even after the upgrade the made it possible for my parents room to be right next door.  I then called the morning of the reservation and asked if we could check in early.  They accommodated everything I needed.  The sent reminder emails asking if there was anything they could do and sent a follow up email after my stay.  The property is a little older however it was a very nice stay.  I think the only thing i would change would have been the breakfast on Saturday morning.  It was not one of the best of have ever had but not the worst either.More</t>
   </si>
   <si>
+    <t>Pippadude</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r473011583-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -432,6 +468,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>doug10k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r461596717-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -453,6 +492,9 @@
     <t>I just spent a good part of the winter there, and the Residence Inn exceeded my expectations in many ways.  The morning breakfast seemed better than at similar hotels, with my favorites greek yogurt, fresh fruit, and various pastries (eggs &amp; other hot food are there as well).  The evening reception changes nightly and was usually enough for dinner.  The hamburgers grilled outside were quite tasty!  As an extra touch, Valentine's Day included cupcakes and chocolate strawberries, showing that management cares about the guests.  As usual for Residence Inns, the rooms are quite large and with nice desks.  The hotel is adjacent to a nice community with a new sidewalk that seemed safe for walking or running, so you're not stranded at the hotel.  Overall, a bunch of us stayed there a lot and we were glad we did.More</t>
   </si>
   <si>
+    <t>DPRW1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r459846920-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -477,6 +519,9 @@
     <t>Awesome property ,super friendly staff. Colleen Radke is a really nice person &amp; wonderful general manager. Rachel Ickes is the best event specialist. The guests are treated like family. Thank you for your generosity!More</t>
   </si>
   <si>
+    <t>Charmaine J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r458406580-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -495,6 +540,9 @@
     <t>I was traveling for a busy business convention in Fort Worth and arrived at a different hotel (Hilton) that I had been booked at that was completely under construction. I wouldn't stay there so I quickly called the Marriott Residences at Fossil Creek where I was kindly treated quickly and attentively by the front desk associate "Victor". He was able to make a last minute reservation for me and was very professional and accommodating both on the phone and 3 minutes later when I showed up in desperate need of a MARRIOTT Residence! Not only was my room clean and comfortable, the manager came up personally to help me ( a completely computer illiterate person) get my computer and my "office" up and running so I could get right to work! My stay was wonderful and I got a ton of work completed since the hotel was quiet (no construction). There was PLENTY of parking and I was always able to park near the entrance for easy in and easy out convenience! Victor and the MOD were friendly and warm and inviting and I am happy to recommend this location at Fossil Creek and would definitely stay again! Thank you for making my business trip a complete success!More</t>
   </si>
   <si>
+    <t>wireless_in_CA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r451567062-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -522,6 +570,9 @@
     <t>I stayed here for one night when visiting the Fort Worth area.Due to the construction along the freeway it adds a little bit of challenge getting to it since there is so much.Check in was very efficient especially by doing the mobile check in ahead of time.The rooms are well maintained but needs a refresh to meet the standards I saw at another Residence inn I stayed in earlier.The gym has a good selection of free weights and two treadmills and an elliptical.  Small but functional.The hosted evening consisted of beer, wine, soft drinks and BBQ pork.  The breakfast was also good with Chobani yogurt, special k berry cereal, eggs, bacon, fresh fruit and grits.There is a small market area across from the front desk for small snacks and food items so you don't have to run out.More</t>
   </si>
   <si>
+    <t>M-a-r-k_H-11111</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r433523755-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -540,6 +591,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>MensaMan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r429255849-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -561,6 +615,9 @@
     <t>I selected this Marriott location because it was the closest to the venue where my high school reunion was being held. In addition it had the best weekend rates of the several other Marriotts in the area. Upon arrival, I understood the reason for the lower rate. It is very near the intersection of I-820 &amp; I-35W, both of which are under construction. So it's pretty difficult to get to this property, but once you get there it's worth it!The rooms are large &amp; clean. The beds are comfortable &amp; the complimentary weekend breakfast is excellent, especially on Sunday!The staff was very helpful, when I had questions &amp; the building &amp; grounds were well maintained. As a bonus, there's a Whataburger just a couple of blocks away, along with other local &amp; national restaurant chains. So finding a place to eat is no problem. In addition it's not far from the old Fort Worth Stockyards, with all the shops, museums, &amp; Billy Bobs!While construction is ongoing, believe your GPS to find this Marriott, but I give it high marks &amp; highly recommend it to travelers to the North Fort Worth area. More</t>
   </si>
   <si>
+    <t>threestartraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r421021679-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -582,6 +639,9 @@
     <t>This RI is a bit old, but the staff made it a pleasant experience. From the time I checked in to the time I left, I got the feeling that they did everything to make me feel relaxed and enjoy the short time I was there. Important for a biz traveler is a comfortable bed, a quiet room with a quiet A/C, and a reliable Wifi. All 3 checked! Unlike other RI's I've stayed at, the breakfast here was above average. Hot, frequently replenished scrambled eggs, very fresh fruits, and a nice touch of cheeses (felt like a typical hotel in Europe, at times.) Then there were evening receptions. Well, the wines and the beers could be better. That is why I am not giving them 5 stars.More</t>
   </si>
   <si>
+    <t>andre r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r403665373-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -600,6 +660,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Laurelmw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r401517256-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -618,6 +681,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>MidwestGal_9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r350684967-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -636,6 +702,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>lghamiltontx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r350061217-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -651,6 +720,9 @@
     <t xml:space="preserve">Had a quick overnight stop and found this wonderful hotel. The desk staff at checkin was friendly and helpful in providing information on the area. It is in a strange location but convenient to a variety of places. It was only a few minutes from the Stockyards which was convenient for us. The room was very spacious and well stocked. I would definitely stay here again </t>
   </si>
   <si>
+    <t>chirag8252073</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r332788859-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -669,6 +741,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>38allovertheplace</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r306377209-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -693,6 +768,9 @@
     <t>Arrival- this hotel seems to be placed in an odd location, there is a large empty lot adjacent to hotel and has a layout almost like an old apartment community.  My welcoming at the front desk was not warm or inviting, the female at the desk seems irritated so I smiled bigger and exaggerated my thank you and still no improvement.Lobby-small but has a small pantry/food closet with breakfast area.Room- Quiet and very clean rooms, no issues, great sleepLocation- You must know not much close, you can walk across field/empty lot to a salt grass steakhouse but if you have a car there are many restaurant options within a mile radius.More</t>
   </si>
   <si>
+    <t>JessPem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r295463409-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -714,6 +792,9 @@
     <t>My husband has to work in Fort Worth often so the kids &amp; I came down with him to enjoy Texas for a couple weeks &amp; LOVED our stay here.  I'm hoping we can do this again soon!  We stayed in a 2 bedroom suite which worked wonderful for us.  The couch was perfect for our smallest to sleep on while the older one got his own bedroom &amp; so did we.  The kitchen is perfect for an extended stay, complete with standard fridge (not one of those small hotel fridges), dishwasher, sink &amp; stove.  They do have it stocked with the basics of 4 plates, 4 bowls, some silverware, coffee pot &amp; toaster.  They come in &amp; clean daily emptying your garbage, giving you clean towels.  They even have kitchen towels &amp; give you dishwasher soap packets.  Our room overlooked the pool which was great so we could look out &amp; see if it was real busy or not.  Our kids loved the pool.  It was always kept clean &amp; they even had pool noodles &amp; beach balls for them to play with.  We all were happy with the breakfast.  My husband has gluten issues so sometimes if hotels only do waffles &amp; cereals he is out of luck but they always had some style of egg &amp; sausage or bacon.  My son's favorite was when they did breakfast burritos.  And then Monday through Wednesday evenings they do a...My husband has to work in Fort Worth often so the kids &amp; I came down with him to enjoy Texas for a couple weeks &amp; LOVED our stay here.  I'm hoping we can do this again soon!  We stayed in a 2 bedroom suite which worked wonderful for us.  The couch was perfect for our smallest to sleep on while the older one got his own bedroom &amp; so did we.  The kitchen is perfect for an extended stay, complete with standard fridge (not one of those small hotel fridges), dishwasher, sink &amp; stove.  They do have it stocked with the basics of 4 plates, 4 bowls, some silverware, coffee pot &amp; toaster.  They come in &amp; clean daily emptying your garbage, giving you clean towels.  They even have kitchen towels &amp; give you dishwasher soap packets.  Our room overlooked the pool which was great so we could look out &amp; see if it was real busy or not.  Our kids loved the pool.  It was always kept clean &amp; they even had pool noodles &amp; beach balls for them to play with.  We all were happy with the breakfast.  My husband has gluten issues so sometimes if hotels only do waffles &amp; cereals he is out of luck but they always had some style of egg &amp; sausage or bacon.  My son's favorite was when they did breakfast burritos.  And then Monday through Wednesday evenings they do a cocktail hour in the evenings.  All the staff was super helpful &amp; friendly.  Their cleaning staff especially was always keeping everything very nice &amp; maintained.We didn't bring our dog with us but it was nice to see that they allow dogs.  We saw many of them &amp; its good to see hotels that still allow themMore</t>
   </si>
   <si>
+    <t>Kmad26</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r286749136-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -735,6 +816,9 @@
     <t>My husband works in Ft. Worth and this is his "home away from home". I occasionally take a few days and go stay with him.  I came to really enjoy Ronna who worked the front desk but has taken another job.  They have had a few staff come and go but on my recent visit they were very friendly. They also have made changes to the nightly food and drinks that I think are very good. The pool is always nice and they do a great job keeping the room clean and stocked.  The grounds are well kept also.  For my husband, being close to the office and area restaurants and golf course, it works very well.More</t>
   </si>
   <si>
+    <t>MTReagor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r274877082-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -753,6 +837,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>John S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r274108240-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -768,6 +855,9 @@
     <t xml:space="preserve">I have traveled to Ft Worth around six times in the last year and stay usually two weeks each time. The Residence Inn Fossil Creek is my hotel of choice. Ronna at the front desk always greets me with a smile whenever she sees me. She goes out of her way to make sure your stay is pleasant and enjoyable. there is major construction on the highways all around the hotel but the proximity to great restaurants help because you don't even have to get on the highway to go eat. </t>
   </si>
   <si>
+    <t>elswells</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r270811291-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -792,6 +882,9 @@
     <t>Generally Residence Inn is our hotel of choice, as we appreciate the space, storage, breakfast, and kitchen.  This one has all that, but the management and housekeeping  is a real disappointment.  We are in the one bedroom suite, which is spacious and comfortable.  We are here for 4 days, and have very much enjoyed the breakfasts, which are fresh and have lots of choices.  The breakfast staff is friendly and helpful and keep everything replenished.  The housekeeping has been random and ineffective.  They have removed such things as shampoo and soap, and haven't replaced.  The trash wasn't emptied or the coffee replaced. Yesterday I got ready to shave my legs and found my razor was missing.  When I asked at the desk for a replacement, I was told that if they had any, I could buy one from the wall of travel supplies!  My husband went to the desk this morning to complain about coming home from a day's work and finding the room hasn't been serviced.  It is now 4:15, and nobody's been here.  Yesterday someone finally came and did a partial service sometime after 6, when we went to buy a new razor and go to dinner.  Definitely this one is not up to the usual Residence Inn standard.Very disappointed!More</t>
   </si>
   <si>
+    <t>William D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r246371241-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -819,6 +912,9 @@
     <t>As I said the staff is wonderful but the condition of the rooms are poor. Upon check in the room was a bit dirty and the bathroom sink did not drain. It was fixed but there was more. Drawers did not work, the bath was chipped and just old. This is a great location for me but I can not stay here again unless it is updated.More</t>
   </si>
   <si>
+    <t>PJB892</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r245995191-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -841,6 +937,9 @@
   </si>
   <si>
     <t>Not my first time to stay here. This area has been in a construction area - it seems like forever. Great service when we checked in and rooms pretty standard and clean. Unfortunately it went downhill from there. We had a 2 bedroom suite and my granddaughters were supposed to stay on the sofa bed. To get it cool enough in the bedrooms, it was very cold in the living room with the sofa bed. looked for extra blanket - there was none (no pillows either). Tried to call down to get another blanket and there were no lines to the telephones in either room! Seriously - phones sitting there but not connected to anything! Went down to front desk and you would have thought we had asked for the moon - was told they had no more blankets. No semblance of customer service - no apology. Finally he said he would have to have security go into a room and get a blanket. You would have thought their inventory problem was my fault!  Two star rating is primarily for the night service. Lousy!  With the construction you really have to try to get here - you would think they would bend over backwards for great service.  So low rating for location as well due to the perpetual construction zone. Security did bring blanket (pretty old and worn) - but what a hassle!  Could never get temperature regulated either.More</t>
+  </si>
+  <si>
+    <t>Rae D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r245429208-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -871,6 +970,9 @@
 This hotel has an odd setup. The main front desk (and breakfast area) is in a separate building, so you have to go outside the building to get from your room...First up, the service here is great. Everyone from the front desk to the morning breakfast staff was extremely nice and hospitable. That said, we stayed here because we wanted two bedrooms and a pullout couch as a family of five. The room was spacious and was clean to the eye.That said, this hotel allows pets, and you WILL notice that, especially if you don't have pets yourself. The dogs barking and the slight pee smell on the sides of the hotel I could tolerate. But the living room of the two bedroom suite we were assigned to reeked of (cat or dog) pee. Like, bad. I don't know if the cleaning staff didn't report it when they were cleaning the room or if management simply didn't do anything about it, but it was disgusting. Upon reporting it, we were immediately moved to the only other two bedroom suite room available, but, I'm not sure what they would have done if they hadn't had another one free. So, they get an A for customer service, but a D on allowing anyone to occupy that room in its condition. After that, I couldn't bring myself to allow my kids to walk around even the new room without socks on. This hotel has an odd setup. The main front desk (and breakfast area) is in a separate building, so you have to go outside the building to get from your room to the breakfast area. The free WiFi was ok. Laundry machines worked. Maid service was good. The free breakfast look microwaved - I don't recommend the hot food. The cereals, bagels, waffle maker, etc. were all great. The coffee was fresh, which I greatly appreciated. The breakfast staff was nice.That said, no matter how nice the staff is, I can't recommend this hotel. Being placed in a room that reeked of animal pee made me question the cleanliness of everything else in the rooms. I was completely uncomfortable having my kids - especially my toddler - there after that.More</t>
   </si>
   <si>
+    <t>Kern C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r228686604-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -898,6 +1000,9 @@
     <t>We stayed at this hotel for 45 days due to a flood in our home. Our stay was very comfortable, and the front desk, specifically Rona and Heather, could not have been more helpful. Maria in housekeeping was also pleasant and reliable. Marriott could stand to give this property some attention, however. The hallways and elevators are pretty tired. Our room was comfortable, and when there was an issue, it was taken care of promptly. If you spend 45 days at any hotel, chances are you'll hit some bumps, and we did, but the excellent staff took care of us.More</t>
   </si>
   <si>
+    <t>CrabV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r210758958-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -919,6 +1024,9 @@
     <t>Stayed one night and it was wonderful.  Room was spacious and clean.  Great Customer Service!!  Great breakfast.  On the morning after our arrival, my husband went out to the car and discovered we had a flat tire.  We went to the front desk for help.  The clerk immediately got to work and located a near by auto store where we could get  "Fix a Flat" to get the tire in shape to get it to Discount Tire (Another Great Business in Ft. Worth)  The auto store was to far to go by foot, so the clerk got in her car and went and got us the Fix a Flat!!! She was happy to help us out and didn't think twice about going to the store.  We truly appreciated her kindness!!! The Residence Inn Fort Worth Fossil Creek will be our home away from home when we visit Ft. Worth!More</t>
   </si>
   <si>
+    <t>Rainy64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r205713571-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -937,6 +1045,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Eric123bn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r195488356-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -964,6 +1075,9 @@
     <t>Recently stayed here during the week for business and very happy with the Residence Inn.  It is close to interstate access and plenty of restaurants to choose from.  Hotel is a little older but very clean and roomy.  Will definitely choose the Residence Inn again when back in Fort Worth.  There is some road construction in the area but did not affect getting in and out of the hotel.More</t>
   </si>
   <si>
+    <t>RichB2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r190553513-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -991,6 +1105,9 @@
     <t>I have stayed at this Residence Inn probably 30 times in the last 18 months. The rooms are large and always clean and the beds are comfy. A big shout out to the ladies of the Residence - Beryl and Rhonda. Superstars.More</t>
   </si>
   <si>
+    <t>Mark S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r188790719-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1018,6 +1135,9 @@
     <t>Checked in here late for an overnight stay as we left for a North Texas to Southern California trip. We made our reservations online and choose a one bedroom which was more than what we really needed.  The place was clean and spacious- located right off the freeway.More</t>
   </si>
   <si>
+    <t>IntBizTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r187386995-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1042,6 +1162,9 @@
     <t>Stayed here one night because it's close to office. It's a big property right off two hwy turn pike. It's about 30 min to DFW, 20 min to dtwn Fort Worth. The rooms aren't too big, but comes with living room and bedroom, has a kitchen and will do groceries. Breakfast is included, small gym, and laundry room on each floor. It's pretty basic, but clean. If you stay here, make sure to request a room not facing the hwy. there are many restaurants near by, pretty convenient.More</t>
   </si>
   <si>
+    <t>Pierce41</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r186630352-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1066,6 +1189,9 @@
     <t>Traveled here for business, and was very happy with this hotel. Great breakfast and dinner options provided at the hotel. Awesome location, and the staff was always so helpful with anything you need. I would stay here again, without a doubt.More</t>
   </si>
   <si>
+    <t>David E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r185634416-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1087,6 +1213,9 @@
     <t>They booked our room accurately at the last minute.  The hotel and the room were very clean and well maintained.  Front desk staff were very professional and friendly.  Room was exactly as requested in my profile...high floor and away from elevator.  Perfect!At check out, I needed to leave some childrens clothes for a friend to pick up after we left.  Beryl  was extremely helpful and even provided a bag to keep them together until my friend picked them up.My wife and I will definitely stay here again.More</t>
   </si>
   <si>
+    <t>RJones12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r183784266-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1111,6 +1240,9 @@
     <t>We stayed 4 nights here during October and would definitely return if in the area again.  There were five in my party and we stayed in one of the two bedroom, two bathroom suites.  I made reservations online and had no trouble checking in or checking out.  The rooms and bathroom were clean upon arrival and had no issues arise during our stay.  The beds are comfortable but pretty firm.  The sofa bed in the living room was okay.  We did not use the kitchen during our stay, but everything looked clean.  We did eat breakfast every morning at the hotel before leaving for the day.  The variety was great....hot and cold cereal, waffles, pastries, bagels, toast, eggs, potatoes and either bacon or sausage.  The breakfast area was large and clean with very helpful attendants.  At this time, the road construction in the area makes it a little inconvenient to get around, but don't let it deter you from staying here.  Wonderful stay!More</t>
   </si>
   <si>
+    <t>aebsdbmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r183634153-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1129,6 +1261,9 @@
     <t>My husband, son and father and I stayed here for 10 days while we were being located to the area.  The hotel is extremely clean and the staff there was VERY helpful and friendly!!  Everyone from Beryl the manager down to the ladies and gentlemen who stocked the breakfast to the ladies who cleaned the rooms were very friendly and helpful. The hot breakfast in the mornings was always hot and tasty.  I would recommend this hotel to anyone.  It is a great hotel!!More</t>
   </si>
   <si>
+    <t>80tracymm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r183545845-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1150,6 +1285,9 @@
     <t>In moving my family to the Fort Worth area we found ourselves in the unfortunate situation of being homeless for about two weeks.  Nothing has been more stressful in my life than finding myself and family (10 month old &amp; 2 year old) without a home and having to stay in a hotel for an extended period of time.  We were fortunate enough in finding the Residence Inn at Fort Worth Fossil Creek.  Not only have the rooms been the closest home away from home with the ammenities, but the staff is like an extended family.  They have been so accomadating and truly understand the meaning of customer service.  Beryl and Ana treated me like a VIP and have made a life long customer out of my family for the Residence Inn Fort Worth Fossil Creek and Marriott as a whole.  If you are looking to stay anywhere near the Fort Worth area I highly recommend this location.  I promise you will not be dissatisfied.More</t>
   </si>
   <si>
+    <t>Colleen E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r183091674-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1174,6 +1312,9 @@
     <t>We have stayed at the Marriott Residence Inn Fossil Creek Fort Worth TX twice. Both times we have had an excellent experience!  The staff is friendly, helpful, and there to serve YOU.  It feels like coming home as soon as you enter the property.  When we checked in, Anna was so helpful in getting our accommodations changed so that we had exactly what we needed.  The free breakfast each morning was a welcome bonus.  The kitchen staff made sure that the buffet was well stocked and the food was hot.  Thanks Sandra and staff!  Would we stay here again?  Most definitely!More</t>
   </si>
   <si>
+    <t>Calvin W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r182863545-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1192,6 +1333,9 @@
     <t>Good location to work.  Not more than 10 minutes to Meachum Airport in the morning.  Traffic can be slower in the evening due to construction. Several restaurants in the area, several within walking distance. The gym consists only of two treadmills and an elliptical, along with a complete set of dumbbells; not extravagent, but suffice. The room is good.  Very quiet and always clean. The hotel has breakfast every morning at 6:30 and for the early birds, bagels, cereal, muffins, etc are always out around 5.  The staff at the hotel are amazing and very accomodating. The hotel offers excellent amenities, including free grocery service daily; just write down what you'd like, and its in your fridge in the afternoon.   Haven't used the pool or hottub, but they look nice and clean. Laundry service is available, but I have used the washer amand dryers available on site ($1.00 per cycle) which are extremely efficient. Overall an excellent hotel that I would recommened to those working in the area for extended periods.More</t>
   </si>
   <si>
+    <t>LP1009</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r182635036-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1216,6 +1360,9 @@
     <t>I have stayed in every hotel in this area and it is one of the best, but just can't give 5 stars.  It is and older building and can have a bit of an odor, but is it well maintained.  If you like chain restaurants and highway access, the location is good.  Staff is outstanding. If you get the right rate ($67 with my company), the value can't be beat with free breakfast and dinner a few nights a week.  Washer and Dryer are only $1 per load and work well.  Fitness center is small but adequate.  People that stay seem to be regulars and are nice.  If you have a little extra cash and want to stay closer to downtown, stay at another Marriott property, Townplace Suites - I love it.  Same concept, but brand new and better location.More</t>
   </si>
   <si>
+    <t>Zpux</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r180451957-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1240,6 +1387,9 @@
     <t>Stayed at the residence inn for a month and it was a great value. Friendly service (especially Beryl, the Property Coordinator) and pretty much hassle-free. Located in a quiet neighborhood, it was great for a good sleep after a hard day's work. Definitely recommend it. More</t>
   </si>
   <si>
+    <t>Tom P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r180396355-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1258,6 +1408,9 @@
     <t>I travel for my job, this hotel was a very friendly and fun place to stay for the three week work had me in the area. If my job has me back in the area, I would not even think twice about staying at this hotel again. Thanks Residence inn Fossil creek!!! :-)More</t>
   </si>
   <si>
+    <t>DesertNomadJohn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r179091690-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1282,6 +1435,9 @@
     <t>Great location within a few minutes of stores, groceries, movie theatre and restaurants. Staff were incredibly friendly and helpful. Room and furnishings were in very good condition.The hotel is on a side street just off of a major hwy. Far enough that the noise is not an issue, but close enough to get anywhere you need to be quickly (provided Fort Worth traffic cooperates).More</t>
   </si>
   <si>
+    <t>Bdrewski211</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r177733856-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1306,6 +1462,9 @@
     <t>I can't say enough good things about this hotel. The rooms makes you feel like you are at home. This hotel feels like a small resort. They have a swimming pool, basketball and volleyball courts, courtyard, fantastic breakfast buffet, BBQ grills poolside for the guest to BBQ their meals while enjoying the pool, exercise room, computer area, family night every Thursday night with fun events like bingo, customer appreciation nights with a small buffet served for the first several times a week....list is endless. Staff is welcoming and always happy to help you. Newly renovated rooms and lobby makes this hotel a definite keeper. More</t>
   </si>
   <si>
+    <t>pabrshbr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r177642555-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1321,6 +1480,9 @@
     <t>My wife and I were in the DFW area for a house hunting trip.  The hotel staff were very friendly, knowledgeable about the area, and gave us great tips on places to visit.  The food was excellent and included a nice variety of items to choose from each day.  The RI Fossil Creek includes free breakfast daily as well as free dinners Monday through Thursday.  The room was very clean and the maid service did a great job cleaning the room each day.  The hotel is in a very central location.  The hotel grounds are well kept and offer a nice pool and jacuzzi.  The exercise room is small- but has multiple exercise bikes and some free weights.  I highly recommend this property to business travelers and/or families looking for a great place to stay.More</t>
   </si>
   <si>
+    <t>clmorgan67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r177126407-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1345,6 +1507,9 @@
     <t>My husband and I were in town for a friend's wedding.  The RI Fort Worth (Fossil Creek) was great, spacious and most of all clean.  Front Desk staff was very friendly throughout the stay.  Beryl, the sales coordinated was very informative and friendly.  She represented the location well.  The weekday breakfast staff was very accomodating, however the Saturday morning person, not so much.I would definitely stay again!CLM from VAMore</t>
   </si>
   <si>
+    <t>Cynthia Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r176781872-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1363,6 +1528,9 @@
     <t>My stay here was great! I enjoyed the free breakfast. The different selections are delightful. Staff was great! Everyone at the front desk is knowledgeable and extremely gratuitous. Everyone was amazingly helpful! The swimming pool is well kept and pleasantly warm! Rooms are kept clean by the attendants. It was very much appreciated! Will definitely be back!More</t>
   </si>
   <si>
+    <t>Glen H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r176542996-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1384,6 +1552,9 @@
     <t>Beryl and the staff at the Residence Inn Fort Worth are truly special.  They made my family and I feel so welcome during our one month plus stay at the property.  The food, the bingo nights on Thursday nights and the overall family atmosphere was great.  In addition, the hotel is walking distance to multiple great restaurants and a movie theatre.  I would highly recommend the hotel.More</t>
   </si>
   <si>
+    <t>PhotoJane</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r174761121-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1402,6 +1573,9 @@
     <t>I have to say that I have stayed at nicer Residence Inns (more updated rooms/layout), but what made this place was the staff. We had two different rooms with our stay and the staff were ALL helpful during the transition to the second room (we needed a 2-bedroom and one wasn't available at time of booking). The breakfast and dinners were great, just make sure you get your dinner well before finishing time (7:30). Some of the food was gone by 7:10-715pm.  Not being from the area, the construction traffic took a little getting used to.  My navigation did not do well with all the exit changes. You may want to call ahead for directions if you are not familiar with the area.More</t>
   </si>
   <si>
+    <t>Sheryl B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r173251853-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1426,6 +1600,9 @@
     <t>We stay at Marriott hotels most of the time.  We have stayed hundreds of nights.  On this business trip, we had the pleasure of having Beryl Alexander host a fun night on Thursday evening.  We have always known that the Residence Inn has a light meal but never had anyone have fun and games.  Beryl had a bingo game going for the kids and adults.  She was absolutely wonderful and we completely enjoyed her.  She was full of energy, loads of fun and a definite asset to the Residence Inn in Fort Worth.  I have never had that much fun on a business trip before.More</t>
   </si>
   <si>
+    <t>Kahnie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r169237423-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1450,6 +1627,9 @@
     <t>Every things' been wonderful.  Family of four pleasantly awaiting our new home.  EVERYONE Here is absolutely wonderful.  This is heaven for my 9 and 12 year old girls.  The amenities are kept up very well, the food is great.  We absolutely love the Bingo night with all of the family (and my personal family  :o) )More</t>
   </si>
   <si>
+    <t>Donald V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r168768284-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1471,6 +1651,9 @@
     <t>To whom it may concern:I am a DOD contractor and I travel quite extensively through out the country. Upon my arrival here in Fort Worth Texas , The Fossil Creek location, the service has been outstanding. From the the front desk personell to the the cleaning crew , this group of employees has implemented the meaning of Hospitality to its Highest level! I would like to give a special thanks to Beryl Alexander, Sales cordinator, for making my entire crew and my self feel most welcome and having a sense of Home here at your facility. Keep up  the good work and best regards to all of you!Sincerely, Don VeredrySRA InternationalMore</t>
   </si>
   <si>
+    <t>chris h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r167232139-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1493,6 +1676,9 @@
   </si>
   <si>
     <t>Activities, room, food, and service was really good. Enjoyed the "dinner events" (small dinner bar) and bingo night. Beryl Alexander is a lot of fun and plans some unique activities. One downside is that my room needed to be sprayed for bugs. Several unpleasant encounters with tiny "residents"More</t>
+  </si>
+  <si>
+    <t>cathylcox</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r167050292-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1522,6 +1708,9 @@
 Thank you Res Inn/Fossil...The caring, compassionate, and professional staff of this Residence Inn in Fossil Creek made a difficult and sometimes chaotic relocation of my family much simpler than it would have otherwise been.  Cara, Beryl, Heather, Ana, Bob, and Rona were continually available to assist us - be it advice on a terrific restaurant or areas of town to look for a new home, or what documentation we needed to get a TX drivers license tp which museums we should visit near Sundance Square.  It is common for RI/Fossil Creek residents to start their mornings with breakfast in their main lounge area.  Friendly conversation with each other and staff (usually Beryl Alexander) over breakfast as we shared relo information with each other. Beryl was instrumental in developing a sense of community here with her  warm, caring personality that naturally brings residents together and has been a catalyst to meeting new people and making new friendships. We regularly relax around the pool on weekend evenings talking to new and old friends, shoot hoops on the basketball court,start the morning in the workout room on the elliptical and  walk the dog on miles of sidewalks that immediately surround the hotel, . The friendly maintenance and housekeeping staff have quick to respond to our needs in the room, to work with our schedule and pet situation when the room needed attention, and regularly demonstrated a cooperative spirit with our many requests.  Thank you Res Inn/Fossil Creek for making our relocation much less stressful and even enjoyable as you welcomed us to Ft. Worth!!!  The Cox FamilyMore</t>
   </si>
   <si>
+    <t>Rodney M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r166270081-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1543,6 +1732,9 @@
     <t>The Fossil Creek Residence Inn is located in a convenient location with many amenities nearby.  The staff is friendly and really looks after the guests - especially us long term stay folks.  I even started enjoying the once a week Bingo at supper with the resident Bingo Master - Beryl Alexander.  It's the kind of thing that makes a long term stay a little more pleasant - and I think that's what the staff here really strives for.  And I don't think you could ask for more.More</t>
   </si>
   <si>
+    <t>shawn l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r165556287-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1564,6 +1756,9 @@
     <t>Excellent staff, particularly Beryl Alexander and Heather Williams.Clean rooms and pool area, breakfast and happy hour lots of fun.Everyone goes out of their way to ensure a comfortable and enjoyable stay.Kudos as well to Ronna Stephens, a great Marriott employee and good friend.More</t>
   </si>
   <si>
+    <t>Emily C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r165541659-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1579,6 +1774,9 @@
     <t>We stayed in Residence Inn Fort Worth Fossil Creek for over 2 months while relocating to Fort Worth with the aerospace industry.  The kitchenette has granite countertops and stainless steel appliances, and is equipped with everything you'd need to make a meal (minus an oven).  The evening socials (M-Th) served dinner, wine, and beer, so we didn't even need to cook much during the week.  The best night of the week was BINGO night, on Thursdays... the lobby would be packed with guests, all trying to win various prizes including Marriott rewards points, kids gifts, fresh baked cookies, and seasonal/themed gifts.  The staff was absolutely wonderful and made it feel more like a community than a hotel.  I recommend this hotel to anyone, whether it's a short stay or a few months... this has been one of the best hotel experiences in my whole life.  Thanks to Beryl and the rest of the staff... job well done!More</t>
   </si>
   <si>
+    <t>Tonya M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r165497250-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1597,6 +1795,9 @@
     <t>Have stayed here since being relocated in April.The staff is very excellent and helpful. I enjoy Bingo night, breakfast, and happy hour.  The housekeeping staff is wonderful and can clean a room like you would not believe.  Kudos to the Fossil Creek staff.  The sales representative Beryl is awesome!!More</t>
   </si>
   <si>
+    <t>PNG81</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r157850112-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1621,6 +1822,9 @@
     <t>Stayed here last week while in town for the NRA 500. Hotel was nice, centrally located. The rooms were clean and comfortable. The only problem was hotel was noisy. If you go don't get room on I35 side traffic noise load all night long. Breakfast was good.More</t>
   </si>
   <si>
+    <t>MrsJ51096</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r156703605-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1639,6 +1843,9 @@
     <t>Our stay was not expected. We were displaced from our home due to a kitchen fire. Spending 23 nights away from home could have certainly been miserable for our family of 10!! It was definitely not that. The staff was incredible, the accommodations were extraordinary, the complimentary meals were a definite blessing, and the BINGO games gave my kids something to look forward to. I would definitely recommend The Residence Inn Fossil Creek to any one in my situation or vacationing! I am not sure there is anything better out there! Seriously!-Marie Jackson More</t>
   </si>
   <si>
+    <t>Mourning M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r155983337-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1666,6 +1873,9 @@
     <t>My family and I recently had the opportunity to stay at this property for Spring Break. I loved the area, but most of all I loved the staff and the property itself. The staff were very friendly and accomodating and really showed that they care about each of their guest. There was plenty for the kids to do from swimming, work out, playing basketball and volleyball on the sports court at the property. The rooms were spacious and clean!!!!!More</t>
   </si>
   <si>
+    <t>wxman77477</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r147965425-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1687,6 +1897,9 @@
     <t>Very nice clean room; a suite with a good kitchen and separate bedroom. Very reasonable priced.  The hotel was very close to many good restuarants.  The manager helped me with some issues. I can not complain.More</t>
   </si>
   <si>
+    <t>Guest55857</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r146338284-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1711,6 +1924,9 @@
     <t>I have stayed at this hotel several days every week for the last 7 weeks.  The rooms are nice and are cleaned well but beware.  This hotel has a huge problem with auto break ins.  They claim to have part time night security but it is not effective.  They are not uniformed and do not use spotlights or marked vehicles and do not appear to spend much time on this location.  I personally know of 2 vehicles broken into within the last 6 days.  Typically the side glass is broken out.More</t>
   </si>
   <si>
+    <t>NickMarine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r139031695-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1738,6 +1954,9 @@
     <t>My truck and another guests truck was broken into and we both lost a lot of stuff. The management said sorry and have not heard a word back from them and the break in was two days ago. After talking to the staff members We found out that this happens a lot. We also found out that people break into the washers and driers to steal the change. Better yet they have local police come in an sit in the breakfast area to insure people from the apartments in the area do not come in and get free breakfast.More</t>
   </si>
   <si>
+    <t>Mike L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r132334949-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1762,6 +1981,9 @@
     <t>I've stayed at plenty hotels throughout the last few years and I just want to say that this was one of the best experiences I've had.  Ronna and Yolanda made my check in very enjoyable.  I recently had a bad stay at another property but the staff here helped me to regain all the confidence I previously lost.  Whenever i'm back in Ft Worth, this is the only place I will stay!More</t>
   </si>
   <si>
+    <t>Lisa J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r131976722-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1780,6 +2002,9 @@
     <t>I was in Fort Worth on business for a week that extended into two. While I was there I stayed in 3 different hotels and the Residence Inn was the best by a longshot. First I was at the Comfort Suites, then the Radisson. The Comfort Suites wasn’t very comfortable and the Radisson made me very uneasy but chose them because they offered on-site laundry facilities. However, when I checked with the front desk their dryer was broken – and that’s when I moved to your hotel.I totally enjoyed my stay and felt quite at home. Your hotel is well maintained and every night my room was in ship shape allowing me to unwind from long days. Everyone from the front desk to the maids were very welcoming and excel at customer service. I have found my home away from home and when I travel to Texas I know exactly where I’ll stay!Kudos to you and your staff for making your guests feel comfortable when away from home.More</t>
   </si>
   <si>
+    <t>VANE T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r131048943-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1804,6 +2029,9 @@
     <t>hello i stayed at this hotel for 4 nights and it was very nice the rooms are updated .We Were able to use the bbq grill and just enjoy the evening i felt like it was home away from home..and not to mention the staff there were amazing especially Ana,and Richard i will definetly stay here again thank you for taking care of us soooo good!!!!Thanks vanessa,More</t>
   </si>
   <si>
+    <t>HighFlyin82A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r128021344-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1831,6 +2059,9 @@
     <t>Great hotel in a good location.  15-20 minutes North of Fort Worth, depending on traffic and construction.  Near many businesses like Lockheed-Martin and FAA.  Many good restaurants within a few miles.  Breakfast is pretty nice compared to other hotels in the area.  Nice pool, and sports courts.  Very spacious, well equipped rooms for the extended stay business person.  Great hotel over all.More</t>
   </si>
   <si>
+    <t>wat3v3r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r127532287-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1849,6 +2080,9 @@
     <t>This hotel is currently under renovation. According to the t-shirts that their front desk staff were wearing, the renovation will be lasting until May. Their front desk is actually now in their breakfast area and is reduced to a counter instead of the usual spread. I would like to think that the upheaval from the renovation is what caused the front desk staff to be unsure about what's going on in their hotel. When I asked if the pool was open the young lady at the desk at first said "yes" and when I mentioned that the note in our room said something about the pool being seasonal, she then said something like, "maybe it's not". Since I needed something for the kids to do after a long drive, we just went ahead and checked for ourselves. Good thing they had the maintenance man cleaning and testing the pool water and we found out from him that yes, the pool was indeed open. The room where we stayed was one of the newly renovated ones, I think. The carpets and furnishings were new. They were pleasing enough to the eyes. The carpets were so brand new though that the "newly-installed-carpet-smell" was evident in the hallways and in the room. In the bedroom it got too strong for me it woke me up at night; I had to switch sides the next night so I could be on the side that...This hotel is currently under renovation. According to the t-shirts that their front desk staff were wearing, the renovation will be lasting until May. Their front desk is actually now in their breakfast area and is reduced to a counter instead of the usual spread. I would like to think that the upheaval from the renovation is what caused the front desk staff to be unsure about what's going on in their hotel. When I asked if the pool was open the young lady at the desk at first said "yes" and when I mentioned that the note in our room said something about the pool being seasonal, she then said something like, "maybe it's not". Since I needed something for the kids to do after a long drive, we just went ahead and checked for ourselves. Good thing they had the maintenance man cleaning and testing the pool water and we found out from him that yes, the pool was indeed open. The room where we stayed was one of the newly renovated ones, I think. The carpets and furnishings were new. They were pleasing enough to the eyes. The carpets were so brand new though that the "newly-installed-carpet-smell" was evident in the hallways and in the room. In the bedroom it got too strong for me it woke me up at night; I had to switch sides the next night so I could be on the side that had more open space between the bed and the wall. But the kids didn't seem to mind so maybe others won't mind as well. Their regular exercise room was closed but I did see that a row of treadmills were positioned in a room facing the pool. I don't know if those were working or plugged in. The main reasons why we chose Residence Inn - the availability of a regular sized fridge, the accessibility of a stove, and the hot breakfast buffet were all thankfully up to our expectations so for that I am giving 3 stars. I am hoping that after the renovations, their front desk staff will be back to full-working-knowledge order and their rooms will smell less-brand-new. They do need to improve their signage on the frontage road. We missed the entrance a couple of times when we used the frontage road from 820 East heading toward 35 West, so if you take that to get to the hotel, you need to slow down a little; best to take the entrance at Sandshell. They were very close to several restaurants and a movie house and if you explored just a little bit more they were within short driving distance to a couple of grocery stores and many other retail establishments.More</t>
   </si>
   <si>
+    <t>EricATC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r126750366-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1870,6 +2104,9 @@
     <t>The hotel staff are excellent. The breakfast buffet is well suited for all types of travelers, business to lesiure. The rooms are clean and contain a fridg. The location near to restaurants and the DFW airport was very good as well as being close to major highways.More</t>
   </si>
   <si>
+    <t>Peb92</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r115775019-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1891,6 +2128,9 @@
     <t>This was probably the worst stay ever...the cleaning staff was pitiful. The first week, my room was only cleaned twice. And when it was cleaned, it was after 5:00 pm. The front desk staff lady would only comment that they were understaffed (they didn't refund me partially due to lack of service). The carpet looked as if it had never been vacuumed. I had to request it. Ants were everywhere. The cleanup staff hangs out in the front office, when they should be cleaning rooms. The outside trashcans are never emptied and the stench carries on into the building. The barbecue pits need a good cleaning. I was very, very disapppointed. Please stay somewhere else.More</t>
   </si>
   <si>
+    <t>VESmith25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r58935718-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1912,6 +2152,9 @@
     <t>I must admit that I was not impressed with this Residence Inn.  While the room was clean the furniture was both worn and dated.  Overall it was just not a very welcoming space to stay in.  It is, however, in a good location for many restaurants and there is also a movie theater nearby.  For a 2 night stay I found this hotel sufficient but do not plan to return the next time I am in town.  There are many other hotels in this same location to choose from.More</t>
   </si>
   <si>
+    <t>Fixo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r50228366-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1931,6 +2174,9 @@
   </si>
   <si>
     <t>Was a bit concerned after reading reviews of this property, but I found it to be a wonderful place to stay, very convenient to multiple restaurants and to my business trip which was at Meacham Field.  When I checked in to the property they had be draw a fortune cookie from a jar.   My " fortune was a gift certificate for $10 off dinner at TGIFridays and 200 bonus Marriott reward points.  Front Desk staff was helpful and breakfast was complete and delicious.  Even though this was a cool November evening, the Hot Tub and Outdoor Pool were open and the Hot Tub was great.  Had to move pretty quickly to get back to my room before the ice formed though.....More</t>
+  </si>
+  <si>
+    <t>Baxman</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r15942279-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1959,6 +2205,9 @@
 Warning: The Fort Worth police every weekday have a speed trap on the access road in front of the hotel. The speed limit is set low and most days there are at...I have stayed in dozens of Residence Inns and this is perhaps the worst one that I've seen. Most Residence Inn are very nice but this property needs some work. My first room had a very bad ant problem along with other maintenance issues. The second room I had also had issues but at least no ants. The carpets appear to be new and the bedding is nice. The cable channel selection is really subpar compared to any other hotel. Compared to most hotels though this hotel is not so bad...just don't expect it to be as nice as other Marriots. The staff here are marginally helpfull. I did not appreciate a call at 11:00 one night to see if I had checked out.  Not only didn't I check out but I still had 10 days on my reservation. No one at the front desk calls when they receive Fed Ex packages. Some of them were sitting down at the desk for days before I knew I had a package. In the mornings the breakfast area is frequently out of food. Most days there are many items that are gone. The garbage in the dining area usually needs to be over flowing before the staff will empty it.Warning: The Fort Worth police every weekday have a speed trap on the access road in front of the hotel. The speed limit is set low and most days there are at least two-three cars getting tickets when I drive by. This speed trap was also here last year when I stayed at this hotel.More</t>
   </si>
   <si>
+    <t>Abonda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r12099299-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1981,6 +2230,9 @@
   </si>
   <si>
     <t>My wife and I stayed at this hotel over Christmas, 2007 (1 year after the previous reviewer). Same experience/problems as her. Our toilet got stopped up the first day. The staff did clear it up the same day, but we were obviously hesitant to use it again. The second night we were awakened by a mechanical sounding rat-a-tat-a-tat in the middle of the night. It only lasted for 6 minutes, but of course I had no idea how long it would last while it was going on. I reported it to the desk the next morning, but got no answer as to what caused it. Then that evening when we got back to our room we heard the noise again (around 10:00 pm). I snooped around and found that there was an air compressor machine in a closet that was RIGHT NEXT TO the wall where our bed was located (room 110 - avoid this room if you don't want to be awakened in the middle of the night). I immediately went to the front desk and complained. The clerk was very accommodating and offered to move us, which I accepted. The third thing I noticed was similar to what the previous reviewer reported. At breakfast one morning two of the housekeeping staff had a lengthly and loud personal conversation in the breakfast room that lasted at least 15 minutes. I was he only guest there at that time, but...My wife and I stayed at this hotel over Christmas, 2007 (1 year after the previous reviewer). Same experience/problems as her. Our toilet got stopped up the first day. The staff did clear it up the same day, but we were obviously hesitant to use it again. The second night we were awakened by a mechanical sounding rat-a-tat-a-tat in the middle of the night. It only lasted for 6 minutes, but of course I had no idea how long it would last while it was going on. I reported it to the desk the next morning, but got no answer as to what caused it. Then that evening when we got back to our room we heard the noise again (around 10:00 pm). I snooped around and found that there was an air compressor machine in a closet that was RIGHT NEXT TO the wall where our bed was located (room 110 - avoid this room if you don't want to be awakened in the middle of the night). I immediately went to the front desk and complained. The clerk was very accommodating and offered to move us, which I accepted. The third thing I noticed was similar to what the previous reviewer reported. At breakfast one morning two of the housekeeping staff had a lengthly and loud personal conversation in the breakfast room that lasted at least 15 minutes. I was he only guest there at that time, but I thought it was very unprofessional for them to be so engaged in front of a guest. I will never stay at that hotel again, needless to say.More</t>
+  </si>
+  <si>
+    <t>Boys3-Girls3</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109088-r4356673-Residence_Inn_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -2503,43 +2755,47 @@
       <c r="A2" t="n">
         <v>34551</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>175994</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2559,50 +2815,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>34551</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>20824</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -2620,56 +2880,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>34551</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>175995</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -2687,56 +2951,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>34551</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>175996</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2756,50 +3024,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>34551</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>17687</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2811,56 +3083,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>34551</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>175997</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>89</v>
       </c>
-      <c r="J7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>84</v>
-      </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2878,56 +3154,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="X7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>34551</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>175998</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2939,56 +3219,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="X8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>34551</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>175999</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>107</v>
       </c>
-      <c r="L9" t="s">
-        <v>108</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>100</v>
-      </c>
       <c r="O9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -3006,56 +3290,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="X9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>34551</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>176000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3069,50 +3357,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>34551</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>9931</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -3132,50 +3424,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>34551</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>1763</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
         <v>127</v>
       </c>
-      <c r="K12" t="s">
-        <v>128</v>
-      </c>
-      <c r="L12" t="s">
-        <v>129</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>118</v>
-      </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -3195,50 +3491,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>34551</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>176001</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="O13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -3258,50 +3558,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>34551</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>176002</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="O14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -3319,50 +3623,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>34551</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>176003</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3374,56 +3682,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="X15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="Y15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>34551</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>176004</v>
+      </c>
+      <c r="C16" t="s">
+        <v>167</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="J16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>156</v>
       </c>
-      <c r="L16" t="s">
-        <v>157</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>143</v>
-      </c>
       <c r="O16" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3441,56 +3753,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="X16" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>34551</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>176005</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="J17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="O17" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3502,56 +3818,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="X17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>34551</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>176006</v>
+      </c>
+      <c r="C18" t="s">
+        <v>184</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="J18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="K18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="O18" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3565,50 +3885,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>34551</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>176007</v>
+      </c>
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="J19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="O19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3622,50 +3946,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>34551</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>19830</v>
+      </c>
+      <c r="C20" t="s">
+        <v>199</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="J20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="O20" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3685,50 +4013,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>34551</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>176008</v>
+      </c>
+      <c r="C21" t="s">
+        <v>207</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="J21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3748,50 +4080,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>34551</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>176009</v>
+      </c>
+      <c r="C22" t="s">
+        <v>214</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="J22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3805,50 +4141,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>34551</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>176010</v>
+      </c>
+      <c r="C23" t="s">
+        <v>221</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="J23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="O23" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3868,50 +4208,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>34551</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>176011</v>
+      </c>
+      <c r="C24" t="s">
+        <v>228</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="J24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="K24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="O24" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3925,50 +4269,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>34551</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>176012</v>
+      </c>
+      <c r="C25" t="s">
+        <v>234</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="J25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="O25" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3988,50 +4336,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>34551</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>176013</v>
+      </c>
+      <c r="C26" t="s">
+        <v>241</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="J26" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="K26" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4047,56 +4399,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="X26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="Y26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>34551</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>176014</v>
+      </c>
+      <c r="C27" t="s">
+        <v>250</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="J27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="K27" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -4116,50 +4472,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>34551</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>4752</v>
+      </c>
+      <c r="C28" t="s">
+        <v>258</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="J28" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="O28" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4179,50 +4539,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>34551</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>176015</v>
+      </c>
+      <c r="C29" t="s">
+        <v>266</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="J29" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="K29" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="O29" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4242,50 +4606,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>34551</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>6540</v>
+      </c>
+      <c r="C30" t="s">
+        <v>273</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="J30" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="K30" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="O30" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4299,50 +4667,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>34551</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>176016</v>
+      </c>
+      <c r="C31" t="s">
+        <v>279</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="J31" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="K31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="O31" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4354,56 +4726,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="X31" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="Y31" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>34551</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>2466</v>
+      </c>
+      <c r="C32" t="s">
+        <v>288</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="J32" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="K32" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="L32" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4421,56 +4797,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="X32" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="Y32" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>34551</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>176017</v>
+      </c>
+      <c r="C33" t="s">
+        <v>298</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="J33" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="K33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="L33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4486,56 +4866,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="X33" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="Y33" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>34551</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>176018</v>
+      </c>
+      <c r="C34" t="s">
+        <v>307</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="J34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="K34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
@@ -4553,56 +4937,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="X34" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="Y34" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>34551</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>87724</v>
+      </c>
+      <c r="C35" t="s">
+        <v>316</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="J35" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="K35" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="L35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4620,56 +5008,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="X35" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="Y35" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>34551</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>176019</v>
+      </c>
+      <c r="C36" t="s">
+        <v>326</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="J36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="K36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="L36" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4693,50 +5085,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>34551</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>176020</v>
+      </c>
+      <c r="C37" t="s">
+        <v>334</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="J37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="K37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="O37" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4760,50 +5156,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>34551</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>176021</v>
+      </c>
+      <c r="C38" t="s">
+        <v>341</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="J38" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="K38" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="L38" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="O38" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4825,56 +5225,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="X38" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="Y38" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>34551</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>176022</v>
+      </c>
+      <c r="C39" t="s">
+        <v>351</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="J39" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="K39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="L39" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="O39" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4896,56 +5300,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="X39" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="Y39" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>34551</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>8110</v>
+      </c>
+      <c r="C40" t="s">
+        <v>361</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="J40" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="K40" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="L40" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="O40" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -4967,56 +5375,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="X40" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="Y40" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>34551</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>68204</v>
+      </c>
+      <c r="C41" t="s">
+        <v>371</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="J41" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="K41" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="L41" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="O41" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5028,56 +5440,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="X41" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="Y41" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>34551</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>176023</v>
+      </c>
+      <c r="C42" t="s">
+        <v>380</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="J42" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="K42" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="L42" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="O42" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -5099,56 +5515,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="X42" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="Y42" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>34551</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>11016</v>
+      </c>
+      <c r="C43" t="s">
+        <v>389</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="J43" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="K43" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="L43" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="O43" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5170,56 +5590,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="X43" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="Y43" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>34551</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>176024</v>
+      </c>
+      <c r="C44" t="s">
+        <v>397</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="J44" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="K44" t="s">
         <v>12</v>
       </c>
       <c r="L44" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -5241,56 +5665,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="X44" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="Y44" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>34551</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>176025</v>
+      </c>
+      <c r="C45" t="s">
+        <v>406</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="J45" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="K45" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="L45" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="O45" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5312,56 +5740,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="X45" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="Y45" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>34551</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>176026</v>
+      </c>
+      <c r="C46" t="s">
+        <v>413</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="J46" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="K46" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="L46" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5383,56 +5815,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="X46" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="Y46" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>34551</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>31971</v>
+      </c>
+      <c r="C47" t="s">
+        <v>421</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="J47" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="K47" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="L47" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5454,56 +5890,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="X47" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="Y47" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>34551</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>25433</v>
+      </c>
+      <c r="C48" t="s">
+        <v>430</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="J48" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="K48" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="L48" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="O48" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -5525,56 +5965,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="X48" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="Y48" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>34551</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>168424</v>
+      </c>
+      <c r="C49" t="s">
+        <v>437</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="J49" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="K49" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="L49" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="O49" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5596,47 +6040,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="X49" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="Y49" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>34551</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>176027</v>
+      </c>
+      <c r="C50" t="s">
+        <v>446</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="J50" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="K50" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="L50" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
@@ -5663,56 +6111,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="X50" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="Y50" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>34551</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>15878</v>
+      </c>
+      <c r="C51" t="s">
+        <v>455</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="J51" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="K51" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="L51" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="O51" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5734,56 +6186,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="X51" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="Y51" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>34551</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>176028</v>
+      </c>
+      <c r="C52" t="s">
+        <v>462</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="J52" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="K52" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="L52" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="O52" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5805,47 +6261,51 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="X52" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="Y52" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>34551</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>176029</v>
+      </c>
+      <c r="C53" t="s">
+        <v>471</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="J53" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="K53" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="L53" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
@@ -5872,56 +6332,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="X53" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="Y53" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>34551</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>176030</v>
+      </c>
+      <c r="C54" t="s">
+        <v>480</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="J54" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="K54" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="L54" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="O54" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5943,56 +6407,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="X54" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="Y54" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>34551</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>176031</v>
+      </c>
+      <c r="C55" t="s">
+        <v>486</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="J55" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="K55" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="L55" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="O55" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -6012,56 +6480,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="X55" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="Y55" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>34551</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>83423</v>
+      </c>
+      <c r="C56" t="s">
+        <v>495</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="J56" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="K56" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="L56" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="O56" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6083,56 +6555,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="X56" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="Y56" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>34551</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>34363</v>
+      </c>
+      <c r="C57" t="s">
+        <v>502</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="J57" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="K57" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="L57" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6154,56 +6630,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="X57" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="Y57" t="s">
-        <v>453</v>
+        <v>509</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>34551</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>176032</v>
+      </c>
+      <c r="C58" t="s">
+        <v>510</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="J58" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
       <c r="K58" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="L58" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -6225,56 +6705,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="X58" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="Y58" t="s">
-        <v>459</v>
+        <v>516</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>34551</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>16302</v>
+      </c>
+      <c r="C59" t="s">
+        <v>517</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>461</v>
+        <v>519</v>
       </c>
       <c r="J59" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="K59" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
       <c r="L59" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="O59" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6296,56 +6780,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="X59" t="s">
-        <v>466</v>
+        <v>524</v>
       </c>
       <c r="Y59" t="s">
-        <v>467</v>
+        <v>525</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>34551</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>176033</v>
+      </c>
+      <c r="C60" t="s">
+        <v>526</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
       <c r="J60" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="K60" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="L60" t="s">
-        <v>472</v>
+        <v>531</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6367,56 +6855,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>473</v>
+        <v>532</v>
       </c>
       <c r="X60" t="s">
-        <v>474</v>
+        <v>533</v>
       </c>
       <c r="Y60" t="s">
-        <v>475</v>
+        <v>534</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>34551</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>56706</v>
+      </c>
+      <c r="C61" t="s">
+        <v>535</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="J61" t="s">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="K61" t="s">
-        <v>479</v>
+        <v>539</v>
       </c>
       <c r="L61" t="s">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>481</v>
+        <v>541</v>
       </c>
       <c r="O61" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6438,56 +6930,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>473</v>
+        <v>532</v>
       </c>
       <c r="X61" t="s">
-        <v>474</v>
+        <v>533</v>
       </c>
       <c r="Y61" t="s">
-        <v>482</v>
+        <v>542</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>34551</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>85698</v>
+      </c>
+      <c r="C62" t="s">
+        <v>543</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>483</v>
+        <v>544</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="J62" t="s">
-        <v>485</v>
+        <v>546</v>
       </c>
       <c r="K62" t="s">
-        <v>486</v>
+        <v>547</v>
       </c>
       <c r="L62" t="s">
-        <v>487</v>
+        <v>548</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="O62" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6509,56 +7005,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>488</v>
+        <v>549</v>
       </c>
       <c r="X62" t="s">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="Y62" t="s">
-        <v>490</v>
+        <v>551</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>34551</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>176034</v>
+      </c>
+      <c r="C63" t="s">
+        <v>552</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>491</v>
+        <v>553</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>492</v>
+        <v>554</v>
       </c>
       <c r="J63" t="s">
-        <v>493</v>
+        <v>555</v>
       </c>
       <c r="K63" t="s">
-        <v>494</v>
+        <v>556</v>
       </c>
       <c r="L63" t="s">
-        <v>495</v>
+        <v>557</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6580,56 +7080,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>488</v>
+        <v>549</v>
       </c>
       <c r="X63" t="s">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="Y63" t="s">
-        <v>497</v>
+        <v>559</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>34551</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>29298</v>
+      </c>
+      <c r="C64" t="s">
+        <v>560</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>498</v>
+        <v>561</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>499</v>
+        <v>562</v>
       </c>
       <c r="J64" t="s">
-        <v>500</v>
+        <v>563</v>
       </c>
       <c r="K64" t="s">
-        <v>501</v>
+        <v>564</v>
       </c>
       <c r="L64" t="s">
-        <v>502</v>
+        <v>565</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>503</v>
+        <v>566</v>
       </c>
       <c r="O64" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6651,56 +7155,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>488</v>
+        <v>549</v>
       </c>
       <c r="X64" t="s">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="Y64" t="s">
-        <v>504</v>
+        <v>567</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>34551</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>176035</v>
+      </c>
+      <c r="C65" t="s">
+        <v>568</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="J65" t="s">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="K65" t="s">
         <v>10</v>
       </c>
       <c r="L65" t="s">
-        <v>508</v>
+        <v>572</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>481</v>
+        <v>541</v>
       </c>
       <c r="O65" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6722,56 +7230,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>509</v>
+        <v>573</v>
       </c>
       <c r="X65" t="s">
-        <v>510</v>
+        <v>574</v>
       </c>
       <c r="Y65" t="s">
-        <v>511</v>
+        <v>575</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>34551</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>4905</v>
+      </c>
+      <c r="C66" t="s">
+        <v>576</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>512</v>
+        <v>577</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="J66" t="s">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="K66" t="s">
-        <v>514</v>
+        <v>579</v>
       </c>
       <c r="L66" t="s">
-        <v>515</v>
+        <v>580</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>481</v>
+        <v>541</v>
       </c>
       <c r="O66" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6793,56 +7305,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>488</v>
+        <v>549</v>
       </c>
       <c r="X66" t="s">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="Y66" t="s">
-        <v>516</v>
+        <v>581</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>34551</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>3598</v>
+      </c>
+      <c r="C67" t="s">
+        <v>582</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>517</v>
+        <v>583</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>518</v>
+        <v>584</v>
       </c>
       <c r="J67" t="s">
-        <v>519</v>
+        <v>585</v>
       </c>
       <c r="K67" t="s">
-        <v>520</v>
+        <v>586</v>
       </c>
       <c r="L67" t="s">
-        <v>521</v>
+        <v>587</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6864,56 +7380,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>509</v>
+        <v>573</v>
       </c>
       <c r="X67" t="s">
-        <v>510</v>
+        <v>574</v>
       </c>
       <c r="Y67" t="s">
-        <v>522</v>
+        <v>588</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>34551</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>16663</v>
+      </c>
+      <c r="C68" t="s">
+        <v>589</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>523</v>
+        <v>590</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>524</v>
+        <v>591</v>
       </c>
       <c r="J68" t="s">
-        <v>525</v>
+        <v>592</v>
       </c>
       <c r="K68" t="s">
-        <v>526</v>
+        <v>593</v>
       </c>
       <c r="L68" t="s">
-        <v>527</v>
+        <v>594</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
       <c r="O68" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -6935,47 +7455,51 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>528</v>
+        <v>595</v>
       </c>
       <c r="X68" t="s">
-        <v>529</v>
+        <v>596</v>
       </c>
       <c r="Y68" t="s">
-        <v>530</v>
+        <v>597</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>34551</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>176036</v>
+      </c>
+      <c r="C69" t="s">
+        <v>598</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>531</v>
+        <v>599</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>532</v>
+        <v>600</v>
       </c>
       <c r="J69" t="s">
-        <v>533</v>
+        <v>601</v>
       </c>
       <c r="K69" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="L69" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
@@ -7002,56 +7526,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>528</v>
+        <v>595</v>
       </c>
       <c r="X69" t="s">
-        <v>529</v>
+        <v>596</v>
       </c>
       <c r="Y69" t="s">
-        <v>536</v>
+        <v>604</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>34551</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>176037</v>
+      </c>
+      <c r="C70" t="s">
+        <v>605</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>537</v>
+        <v>606</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>538</v>
+        <v>607</v>
       </c>
       <c r="J70" t="s">
-        <v>539</v>
+        <v>608</v>
       </c>
       <c r="K70" t="s">
-        <v>540</v>
+        <v>609</v>
       </c>
       <c r="L70" t="s">
-        <v>541</v>
+        <v>610</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>542</v>
+        <v>611</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7073,56 +7601,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>543</v>
+        <v>612</v>
       </c>
       <c r="X70" t="s">
-        <v>544</v>
+        <v>613</v>
       </c>
       <c r="Y70" t="s">
-        <v>545</v>
+        <v>614</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>34551</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>176038</v>
+      </c>
+      <c r="C71" t="s">
+        <v>615</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>546</v>
+        <v>616</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>547</v>
+        <v>617</v>
       </c>
       <c r="J71" t="s">
-        <v>548</v>
+        <v>618</v>
       </c>
       <c r="K71" t="s">
-        <v>549</v>
+        <v>619</v>
       </c>
       <c r="L71" t="s">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>551</v>
+        <v>621</v>
       </c>
       <c r="O71" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -7144,56 +7676,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>528</v>
+        <v>595</v>
       </c>
       <c r="X71" t="s">
-        <v>529</v>
+        <v>596</v>
       </c>
       <c r="Y71" t="s">
-        <v>552</v>
+        <v>622</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>34551</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>176039</v>
+      </c>
+      <c r="C72" t="s">
+        <v>623</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>553</v>
+        <v>624</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>554</v>
+        <v>625</v>
       </c>
       <c r="J72" t="s">
-        <v>555</v>
+        <v>626</v>
       </c>
       <c r="K72" t="s">
-        <v>556</v>
+        <v>627</v>
       </c>
       <c r="L72" t="s">
-        <v>557</v>
+        <v>628</v>
       </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
       <c r="N72" t="s">
-        <v>551</v>
+        <v>621</v>
       </c>
       <c r="O72" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7205,56 +7741,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>558</v>
+        <v>629</v>
       </c>
       <c r="X72" t="s">
-        <v>559</v>
+        <v>630</v>
       </c>
       <c r="Y72" t="s">
-        <v>560</v>
+        <v>631</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>34551</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>176040</v>
+      </c>
+      <c r="C73" t="s">
+        <v>632</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>561</v>
+        <v>633</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>562</v>
+        <v>634</v>
       </c>
       <c r="J73" t="s">
-        <v>563</v>
+        <v>635</v>
       </c>
       <c r="K73" t="s">
-        <v>564</v>
+        <v>636</v>
       </c>
       <c r="L73" t="s">
-        <v>565</v>
+        <v>637</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>566</v>
+        <v>638</v>
       </c>
       <c r="O73" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -7276,56 +7816,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>567</v>
+        <v>639</v>
       </c>
       <c r="X73" t="s">
-        <v>568</v>
+        <v>640</v>
       </c>
       <c r="Y73" t="s">
-        <v>569</v>
+        <v>641</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>34551</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>925</v>
+      </c>
+      <c r="C74" t="s">
+        <v>642</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>570</v>
+        <v>643</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
       <c r="J74" t="s">
-        <v>572</v>
+        <v>645</v>
       </c>
       <c r="K74" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L74" t="s">
-        <v>573</v>
+        <v>646</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>574</v>
+        <v>647</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7347,56 +7891,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>575</v>
+        <v>648</v>
       </c>
       <c r="X74" t="s">
-        <v>576</v>
+        <v>649</v>
       </c>
       <c r="Y74" t="s">
-        <v>577</v>
+        <v>650</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>34551</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>4062</v>
+      </c>
+      <c r="C75" t="s">
+        <v>651</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>578</v>
+        <v>652</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>579</v>
+        <v>653</v>
       </c>
       <c r="J75" t="s">
-        <v>580</v>
+        <v>654</v>
       </c>
       <c r="K75" t="s">
-        <v>581</v>
+        <v>655</v>
       </c>
       <c r="L75" t="s">
-        <v>582</v>
+        <v>656</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>574</v>
+        <v>647</v>
       </c>
       <c r="O75" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7418,56 +7966,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>575</v>
+        <v>648</v>
       </c>
       <c r="X75" t="s">
-        <v>576</v>
+        <v>649</v>
       </c>
       <c r="Y75" t="s">
-        <v>583</v>
+        <v>657</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>34551</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>176041</v>
+      </c>
+      <c r="C76" t="s">
+        <v>658</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>585</v>
+        <v>660</v>
       </c>
       <c r="J76" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
       <c r="K76" t="s">
-        <v>587</v>
+        <v>662</v>
       </c>
       <c r="L76" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>574</v>
+        <v>647</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7489,56 +8041,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="X76" t="s">
-        <v>590</v>
+        <v>665</v>
       </c>
       <c r="Y76" t="s">
-        <v>591</v>
+        <v>666</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>34551</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>176042</v>
+      </c>
+      <c r="C77" t="s">
+        <v>667</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>592</v>
+        <v>668</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>593</v>
+        <v>669</v>
       </c>
       <c r="J77" t="s">
-        <v>594</v>
+        <v>670</v>
       </c>
       <c r="K77" t="s">
-        <v>595</v>
+        <v>671</v>
       </c>
       <c r="L77" t="s">
-        <v>596</v>
+        <v>672</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>597</v>
+        <v>673</v>
       </c>
       <c r="O77" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7560,56 +8116,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>598</v>
+        <v>674</v>
       </c>
       <c r="X77" t="s">
-        <v>599</v>
+        <v>675</v>
       </c>
       <c r="Y77" t="s">
-        <v>600</v>
+        <v>676</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>34551</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>176043</v>
+      </c>
+      <c r="C78" t="s">
+        <v>677</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>601</v>
+        <v>678</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>602</v>
+        <v>679</v>
       </c>
       <c r="J78" t="s">
-        <v>603</v>
+        <v>680</v>
       </c>
       <c r="K78" t="s">
-        <v>604</v>
+        <v>681</v>
       </c>
       <c r="L78" t="s">
-        <v>605</v>
+        <v>682</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>597</v>
+        <v>673</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7631,56 +8191,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>598</v>
+        <v>674</v>
       </c>
       <c r="X78" t="s">
-        <v>599</v>
+        <v>675</v>
       </c>
       <c r="Y78" t="s">
-        <v>606</v>
+        <v>683</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>34551</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>176044</v>
+      </c>
+      <c r="C79" t="s">
+        <v>684</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>607</v>
+        <v>685</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
       <c r="J79" t="s">
-        <v>609</v>
+        <v>687</v>
       </c>
       <c r="K79" t="s">
-        <v>610</v>
+        <v>688</v>
       </c>
       <c r="L79" t="s">
-        <v>611</v>
+        <v>689</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>612</v>
+        <v>690</v>
       </c>
       <c r="O79" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7702,56 +8266,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>598</v>
+        <v>674</v>
       </c>
       <c r="X79" t="s">
-        <v>599</v>
+        <v>675</v>
       </c>
       <c r="Y79" t="s">
-        <v>613</v>
+        <v>691</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>34551</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>176045</v>
+      </c>
+      <c r="C80" t="s">
+        <v>692</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>614</v>
+        <v>693</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>615</v>
+        <v>694</v>
       </c>
       <c r="J80" t="s">
-        <v>616</v>
+        <v>695</v>
       </c>
       <c r="K80" t="s">
-        <v>617</v>
+        <v>696</v>
       </c>
       <c r="L80" t="s">
-        <v>618</v>
+        <v>697</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>619</v>
+        <v>698</v>
       </c>
       <c r="O80" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P80" t="s"/>
       <c r="Q80" t="s"/>
@@ -7767,56 +8335,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>598</v>
+        <v>674</v>
       </c>
       <c r="X80" t="s">
-        <v>599</v>
+        <v>675</v>
       </c>
       <c r="Y80" t="s">
-        <v>620</v>
+        <v>699</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>34551</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>176046</v>
+      </c>
+      <c r="C81" t="s">
+        <v>700</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>621</v>
+        <v>701</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>622</v>
+        <v>702</v>
       </c>
       <c r="J81" t="s">
-        <v>623</v>
+        <v>703</v>
       </c>
       <c r="K81" t="s">
-        <v>624</v>
+        <v>704</v>
       </c>
       <c r="L81" t="s">
-        <v>625</v>
+        <v>705</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>626</v>
+        <v>706</v>
       </c>
       <c r="O81" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P81" t="n">
         <v>2</v>
@@ -7838,56 +8410,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>598</v>
+        <v>674</v>
       </c>
       <c r="X81" t="s">
-        <v>599</v>
+        <v>675</v>
       </c>
       <c r="Y81" t="s">
-        <v>627</v>
+        <v>707</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>34551</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>176047</v>
+      </c>
+      <c r="C82" t="s">
+        <v>708</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>628</v>
+        <v>709</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>629</v>
+        <v>710</v>
       </c>
       <c r="J82" t="s">
-        <v>630</v>
+        <v>711</v>
       </c>
       <c r="K82" t="s">
-        <v>631</v>
+        <v>712</v>
       </c>
       <c r="L82" t="s">
-        <v>632</v>
+        <v>713</v>
       </c>
       <c r="M82" t="n">
         <v>3</v>
       </c>
       <c r="N82" t="s">
-        <v>633</v>
+        <v>714</v>
       </c>
       <c r="O82" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -7909,47 +8485,51 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>598</v>
+        <v>674</v>
       </c>
       <c r="X82" t="s">
-        <v>599</v>
+        <v>675</v>
       </c>
       <c r="Y82" t="s">
-        <v>634</v>
+        <v>715</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>34551</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>176048</v>
+      </c>
+      <c r="C83" t="s">
+        <v>716</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>635</v>
+        <v>717</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>636</v>
+        <v>718</v>
       </c>
       <c r="J83" t="s">
-        <v>637</v>
+        <v>719</v>
       </c>
       <c r="K83" t="s">
-        <v>638</v>
+        <v>720</v>
       </c>
       <c r="L83" t="s">
-        <v>639</v>
+        <v>721</v>
       </c>
       <c r="M83" t="n">
         <v>2</v>
@@ -7966,56 +8546,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>598</v>
+        <v>674</v>
       </c>
       <c r="X83" t="s">
-        <v>599</v>
+        <v>675</v>
       </c>
       <c r="Y83" t="s">
-        <v>640</v>
+        <v>722</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>34551</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>176049</v>
+      </c>
+      <c r="C84" t="s">
+        <v>723</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>641</v>
+        <v>724</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>642</v>
+        <v>725</v>
       </c>
       <c r="J84" t="s">
-        <v>643</v>
+        <v>726</v>
       </c>
       <c r="K84" t="s">
-        <v>644</v>
+        <v>727</v>
       </c>
       <c r="L84" t="s">
-        <v>645</v>
+        <v>728</v>
       </c>
       <c r="M84" t="n">
         <v>2</v>
       </c>
       <c r="N84" t="s">
-        <v>646</v>
+        <v>729</v>
       </c>
       <c r="O84" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="P84" t="n">
         <v>2</v>
@@ -8037,47 +8621,51 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>647</v>
+        <v>730</v>
       </c>
       <c r="X84" t="s">
-        <v>599</v>
+        <v>675</v>
       </c>
       <c r="Y84" t="s">
-        <v>648</v>
+        <v>731</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>34551</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>176050</v>
+      </c>
+      <c r="C85" t="s">
+        <v>732</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>649</v>
+        <v>733</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>650</v>
+        <v>734</v>
       </c>
       <c r="J85" t="s">
-        <v>651</v>
+        <v>735</v>
       </c>
       <c r="K85" t="s">
-        <v>652</v>
+        <v>736</v>
       </c>
       <c r="L85" t="s">
-        <v>653</v>
+        <v>737</v>
       </c>
       <c r="M85" t="n">
         <v>2</v>
@@ -8094,13 +8682,13 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>598</v>
+        <v>674</v>
       </c>
       <c r="X85" t="s">
-        <v>599</v>
+        <v>675</v>
       </c>
       <c r="Y85" t="s">
-        <v>654</v>
+        <v>738</v>
       </c>
     </row>
   </sheetData>
